--- a/Leasing/Mapeos_INV_Leasing_V1.xlsx
+++ b/Leasing/Mapeos_INV_Leasing_V1.xlsx
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="411">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -1432,6 +1432,9 @@
   </si>
   <si>
     <t>Validaciones Generales PERSONAS/ 32. Calculo Salario anual persona</t>
+  </si>
+  <si>
+    <t>FLG_OBJ_LIB</t>
   </si>
 </sst>
 </file>
@@ -2488,6 +2491,28 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2545,28 +2570,6 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="86">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -3045,7 +3048,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3054,10 +3057,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="B1:R218"/>
+  <dimension ref="B1:R219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K181" workbookViewId="0">
-      <selection activeCell="N189" sqref="N189"/>
+    <sheetView tabSelected="1" topLeftCell="I165" workbookViewId="0">
+      <selection activeCell="N187" sqref="N187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3094,26 +3097,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="28"/>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="85"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="107"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="92" t="s">
+      <c r="H2" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="93"/>
-      <c r="J2" s="94"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="116"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="31" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="32"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="91"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="113"/>
       <c r="G3" s="10"/>
       <c r="H3" s="49"/>
       <c r="I3" s="26" t="s">
@@ -3126,11 +3129,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="87"/>
-      <c r="F4" s="88"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="110"/>
       <c r="G4" s="7"/>
       <c r="H4" s="50"/>
       <c r="I4" s="42" t="s">
@@ -3143,11 +3146,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="87"/>
-      <c r="F5" s="88"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="110"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3159,29 +3162,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="78" t="s">
+      <c r="I7" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="79"/>
-      <c r="K7" s="80"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="102"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="76" t="s">
+      <c r="M7" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="77"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="99"/>
+      <c r="R7" s="99"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -3246,13 +3249,13 @@
       <c r="F9" s="41"/>
       <c r="G9" s="70"/>
       <c r="H9" s="58"/>
-      <c r="I9" s="99">
+      <c r="I9" s="80">
         <v>85</v>
       </c>
-      <c r="J9" s="114" t="s">
+      <c r="J9" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="115" t="s">
+      <c r="K9" s="96" t="s">
         <v>187</v>
       </c>
       <c r="L9" s="74"/>
@@ -3420,7 +3423,7 @@
       <c r="J13" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="K13" s="101" t="s">
+      <c r="K13" s="82" t="s">
         <v>188</v>
       </c>
       <c r="L13" s="69"/>
@@ -3500,7 +3503,7 @@
       <c r="J15" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="K15" s="101" t="s">
+      <c r="K15" s="82" t="s">
         <v>190</v>
       </c>
       <c r="L15" s="69"/>
@@ -3617,7 +3620,7 @@
       <c r="J18" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="K18" s="101" t="s">
+      <c r="K18" s="82" t="s">
         <v>179</v>
       </c>
       <c r="L18" s="69"/>
@@ -3656,7 +3659,7 @@
       <c r="J19" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="K19" s="101" t="s">
+      <c r="K19" s="82" t="s">
         <v>181</v>
       </c>
       <c r="L19" s="69"/>
@@ -3695,7 +3698,7 @@
       <c r="J20" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="K20" s="101" t="s">
+      <c r="K20" s="82" t="s">
         <v>192</v>
       </c>
       <c r="L20" s="69"/>
@@ -3734,7 +3737,7 @@
       <c r="J21" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="K21" s="101" t="s">
+      <c r="K21" s="82" t="s">
         <v>193</v>
       </c>
       <c r="L21" s="69"/>
@@ -3816,7 +3819,7 @@
       <c r="J23" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="K23" s="101" t="s">
+      <c r="K23" s="82" t="s">
         <v>386</v>
       </c>
       <c r="L23" s="69"/>
@@ -3859,7 +3862,7 @@
       <c r="J24" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="K24" s="101" t="s">
+      <c r="K24" s="82" t="s">
         <v>387</v>
       </c>
       <c r="L24" s="69"/>
@@ -3898,7 +3901,7 @@
       <c r="J25" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="K25" s="101" t="s">
+      <c r="K25" s="82" t="s">
         <v>388</v>
       </c>
       <c r="L25" s="69"/>
@@ -3937,7 +3940,7 @@
       <c r="J26" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="K26" s="101" t="s">
+      <c r="K26" s="82" t="s">
         <v>389</v>
       </c>
       <c r="L26" s="69"/>
@@ -3978,7 +3981,7 @@
       <c r="J27" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="K27" s="101" t="s">
+      <c r="K27" s="82" t="s">
         <v>390</v>
       </c>
       <c r="L27" s="69"/>
@@ -4017,7 +4020,7 @@
       <c r="J28" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="K28" s="101" t="s">
+      <c r="K28" s="82" t="s">
         <v>391</v>
       </c>
       <c r="L28" s="69"/>
@@ -4058,7 +4061,7 @@
       <c r="J29" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="K29" s="101" t="s">
+      <c r="K29" s="82" t="s">
         <v>392</v>
       </c>
       <c r="L29" s="69"/>
@@ -4097,7 +4100,7 @@
       <c r="J30" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="K30" s="101" t="s">
+      <c r="K30" s="82" t="s">
         <v>393</v>
       </c>
       <c r="L30" s="69"/>
@@ -4136,7 +4139,7 @@
       <c r="J31" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="K31" s="101" t="s">
+      <c r="K31" s="82" t="s">
         <v>394</v>
       </c>
       <c r="L31" s="69"/>
@@ -4177,7 +4180,7 @@
       <c r="J32" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="K32" s="101" t="s">
+      <c r="K32" s="82" t="s">
         <v>395</v>
       </c>
       <c r="L32" s="69"/>
@@ -4218,7 +4221,7 @@
       <c r="J33" s="26" t="s">
         <v>366</v>
       </c>
-      <c r="K33" s="101" t="s">
+      <c r="K33" s="82" t="s">
         <v>396</v>
       </c>
       <c r="L33" s="69"/>
@@ -4257,7 +4260,7 @@
       <c r="J34" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="K34" s="101" t="s">
+      <c r="K34" s="82" t="s">
         <v>397</v>
       </c>
       <c r="L34" s="69"/>
@@ -4296,7 +4299,7 @@
       <c r="J35" s="26" t="s">
         <v>368</v>
       </c>
-      <c r="K35" s="101" t="s">
+      <c r="K35" s="82" t="s">
         <v>398</v>
       </c>
       <c r="L35" s="69"/>
@@ -4339,7 +4342,7 @@
       <c r="J36" s="26" t="s">
         <v>369</v>
       </c>
-      <c r="K36" s="101" t="s">
+      <c r="K36" s="82" t="s">
         <v>399</v>
       </c>
       <c r="L36" s="69"/>
@@ -4382,7 +4385,7 @@
       <c r="J37" s="26" t="s">
         <v>370</v>
       </c>
-      <c r="K37" s="101" t="s">
+      <c r="K37" s="82" t="s">
         <v>400</v>
       </c>
       <c r="L37" s="69"/>
@@ -4425,7 +4428,7 @@
       <c r="J38" s="26" t="s">
         <v>371</v>
       </c>
-      <c r="K38" s="101" t="s">
+      <c r="K38" s="82" t="s">
         <v>401</v>
       </c>
       <c r="L38" s="69"/>
@@ -4468,7 +4471,7 @@
       <c r="J39" s="26" t="s">
         <v>372</v>
       </c>
-      <c r="K39" s="101" t="s">
+      <c r="K39" s="82" t="s">
         <v>402</v>
       </c>
       <c r="L39" s="69"/>
@@ -4507,7 +4510,7 @@
       <c r="J40" s="26" t="s">
         <v>373</v>
       </c>
-      <c r="K40" s="101" t="s">
+      <c r="K40" s="82" t="s">
         <v>403</v>
       </c>
       <c r="L40" s="69"/>
@@ -4548,7 +4551,7 @@
       <c r="J41" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="K41" s="101" t="s">
+      <c r="K41" s="82" t="s">
         <v>404</v>
       </c>
       <c r="L41" s="69"/>
@@ -4587,7 +4590,7 @@
       <c r="J42" s="26" t="s">
         <v>375</v>
       </c>
-      <c r="K42" s="101" t="s">
+      <c r="K42" s="82" t="s">
         <v>405</v>
       </c>
       <c r="L42" s="69"/>
@@ -4626,7 +4629,7 @@
       <c r="J43" s="26" t="s">
         <v>376</v>
       </c>
-      <c r="K43" s="101" t="s">
+      <c r="K43" s="82" t="s">
         <v>406</v>
       </c>
       <c r="L43" s="69"/>
@@ -4665,7 +4668,7 @@
       <c r="J44" s="26" t="s">
         <v>377</v>
       </c>
-      <c r="K44" s="101" t="s">
+      <c r="K44" s="82" t="s">
         <v>407</v>
       </c>
       <c r="L44" s="69"/>
@@ -4704,7 +4707,7 @@
       <c r="J45" s="26" t="s">
         <v>378</v>
       </c>
-      <c r="K45" s="101" t="s">
+      <c r="K45" s="82" t="s">
         <v>408</v>
       </c>
       <c r="L45" s="69"/>
@@ -4743,7 +4746,7 @@
       <c r="J46" s="42" t="s">
         <v>379</v>
       </c>
-      <c r="K46" s="116" t="s">
+      <c r="K46" s="97" t="s">
         <v>409</v>
       </c>
       <c r="L46" s="69"/>
@@ -5081,22 +5084,22 @@
       <c r="G57" s="72"/>
       <c r="H57" s="38"/>
       <c r="L57" s="39"/>
-      <c r="M57" s="95">
+      <c r="M57" s="76">
         <v>98</v>
       </c>
-      <c r="N57" s="96" t="s">
+      <c r="N57" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="O57" s="97" t="s">
+      <c r="O57" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="P57" s="97" t="s">
+      <c r="P57" s="78" t="s">
         <v>20</v>
       </c>
       <c r="Q57" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="R57" s="98"/>
+      <c r="R57" s="79"/>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B58" s="43">
@@ -5110,8 +5113,8 @@
       <c r="F58" s="44"/>
       <c r="G58" s="72"/>
       <c r="H58" s="38"/>
-      <c r="L58" s="100"/>
-      <c r="M58" s="99">
+      <c r="L58" s="81"/>
+      <c r="M58" s="80">
         <v>99</v>
       </c>
       <c r="N58" s="53" t="s">
@@ -6496,13 +6499,13 @@
     </row>
     <row r="111" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L111" s="38"/>
-      <c r="M111" s="95">
+      <c r="M111" s="76">
         <v>93</v>
       </c>
       <c r="N111" s="75" t="s">
         <v>250</v>
       </c>
-      <c r="O111" s="97" t="s">
+      <c r="O111" s="78" t="s">
         <v>261</v>
       </c>
       <c r="P111" s="75" t="s">
@@ -6511,11 +6514,11 @@
       <c r="Q111" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="R111" s="98"/>
+      <c r="R111" s="79"/>
     </row>
     <row r="112" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L112" s="100"/>
-      <c r="M112" s="107">
+      <c r="L112" s="81"/>
+      <c r="M112" s="88">
         <v>109</v>
       </c>
       <c r="N112" s="55" t="s">
@@ -6530,13 +6533,13 @@
       <c r="Q112" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="R112" s="103" t="s">
+      <c r="R112" s="84" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="113" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L113" s="38"/>
-      <c r="M113" s="108">
+      <c r="M113" s="89">
         <v>110</v>
       </c>
       <c r="N113" s="36" t="s">
@@ -6551,11 +6554,11 @@
       <c r="Q113" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R113" s="104"/>
+      <c r="R113" s="85"/>
     </row>
     <row r="114" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L114" s="38"/>
-      <c r="M114" s="108">
+      <c r="M114" s="89">
         <v>93</v>
       </c>
       <c r="N114" s="36" t="s">
@@ -6570,11 +6573,11 @@
       <c r="Q114" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R114" s="104"/>
+      <c r="R114" s="85"/>
     </row>
     <row r="115" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L115" s="38"/>
-      <c r="M115" s="108">
+      <c r="M115" s="89">
         <v>111</v>
       </c>
       <c r="N115" s="36" t="s">
@@ -6589,11 +6592,11 @@
       <c r="Q115" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R115" s="104"/>
+      <c r="R115" s="85"/>
     </row>
     <row r="116" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L116" s="38"/>
-      <c r="M116" s="108">
+      <c r="M116" s="89">
         <v>86</v>
       </c>
       <c r="N116" s="36" t="s">
@@ -6608,11 +6611,11 @@
       <c r="Q116" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R116" s="104"/>
+      <c r="R116" s="85"/>
     </row>
     <row r="117" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L117" s="38"/>
-      <c r="M117" s="108">
+      <c r="M117" s="89">
         <v>86</v>
       </c>
       <c r="N117" s="36" t="s">
@@ -6627,11 +6630,11 @@
       <c r="Q117" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R117" s="104"/>
+      <c r="R117" s="85"/>
     </row>
     <row r="118" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L118" s="38"/>
-      <c r="M118" s="108">
+      <c r="M118" s="89">
         <v>93</v>
       </c>
       <c r="N118" s="36" t="s">
@@ -6646,11 +6649,11 @@
       <c r="Q118" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R118" s="104"/>
+      <c r="R118" s="85"/>
     </row>
     <row r="119" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L119" s="38"/>
-      <c r="M119" s="108">
+      <c r="M119" s="89">
         <v>86</v>
       </c>
       <c r="N119" s="36" t="s">
@@ -6665,11 +6668,11 @@
       <c r="Q119" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R119" s="104"/>
+      <c r="R119" s="85"/>
     </row>
     <row r="120" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L120" s="38"/>
-      <c r="M120" s="108">
+      <c r="M120" s="89">
         <v>113</v>
       </c>
       <c r="N120" s="36" t="s">
@@ -6684,11 +6687,11 @@
       <c r="Q120" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R120" s="104"/>
+      <c r="R120" s="85"/>
     </row>
     <row r="121" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L121" s="38"/>
-      <c r="M121" s="108">
+      <c r="M121" s="89">
         <v>114</v>
       </c>
       <c r="N121" s="36" t="s">
@@ -6703,11 +6706,11 @@
       <c r="Q121" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R121" s="104"/>
+      <c r="R121" s="85"/>
     </row>
     <row r="122" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L122" s="38"/>
-      <c r="M122" s="108">
+      <c r="M122" s="89">
         <v>93</v>
       </c>
       <c r="N122" s="36" t="s">
@@ -6722,11 +6725,11 @@
       <c r="Q122" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R122" s="104"/>
+      <c r="R122" s="85"/>
     </row>
     <row r="123" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L123" s="38"/>
-      <c r="M123" s="108">
+      <c r="M123" s="89">
         <v>86</v>
       </c>
       <c r="N123" s="36" t="s">
@@ -6741,11 +6744,11 @@
       <c r="Q123" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R123" s="104"/>
+      <c r="R123" s="85"/>
     </row>
     <row r="124" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L124" s="38"/>
-      <c r="M124" s="108">
+      <c r="M124" s="89">
         <v>93</v>
       </c>
       <c r="N124" s="36" t="s">
@@ -6760,11 +6763,11 @@
       <c r="Q124" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R124" s="104"/>
+      <c r="R124" s="85"/>
     </row>
     <row r="125" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L125" s="38"/>
-      <c r="M125" s="108">
+      <c r="M125" s="89">
         <v>115</v>
       </c>
       <c r="N125" s="36" t="s">
@@ -6779,11 +6782,11 @@
       <c r="Q125" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R125" s="104"/>
+      <c r="R125" s="85"/>
     </row>
     <row r="126" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L126" s="38"/>
-      <c r="M126" s="108">
+      <c r="M126" s="89">
         <v>116</v>
       </c>
       <c r="N126" s="36" t="s">
@@ -6798,11 +6801,11 @@
       <c r="Q126" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R126" s="104"/>
+      <c r="R126" s="85"/>
     </row>
     <row r="127" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L127" s="38"/>
-      <c r="M127" s="108">
+      <c r="M127" s="89">
         <v>93</v>
       </c>
       <c r="N127" s="36" t="s">
@@ -6817,11 +6820,11 @@
       <c r="Q127" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R127" s="104"/>
+      <c r="R127" s="85"/>
     </row>
     <row r="128" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L128" s="38"/>
-      <c r="M128" s="108">
+      <c r="M128" s="89">
         <v>86</v>
       </c>
       <c r="N128" s="36" t="s">
@@ -6836,11 +6839,11 @@
       <c r="Q128" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R128" s="104"/>
+      <c r="R128" s="85"/>
     </row>
     <row r="129" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L129" s="38"/>
-      <c r="M129" s="108">
+      <c r="M129" s="89">
         <v>93</v>
       </c>
       <c r="N129" s="36" t="s">
@@ -6855,11 +6858,11 @@
       <c r="Q129" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R129" s="104"/>
+      <c r="R129" s="85"/>
     </row>
     <row r="130" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L130" s="38"/>
-      <c r="M130" s="108">
+      <c r="M130" s="89">
         <v>86</v>
       </c>
       <c r="N130" s="36" t="s">
@@ -6874,11 +6877,11 @@
       <c r="Q130" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R130" s="104"/>
+      <c r="R130" s="85"/>
     </row>
     <row r="131" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L131" s="38"/>
-      <c r="M131" s="108">
+      <c r="M131" s="89">
         <v>93</v>
       </c>
       <c r="N131" s="36" t="s">
@@ -6893,11 +6896,11 @@
       <c r="Q131" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R131" s="104"/>
+      <c r="R131" s="85"/>
     </row>
     <row r="132" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L132" s="38"/>
-      <c r="M132" s="108">
+      <c r="M132" s="89">
         <v>86</v>
       </c>
       <c r="N132" s="36" t="s">
@@ -6912,11 +6915,11 @@
       <c r="Q132" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R132" s="104"/>
+      <c r="R132" s="85"/>
     </row>
     <row r="133" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L133" s="38"/>
-      <c r="M133" s="108">
+      <c r="M133" s="89">
         <v>93</v>
       </c>
       <c r="N133" s="36" t="s">
@@ -6931,11 +6934,11 @@
       <c r="Q133" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R133" s="104"/>
+      <c r="R133" s="85"/>
     </row>
     <row r="134" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L134" s="38"/>
-      <c r="M134" s="108">
+      <c r="M134" s="89">
         <v>86</v>
       </c>
       <c r="N134" s="36" t="s">
@@ -6950,11 +6953,11 @@
       <c r="Q134" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R134" s="104"/>
+      <c r="R134" s="85"/>
     </row>
     <row r="135" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L135" s="38"/>
-      <c r="M135" s="108">
+      <c r="M135" s="89">
         <v>93</v>
       </c>
       <c r="N135" s="36" t="s">
@@ -6969,11 +6972,11 @@
       <c r="Q135" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R135" s="104"/>
+      <c r="R135" s="85"/>
     </row>
     <row r="136" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L136" s="38"/>
-      <c r="M136" s="108">
+      <c r="M136" s="89">
         <v>86</v>
       </c>
       <c r="N136" s="36" t="s">
@@ -6988,11 +6991,11 @@
       <c r="Q136" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R136" s="104"/>
+      <c r="R136" s="85"/>
     </row>
     <row r="137" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L137" s="38"/>
-      <c r="M137" s="108">
+      <c r="M137" s="89">
         <v>93</v>
       </c>
       <c r="N137" s="36" t="s">
@@ -7007,11 +7010,11 @@
       <c r="Q137" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R137" s="104"/>
+      <c r="R137" s="85"/>
     </row>
     <row r="138" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L138" s="38"/>
-      <c r="M138" s="108">
+      <c r="M138" s="89">
         <v>86</v>
       </c>
       <c r="N138" s="36" t="s">
@@ -7026,11 +7029,11 @@
       <c r="Q138" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R138" s="104"/>
+      <c r="R138" s="85"/>
     </row>
     <row r="139" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L139" s="38"/>
-      <c r="M139" s="108">
+      <c r="M139" s="89">
         <v>93</v>
       </c>
       <c r="N139" s="36" t="s">
@@ -7045,11 +7048,11 @@
       <c r="Q139" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R139" s="104"/>
+      <c r="R139" s="85"/>
     </row>
     <row r="140" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L140" s="38"/>
-      <c r="M140" s="108">
+      <c r="M140" s="89">
         <v>86</v>
       </c>
       <c r="N140" s="36" t="s">
@@ -7064,11 +7067,11 @@
       <c r="Q140" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R140" s="104"/>
+      <c r="R140" s="85"/>
     </row>
     <row r="141" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L141" s="38"/>
-      <c r="M141" s="108">
+      <c r="M141" s="89">
         <v>117</v>
       </c>
       <c r="N141" s="36" t="s">
@@ -7083,11 +7086,11 @@
       <c r="Q141" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R141" s="104"/>
+      <c r="R141" s="85"/>
     </row>
     <row r="142" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L142" s="38"/>
-      <c r="M142" s="108">
+      <c r="M142" s="89">
         <v>118</v>
       </c>
       <c r="N142" s="36" t="s">
@@ -7102,11 +7105,11 @@
       <c r="Q142" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R142" s="104"/>
+      <c r="R142" s="85"/>
     </row>
     <row r="143" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L143" s="38"/>
-      <c r="M143" s="108">
+      <c r="M143" s="89">
         <v>93</v>
       </c>
       <c r="N143" s="36" t="s">
@@ -7121,11 +7124,11 @@
       <c r="Q143" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R143" s="104"/>
+      <c r="R143" s="85"/>
     </row>
     <row r="144" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L144" s="38"/>
-      <c r="M144" s="108">
+      <c r="M144" s="89">
         <v>86</v>
       </c>
       <c r="N144" s="36" t="s">
@@ -7140,11 +7143,11 @@
       <c r="Q144" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R144" s="104"/>
+      <c r="R144" s="85"/>
     </row>
     <row r="145" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L145" s="38"/>
-      <c r="M145" s="108">
+      <c r="M145" s="89">
         <v>93</v>
       </c>
       <c r="N145" s="36" t="s">
@@ -7159,11 +7162,11 @@
       <c r="Q145" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R145" s="104"/>
+      <c r="R145" s="85"/>
     </row>
     <row r="146" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L146" s="38"/>
-      <c r="M146" s="108">
+      <c r="M146" s="89">
         <v>86</v>
       </c>
       <c r="N146" s="36" t="s">
@@ -7178,11 +7181,11 @@
       <c r="Q146" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R146" s="104"/>
+      <c r="R146" s="85"/>
     </row>
     <row r="147" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L147" s="38"/>
-      <c r="M147" s="108">
+      <c r="M147" s="89">
         <v>86</v>
       </c>
       <c r="N147" s="36" t="s">
@@ -7197,11 +7200,11 @@
       <c r="Q147" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R147" s="104"/>
+      <c r="R147" s="85"/>
     </row>
     <row r="148" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L148" s="38"/>
-      <c r="M148" s="108">
+      <c r="M148" s="89">
         <v>93</v>
       </c>
       <c r="N148" s="36" t="s">
@@ -7216,11 +7219,11 @@
       <c r="Q148" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R148" s="104"/>
+      <c r="R148" s="85"/>
     </row>
     <row r="149" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L149" s="38"/>
-      <c r="M149" s="108">
+      <c r="M149" s="89">
         <v>86</v>
       </c>
       <c r="N149" s="36" t="s">
@@ -7235,11 +7238,11 @@
       <c r="Q149" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R149" s="104"/>
+      <c r="R149" s="85"/>
     </row>
     <row r="150" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L150" s="38"/>
-      <c r="M150" s="108">
+      <c r="M150" s="89">
         <v>86</v>
       </c>
       <c r="N150" s="36" t="s">
@@ -7254,11 +7257,11 @@
       <c r="Q150" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R150" s="104"/>
+      <c r="R150" s="85"/>
     </row>
     <row r="151" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L151" s="38"/>
-      <c r="M151" s="108">
+      <c r="M151" s="89">
         <v>86</v>
       </c>
       <c r="N151" s="36" t="s">
@@ -7273,11 +7276,11 @@
       <c r="Q151" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R151" s="104"/>
+      <c r="R151" s="85"/>
     </row>
     <row r="152" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L152" s="38"/>
-      <c r="M152" s="108">
+      <c r="M152" s="89">
         <v>4</v>
       </c>
       <c r="N152" s="36" t="s">
@@ -7292,11 +7295,11 @@
       <c r="Q152" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R152" s="104"/>
+      <c r="R152" s="85"/>
     </row>
     <row r="153" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L153" s="38"/>
-      <c r="M153" s="108">
+      <c r="M153" s="89">
         <v>3</v>
       </c>
       <c r="N153" s="36" t="s">
@@ -7311,11 +7314,11 @@
       <c r="Q153" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R153" s="104"/>
+      <c r="R153" s="85"/>
     </row>
     <row r="154" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L154" s="38"/>
-      <c r="M154" s="108">
+      <c r="M154" s="89">
         <v>8</v>
       </c>
       <c r="N154" s="36" t="s">
@@ -7330,11 +7333,11 @@
       <c r="Q154" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R154" s="104"/>
+      <c r="R154" s="85"/>
     </row>
     <row r="155" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L155" s="38"/>
-      <c r="M155" s="108">
+      <c r="M155" s="89">
         <v>86</v>
       </c>
       <c r="N155" s="36" t="s">
@@ -7349,11 +7352,11 @@
       <c r="Q155" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R155" s="104"/>
+      <c r="R155" s="85"/>
     </row>
     <row r="156" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L156" s="38"/>
-      <c r="M156" s="108">
+      <c r="M156" s="89">
         <v>86</v>
       </c>
       <c r="N156" s="36" t="s">
@@ -7368,11 +7371,11 @@
       <c r="Q156" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R156" s="104"/>
+      <c r="R156" s="85"/>
     </row>
     <row r="157" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L157" s="38"/>
-      <c r="M157" s="108">
+      <c r="M157" s="89">
         <v>30</v>
       </c>
       <c r="N157" s="36" t="s">
@@ -7387,11 +7390,11 @@
       <c r="Q157" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R157" s="104"/>
+      <c r="R157" s="85"/>
     </row>
     <row r="158" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L158" s="38"/>
-      <c r="M158" s="108">
+      <c r="M158" s="89">
         <v>86</v>
       </c>
       <c r="N158" s="36" t="s">
@@ -7406,11 +7409,11 @@
       <c r="Q158" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R158" s="104"/>
+      <c r="R158" s="85"/>
     </row>
     <row r="159" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L159" s="38"/>
-      <c r="M159" s="108">
+      <c r="M159" s="89">
         <v>29</v>
       </c>
       <c r="N159" s="36" t="s">
@@ -7425,11 +7428,11 @@
       <c r="Q159" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R159" s="104"/>
+      <c r="R159" s="85"/>
     </row>
     <row r="160" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L160" s="38"/>
-      <c r="M160" s="108">
+      <c r="M160" s="89">
         <v>86</v>
       </c>
       <c r="N160" s="36" t="s">
@@ -7444,11 +7447,11 @@
       <c r="Q160" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R160" s="104"/>
+      <c r="R160" s="85"/>
     </row>
     <row r="161" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L161" s="38"/>
-      <c r="M161" s="108">
+      <c r="M161" s="89">
         <v>86</v>
       </c>
       <c r="N161" s="36" t="s">
@@ -7463,11 +7466,11 @@
       <c r="Q161" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R161" s="104"/>
+      <c r="R161" s="85"/>
     </row>
     <row r="162" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L162" s="38"/>
-      <c r="M162" s="108">
+      <c r="M162" s="89">
         <v>86</v>
       </c>
       <c r="N162" s="36" t="s">
@@ -7482,11 +7485,11 @@
       <c r="Q162" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R162" s="104"/>
+      <c r="R162" s="85"/>
     </row>
     <row r="163" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L163" s="38"/>
-      <c r="M163" s="108">
+      <c r="M163" s="89">
         <v>86</v>
       </c>
       <c r="N163" s="36" t="s">
@@ -7501,11 +7504,11 @@
       <c r="Q163" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R163" s="104"/>
+      <c r="R163" s="85"/>
     </row>
     <row r="164" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L164" s="38"/>
-      <c r="M164" s="108">
+      <c r="M164" s="89">
         <v>86</v>
       </c>
       <c r="N164" s="36" t="s">
@@ -7520,11 +7523,11 @@
       <c r="Q164" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R164" s="104"/>
+      <c r="R164" s="85"/>
     </row>
     <row r="165" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L165" s="38"/>
-      <c r="M165" s="108">
+      <c r="M165" s="89">
         <v>86</v>
       </c>
       <c r="N165" s="36" t="s">
@@ -7539,11 +7542,11 @@
       <c r="Q165" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R165" s="104"/>
+      <c r="R165" s="85"/>
     </row>
     <row r="166" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L166" s="38"/>
-      <c r="M166" s="108">
+      <c r="M166" s="89">
         <v>86</v>
       </c>
       <c r="N166" s="36" t="s">
@@ -7558,11 +7561,11 @@
       <c r="Q166" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R166" s="104"/>
+      <c r="R166" s="85"/>
     </row>
     <row r="167" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L167" s="38"/>
-      <c r="M167" s="108">
+      <c r="M167" s="89">
         <v>86</v>
       </c>
       <c r="N167" s="36" t="s">
@@ -7577,11 +7580,11 @@
       <c r="Q167" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R167" s="104"/>
+      <c r="R167" s="85"/>
     </row>
     <row r="168" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L168" s="38"/>
-      <c r="M168" s="108">
+      <c r="M168" s="89">
         <v>86</v>
       </c>
       <c r="N168" s="36" t="s">
@@ -7596,11 +7599,11 @@
       <c r="Q168" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R168" s="104"/>
+      <c r="R168" s="85"/>
     </row>
     <row r="169" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L169" s="38"/>
-      <c r="M169" s="108">
+      <c r="M169" s="89">
         <v>108</v>
       </c>
       <c r="N169" s="36" t="s">
@@ -7615,11 +7618,11 @@
       <c r="Q169" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R169" s="104"/>
+      <c r="R169" s="85"/>
     </row>
     <row r="170" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L170" s="38"/>
-      <c r="M170" s="108">
+      <c r="M170" s="89">
         <v>86</v>
       </c>
       <c r="N170" s="36" t="s">
@@ -7634,11 +7637,11 @@
       <c r="Q170" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R170" s="104"/>
+      <c r="R170" s="85"/>
     </row>
     <row r="171" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L171" s="38"/>
-      <c r="M171" s="108">
+      <c r="M171" s="89">
         <v>119</v>
       </c>
       <c r="N171" s="36" t="s">
@@ -7653,11 +7656,11 @@
       <c r="Q171" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R171" s="104"/>
+      <c r="R171" s="85"/>
     </row>
     <row r="172" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L172" s="38"/>
-      <c r="M172" s="108">
+      <c r="M172" s="89">
         <v>86</v>
       </c>
       <c r="N172" s="36" t="s">
@@ -7672,11 +7675,11 @@
       <c r="Q172" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R172" s="104"/>
+      <c r="R172" s="85"/>
     </row>
     <row r="173" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L173" s="38"/>
-      <c r="M173" s="108">
+      <c r="M173" s="89">
         <v>35</v>
       </c>
       <c r="N173" s="36" t="s">
@@ -7691,11 +7694,11 @@
       <c r="Q173" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R173" s="104"/>
+      <c r="R173" s="85"/>
     </row>
     <row r="174" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L174" s="38"/>
-      <c r="M174" s="108">
+      <c r="M174" s="89">
         <v>93</v>
       </c>
       <c r="N174" s="36" t="s">
@@ -7710,11 +7713,11 @@
       <c r="Q174" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R174" s="104"/>
+      <c r="R174" s="85"/>
     </row>
     <row r="175" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L175" s="38"/>
-      <c r="M175" s="108">
+      <c r="M175" s="89">
         <v>86</v>
       </c>
       <c r="N175" s="36" t="s">
@@ -7729,11 +7732,11 @@
       <c r="Q175" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R175" s="104"/>
+      <c r="R175" s="85"/>
     </row>
     <row r="176" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L176" s="38"/>
-      <c r="M176" s="108">
+      <c r="M176" s="89">
         <v>41</v>
       </c>
       <c r="N176" s="36" t="s">
@@ -7748,11 +7751,11 @@
       <c r="Q176" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R176" s="104"/>
+      <c r="R176" s="85"/>
     </row>
     <row r="177" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L177" s="38"/>
-      <c r="M177" s="108">
+      <c r="M177" s="89">
         <v>93</v>
       </c>
       <c r="N177" s="36" t="s">
@@ -7767,11 +7770,11 @@
       <c r="Q177" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R177" s="104"/>
+      <c r="R177" s="85"/>
     </row>
     <row r="178" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L178" s="38"/>
-      <c r="M178" s="108">
+      <c r="M178" s="89">
         <v>120</v>
       </c>
       <c r="N178" s="36" t="s">
@@ -7786,11 +7789,11 @@
       <c r="Q178" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R178" s="104"/>
+      <c r="R178" s="85"/>
     </row>
     <row r="179" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L179" s="38"/>
-      <c r="M179" s="108">
+      <c r="M179" s="89">
         <v>121</v>
       </c>
       <c r="N179" s="36" t="s">
@@ -7805,11 +7808,11 @@
       <c r="Q179" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R179" s="104"/>
+      <c r="R179" s="85"/>
     </row>
     <row r="180" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L180" s="38"/>
-      <c r="M180" s="108">
+      <c r="M180" s="89">
         <v>93</v>
       </c>
       <c r="N180" s="36" t="s">
@@ -7824,11 +7827,11 @@
       <c r="Q180" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R180" s="104"/>
+      <c r="R180" s="85"/>
     </row>
     <row r="181" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L181" s="38"/>
-      <c r="M181" s="108">
+      <c r="M181" s="89">
         <v>86</v>
       </c>
       <c r="N181" s="36" t="s">
@@ -7843,11 +7846,11 @@
       <c r="Q181" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R181" s="104"/>
+      <c r="R181" s="85"/>
     </row>
     <row r="182" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L182" s="38"/>
-      <c r="M182" s="108">
+      <c r="M182" s="89">
         <v>93</v>
       </c>
       <c r="N182" s="36" t="s">
@@ -7862,11 +7865,11 @@
       <c r="Q182" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R182" s="104"/>
+      <c r="R182" s="85"/>
     </row>
     <row r="183" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L183" s="38"/>
-      <c r="M183" s="108">
+      <c r="M183" s="89">
         <v>86</v>
       </c>
       <c r="N183" s="36" t="s">
@@ -7881,11 +7884,11 @@
       <c r="Q183" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R183" s="104"/>
+      <c r="R183" s="85"/>
     </row>
     <row r="184" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L184" s="38"/>
-      <c r="M184" s="108">
+      <c r="M184" s="89">
         <v>86</v>
       </c>
       <c r="N184" s="36" t="s">
@@ -7900,11 +7903,11 @@
       <c r="Q184" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R184" s="104"/>
+      <c r="R184" s="85"/>
     </row>
     <row r="185" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L185" s="38"/>
-      <c r="M185" s="108">
+      <c r="M185" s="89">
         <v>86</v>
       </c>
       <c r="N185" s="36" t="s">
@@ -7919,11 +7922,11 @@
       <c r="Q185" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R185" s="104"/>
+      <c r="R185" s="85"/>
     </row>
     <row r="186" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L186" s="38"/>
-      <c r="M186" s="108">
+      <c r="M186" s="89">
         <v>86</v>
       </c>
       <c r="N186" s="36" t="s">
@@ -7938,94 +7941,94 @@
       <c r="Q186" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R186" s="104"/>
+      <c r="R186" s="85"/>
     </row>
     <row r="187" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L187" s="38"/>
-      <c r="M187" s="108">
+      <c r="M187" s="89">
         <v>86</v>
       </c>
       <c r="N187" s="36" t="s">
         <v>364</v>
       </c>
       <c r="O187" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="P187" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q187" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R187" s="85"/>
+    </row>
+    <row r="188" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L188" s="38"/>
+      <c r="M188" s="89">
+        <v>86</v>
+      </c>
+      <c r="N188" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="O188" s="36" t="s">
         <v>363</v>
       </c>
-      <c r="P187" s="36" t="s">
+      <c r="P188" s="36" t="s">
         <v>362</v>
       </c>
-      <c r="Q187" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R187" s="104"/>
-    </row>
-    <row r="188" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L188" s="38"/>
-      <c r="M188" s="110">
-        <v>86</v>
-      </c>
-      <c r="N188" s="102" t="s">
+      <c r="Q188" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R188" s="85"/>
+    </row>
+    <row r="189" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L189" s="38"/>
+      <c r="M189" s="91">
+        <v>86</v>
+      </c>
+      <c r="N189" s="83" t="s">
         <v>364</v>
       </c>
-      <c r="O188" s="102" t="s">
+      <c r="O189" s="83" t="s">
         <v>380</v>
       </c>
-      <c r="P188" s="102" t="s">
+      <c r="P189" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="Q188" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="R188" s="105"/>
-    </row>
-    <row r="189" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L189" s="100"/>
-      <c r="M189" s="107">
+      <c r="Q189" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="R189" s="86"/>
+    </row>
+    <row r="190" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L190" s="81"/>
+      <c r="M190" s="88">
         <v>109</v>
       </c>
-      <c r="N189" s="55" t="s">
+      <c r="N190" s="55" t="s">
         <v>262</v>
       </c>
-      <c r="O189" s="53" t="s">
+      <c r="O190" s="53" t="s">
         <v>263</v>
       </c>
-      <c r="P189" s="53" t="s">
+      <c r="P190" s="53" t="s">
         <v>264</v>
       </c>
-      <c r="Q189" s="53" t="s">
+      <c r="Q190" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="R189" s="106"/>
-    </row>
-    <row r="190" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L190" s="38"/>
-      <c r="M190" s="108">
-        <v>122</v>
-      </c>
-      <c r="N190" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="O190" s="36" t="s">
-        <v>265</v>
-      </c>
-      <c r="P190" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q190" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="R190" s="33"/>
+      <c r="R190" s="87"/>
     </row>
     <row r="191" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L191" s="38"/>
-      <c r="M191" s="108">
-        <v>93</v>
+      <c r="M191" s="89">
+        <v>122</v>
       </c>
       <c r="N191" s="51" t="s">
         <v>262</v>
       </c>
-      <c r="O191" s="51" t="s">
-        <v>266</v>
+      <c r="O191" s="36" t="s">
+        <v>265</v>
       </c>
       <c r="P191" s="51" t="s">
         <v>25</v>
@@ -8037,17 +8040,17 @@
     </row>
     <row r="192" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L192" s="38"/>
-      <c r="M192" s="108">
-        <v>87</v>
+      <c r="M192" s="89">
+        <v>93</v>
       </c>
       <c r="N192" s="51" t="s">
         <v>262</v>
       </c>
       <c r="O192" s="51" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P192" s="51" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q192" s="51" t="s">
         <v>18</v>
@@ -8056,36 +8059,36 @@
     </row>
     <row r="193" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L193" s="38"/>
-      <c r="M193" s="108">
-        <v>92</v>
+      <c r="M193" s="89">
+        <v>87</v>
       </c>
       <c r="N193" s="51" t="s">
         <v>262</v>
       </c>
-      <c r="O193" s="36" t="s">
-        <v>24</v>
+      <c r="O193" s="51" t="s">
+        <v>267</v>
       </c>
       <c r="P193" s="51" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Q193" s="51" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="R193" s="33"/>
     </row>
     <row r="194" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L194" s="38"/>
-      <c r="M194" s="108">
-        <v>88</v>
+      <c r="M194" s="89">
+        <v>92</v>
       </c>
       <c r="N194" s="51" t="s">
         <v>262</v>
       </c>
-      <c r="O194" s="51" t="s">
-        <v>22</v>
+      <c r="O194" s="36" t="s">
+        <v>24</v>
       </c>
       <c r="P194" s="51" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q194" s="51" t="s">
         <v>21</v>
@@ -8094,17 +8097,17 @@
     </row>
     <row r="195" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L195" s="38"/>
-      <c r="M195" s="108">
-        <v>87</v>
+      <c r="M195" s="89">
+        <v>88</v>
       </c>
       <c r="N195" s="51" t="s">
         <v>262</v>
       </c>
       <c r="O195" s="51" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P195" s="51" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q195" s="51" t="s">
         <v>21</v>
@@ -8113,17 +8116,17 @@
     </row>
     <row r="196" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L196" s="38"/>
-      <c r="M196" s="108">
-        <v>93</v>
+      <c r="M196" s="89">
+        <v>87</v>
       </c>
       <c r="N196" s="51" t="s">
         <v>262</v>
       </c>
       <c r="O196" s="51" t="s">
-        <v>268</v>
+        <v>19</v>
       </c>
       <c r="P196" s="51" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Q196" s="51" t="s">
         <v>21</v>
@@ -8132,14 +8135,14 @@
     </row>
     <row r="197" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L197" s="38"/>
-      <c r="M197" s="108">
-        <v>122</v>
-      </c>
-      <c r="N197" s="36" t="s">
+      <c r="M197" s="89">
+        <v>93</v>
+      </c>
+      <c r="N197" s="51" t="s">
         <v>262</v>
       </c>
-      <c r="O197" s="54" t="s">
-        <v>269</v>
+      <c r="O197" s="51" t="s">
+        <v>268</v>
       </c>
       <c r="P197" s="51" t="s">
         <v>25</v>
@@ -8151,14 +8154,14 @@
     </row>
     <row r="198" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L198" s="38"/>
-      <c r="M198" s="108">
-        <v>93</v>
-      </c>
-      <c r="N198" s="51" t="s">
+      <c r="M198" s="89">
+        <v>122</v>
+      </c>
+      <c r="N198" s="36" t="s">
         <v>262</v>
       </c>
       <c r="O198" s="54" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P198" s="51" t="s">
         <v>25</v>
@@ -8170,17 +8173,17 @@
     </row>
     <row r="199" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L199" s="38"/>
-      <c r="M199" s="108">
-        <v>96</v>
+      <c r="M199" s="89">
+        <v>93</v>
       </c>
       <c r="N199" s="51" t="s">
         <v>262</v>
       </c>
-      <c r="O199" s="36" t="s">
-        <v>271</v>
+      <c r="O199" s="54" t="s">
+        <v>270</v>
       </c>
       <c r="P199" s="51" t="s">
-        <v>272</v>
+        <v>25</v>
       </c>
       <c r="Q199" s="51" t="s">
         <v>21</v>
@@ -8189,55 +8192,55 @@
     </row>
     <row r="200" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L200" s="38"/>
-      <c r="M200" s="113">
-        <v>86</v>
-      </c>
-      <c r="N200" s="59" t="s">
+      <c r="M200" s="89">
+        <v>96</v>
+      </c>
+      <c r="N200" s="51" t="s">
         <v>262</v>
       </c>
-      <c r="O200" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="P200" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q200" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="R200" s="66"/>
+      <c r="O200" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="P200" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q200" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="R200" s="33"/>
     </row>
     <row r="201" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L201" s="38"/>
-      <c r="M201" s="108">
-        <v>86</v>
-      </c>
-      <c r="N201" s="51" t="s">
+      <c r="M201" s="94">
+        <v>86</v>
+      </c>
+      <c r="N201" s="59" t="s">
         <v>262</v>
       </c>
-      <c r="O201" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="P201" s="51" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q201" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="R201" s="33"/>
+      <c r="O201" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="P201" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q201" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="R201" s="66"/>
     </row>
     <row r="202" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L202" s="38"/>
-      <c r="M202" s="108">
+      <c r="M202" s="89">
         <v>86</v>
       </c>
       <c r="N202" s="51" t="s">
         <v>262</v>
       </c>
       <c r="O202" s="36" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="P202" s="51" t="s">
-        <v>17</v>
+        <v>274</v>
       </c>
       <c r="Q202" s="51" t="s">
         <v>21</v>
@@ -8246,17 +8249,17 @@
     </row>
     <row r="203" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L203" s="38"/>
-      <c r="M203" s="108">
-        <v>41</v>
+      <c r="M203" s="89">
+        <v>86</v>
       </c>
       <c r="N203" s="51" t="s">
         <v>262</v>
       </c>
       <c r="O203" s="36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P203" s="51" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="Q203" s="51" t="s">
         <v>21</v>
@@ -8265,14 +8268,14 @@
     </row>
     <row r="204" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L204" s="38"/>
-      <c r="M204" s="108">
-        <v>86</v>
+      <c r="M204" s="89">
+        <v>41</v>
       </c>
       <c r="N204" s="51" t="s">
         <v>262</v>
       </c>
       <c r="O204" s="36" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P204" s="51" t="s">
         <v>25</v>
@@ -8284,17 +8287,17 @@
     </row>
     <row r="205" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L205" s="38"/>
-      <c r="M205" s="108">
-        <v>123</v>
+      <c r="M205" s="89">
+        <v>86</v>
       </c>
       <c r="N205" s="51" t="s">
         <v>262</v>
       </c>
       <c r="O205" s="36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P205" s="51" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q205" s="51" t="s">
         <v>21</v>
@@ -8303,17 +8306,17 @@
     </row>
     <row r="206" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L206" s="38"/>
-      <c r="M206" s="108">
-        <v>86</v>
+      <c r="M206" s="89">
+        <v>123</v>
       </c>
       <c r="N206" s="51" t="s">
         <v>262</v>
       </c>
       <c r="O206" s="36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P206" s="51" t="s">
-        <v>274</v>
+        <v>17</v>
       </c>
       <c r="Q206" s="51" t="s">
         <v>21</v>
@@ -8322,14 +8325,14 @@
     </row>
     <row r="207" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L207" s="38"/>
-      <c r="M207" s="108">
-        <v>124</v>
+      <c r="M207" s="89">
+        <v>86</v>
       </c>
       <c r="N207" s="51" t="s">
         <v>262</v>
       </c>
       <c r="O207" s="36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P207" s="51" t="s">
         <v>274</v>
@@ -8341,14 +8344,14 @@
     </row>
     <row r="208" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L208" s="38"/>
-      <c r="M208" s="108">
-        <v>86</v>
+      <c r="M208" s="89">
+        <v>124</v>
       </c>
       <c r="N208" s="51" t="s">
         <v>262</v>
       </c>
       <c r="O208" s="36" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P208" s="51" t="s">
         <v>274</v>
@@ -8360,14 +8363,14 @@
     </row>
     <row r="209" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L209" s="38"/>
-      <c r="M209" s="108">
+      <c r="M209" s="89">
         <v>86</v>
       </c>
       <c r="N209" s="51" t="s">
         <v>262</v>
       </c>
       <c r="O209" s="36" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P209" s="51" t="s">
         <v>274</v>
@@ -8379,14 +8382,14 @@
     </row>
     <row r="210" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L210" s="38"/>
-      <c r="M210" s="108">
+      <c r="M210" s="89">
         <v>86</v>
       </c>
       <c r="N210" s="51" t="s">
         <v>262</v>
       </c>
       <c r="O210" s="36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P210" s="51" t="s">
         <v>274</v>
@@ -8398,14 +8401,14 @@
     </row>
     <row r="211" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L211" s="38"/>
-      <c r="M211" s="108">
+      <c r="M211" s="89">
         <v>86</v>
       </c>
       <c r="N211" s="51" t="s">
         <v>262</v>
       </c>
       <c r="O211" s="36" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P211" s="51" t="s">
         <v>274</v>
@@ -8417,14 +8420,14 @@
     </row>
     <row r="212" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L212" s="38"/>
-      <c r="M212" s="108">
+      <c r="M212" s="89">
         <v>86</v>
       </c>
       <c r="N212" s="51" t="s">
         <v>262</v>
       </c>
       <c r="O212" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P212" s="51" t="s">
         <v>274</v>
@@ -8436,17 +8439,17 @@
     </row>
     <row r="213" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L213" s="38"/>
-      <c r="M213" s="108">
+      <c r="M213" s="89">
         <v>86</v>
       </c>
       <c r="N213" s="51" t="s">
         <v>262</v>
       </c>
       <c r="O213" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P213" s="51" t="s">
-        <v>17</v>
+        <v>274</v>
       </c>
       <c r="Q213" s="51" t="s">
         <v>21</v>
@@ -8455,14 +8458,14 @@
     </row>
     <row r="214" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L214" s="38"/>
-      <c r="M214" s="108">
+      <c r="M214" s="89">
         <v>86</v>
       </c>
       <c r="N214" s="51" t="s">
         <v>262</v>
       </c>
-      <c r="O214" s="51" t="s">
-        <v>287</v>
+      <c r="O214" s="36" t="s">
+        <v>286</v>
       </c>
       <c r="P214" s="51" t="s">
         <v>17</v>
@@ -8474,16 +8477,16 @@
     </row>
     <row r="215" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L215" s="38"/>
-      <c r="M215" s="108">
+      <c r="M215" s="89">
         <v>86</v>
       </c>
       <c r="N215" s="51" t="s">
         <v>262</v>
       </c>
-      <c r="O215" s="30" t="s">
-        <v>381</v>
-      </c>
-      <c r="P215" s="111" t="s">
+      <c r="O215" s="51" t="s">
+        <v>287</v>
+      </c>
+      <c r="P215" s="51" t="s">
         <v>17</v>
       </c>
       <c r="Q215" s="51" t="s">
@@ -8493,17 +8496,17 @@
     </row>
     <row r="216" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L216" s="38"/>
-      <c r="M216" s="108">
+      <c r="M216" s="89">
         <v>86</v>
       </c>
       <c r="N216" s="51" t="s">
         <v>262</v>
       </c>
-      <c r="O216" s="111" t="s">
-        <v>382</v>
-      </c>
-      <c r="P216" s="111" t="s">
-        <v>274</v>
+      <c r="O216" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="P216" s="92" t="s">
+        <v>17</v>
       </c>
       <c r="Q216" s="51" t="s">
         <v>21</v>
@@ -8512,41 +8515,60 @@
     </row>
     <row r="217" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L217" s="38"/>
-      <c r="M217" s="108">
+      <c r="M217" s="89">
         <v>86</v>
       </c>
       <c r="N217" s="51" t="s">
         <v>262</v>
       </c>
-      <c r="O217" s="111" t="s">
+      <c r="O217" s="92" t="s">
+        <v>382</v>
+      </c>
+      <c r="P217" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q217" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="R217" s="33"/>
+    </row>
+    <row r="218" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L218" s="38"/>
+      <c r="M218" s="89">
+        <v>86</v>
+      </c>
+      <c r="N218" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="O218" s="92" t="s">
         <v>383</v>
       </c>
-      <c r="P217" s="111" t="s">
+      <c r="P218" s="92" t="s">
         <v>274</v>
       </c>
-      <c r="Q217" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="R217" s="33"/>
-    </row>
-    <row r="218" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L218" s="39"/>
-      <c r="M218" s="109">
-        <v>86</v>
-      </c>
-      <c r="N218" s="68" t="s">
+      <c r="Q218" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="R218" s="33"/>
+    </row>
+    <row r="219" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L219" s="39"/>
+      <c r="M219" s="90">
+        <v>86</v>
+      </c>
+      <c r="N219" s="68" t="s">
         <v>262</v>
       </c>
-      <c r="O218" s="112" t="s">
+      <c r="O219" s="93" t="s">
         <v>384</v>
       </c>
-      <c r="P218" s="112" t="s">
+      <c r="P219" s="93" t="s">
         <v>274</v>
       </c>
-      <c r="Q218" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="R218" s="34"/>
+      <c r="Q219" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="R219" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Leasing/Mapeos_INV_Leasing_V1.xlsx
+++ b/Leasing/Mapeos_INV_Leasing_V1.xlsx
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="413">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -1035,9 +1035,6 @@
     <t>NRO_D_DPDTES</t>
   </si>
   <si>
-    <t>NRO_D_NNS_A_CGO</t>
-  </si>
-  <si>
     <t>EDD_D_PER</t>
   </si>
   <si>
@@ -1356,9 +1353,6 @@
     <t>TOT_PAS</t>
   </si>
   <si>
-    <t>PAT_PER</t>
-  </si>
-  <si>
     <t>Validaciones Generales PERSONAS/ 8. Validar correlativo organización</t>
   </si>
   <si>
@@ -1435,16 +1429,35 @@
   </si>
   <si>
     <t>FLG_OBJ_LIB</t>
+  </si>
+  <si>
+    <t>NRO_D_HJ</t>
+  </si>
+  <si>
+    <t>TTL_PATR</t>
+  </si>
+  <si>
+    <t>TTL_PVOS</t>
+  </si>
+  <si>
+    <t>POR_GAS_FMLRS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2274,202 +2287,247 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="86">
+  <cellStyleXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="10" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="28" borderId="10" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="17" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="17" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="22" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="22" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="23" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="23" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="24" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="24" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="19" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="19" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="24" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="24" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="29" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="29" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="85" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="85" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="85" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="85" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="34" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="34" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2477,91 +2535,91 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="32" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="32" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2570,8 +2628,9 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="86">
+  <cellStyles count="131">
     <cellStyle name="20% - Accent1" xfId="1"/>
     <cellStyle name="20% - Accent2" xfId="2"/>
     <cellStyle name="20% - Accent3" xfId="3"/>
@@ -2579,11 +2638,17 @@
     <cellStyle name="20% - Accent5" xfId="5"/>
     <cellStyle name="20% - Accent6" xfId="6"/>
     <cellStyle name="20% - Énfasis1" xfId="7" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1 2" xfId="89"/>
     <cellStyle name="20% - Énfasis2" xfId="8" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2 2" xfId="90"/>
     <cellStyle name="20% - Énfasis3" xfId="9" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3 2" xfId="91"/>
     <cellStyle name="20% - Énfasis4" xfId="10" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4 2" xfId="92"/>
     <cellStyle name="20% - Énfasis5" xfId="11" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5 2" xfId="93"/>
     <cellStyle name="20% - Énfasis6" xfId="12" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6 2" xfId="94"/>
     <cellStyle name="40% - Accent1" xfId="13"/>
     <cellStyle name="40% - Accent2" xfId="14"/>
     <cellStyle name="40% - Accent3" xfId="15"/>
@@ -2591,11 +2656,17 @@
     <cellStyle name="40% - Accent5" xfId="17"/>
     <cellStyle name="40% - Accent6" xfId="18"/>
     <cellStyle name="40% - Énfasis1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1 2" xfId="95"/>
     <cellStyle name="40% - Énfasis2" xfId="20" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2 2" xfId="96"/>
     <cellStyle name="40% - Énfasis3" xfId="21" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3 2" xfId="97"/>
     <cellStyle name="40% - Énfasis4" xfId="22" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4 2" xfId="98"/>
     <cellStyle name="40% - Énfasis5" xfId="23" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5 2" xfId="99"/>
     <cellStyle name="40% - Énfasis6" xfId="24" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6 2" xfId="100"/>
     <cellStyle name="60% - Accent1" xfId="25"/>
     <cellStyle name="60% - Accent2" xfId="26"/>
     <cellStyle name="60% - Accent3" xfId="27"/>
@@ -2603,11 +2674,17 @@
     <cellStyle name="60% - Accent5" xfId="29"/>
     <cellStyle name="60% - Accent6" xfId="30"/>
     <cellStyle name="60% - Énfasis1" xfId="31" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1 2" xfId="101"/>
     <cellStyle name="60% - Énfasis2" xfId="32" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2 2" xfId="102"/>
     <cellStyle name="60% - Énfasis3" xfId="33" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3 2" xfId="103"/>
     <cellStyle name="60% - Énfasis4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4 2" xfId="104"/>
     <cellStyle name="60% - Énfasis5" xfId="35" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5 2" xfId="105"/>
     <cellStyle name="60% - Énfasis6" xfId="36" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6 2" xfId="106"/>
     <cellStyle name="Accent1" xfId="37"/>
     <cellStyle name="Accent2" xfId="38"/>
     <cellStyle name="Accent3" xfId="39"/>
@@ -2616,19 +2693,31 @@
     <cellStyle name="Accent6" xfId="42"/>
     <cellStyle name="Bad" xfId="43"/>
     <cellStyle name="Buena" xfId="44" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Buena 2" xfId="107"/>
     <cellStyle name="Calculation" xfId="45"/>
     <cellStyle name="Cálculo" xfId="46" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cálculo 2" xfId="108"/>
     <cellStyle name="Celda de comprobación" xfId="47" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación 2" xfId="109"/>
     <cellStyle name="Celda vinculada" xfId="48" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada 2" xfId="110"/>
     <cellStyle name="Check Cell" xfId="49"/>
     <cellStyle name="Encabezado 4" xfId="50" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4 2" xfId="111"/>
     <cellStyle name="Énfasis1" xfId="51" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis1 2" xfId="112"/>
     <cellStyle name="Énfasis2" xfId="52" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis2 2" xfId="113"/>
     <cellStyle name="Énfasis3" xfId="53" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis3 2" xfId="114"/>
     <cellStyle name="Énfasis4" xfId="54" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis4 2" xfId="115"/>
     <cellStyle name="Énfasis5" xfId="55" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis5 2" xfId="116"/>
     <cellStyle name="Énfasis6" xfId="56" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Énfasis6 2" xfId="117"/>
     <cellStyle name="Entrada" xfId="57" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Entrada 2" xfId="118"/>
     <cellStyle name="Explanatory Text" xfId="58"/>
     <cellStyle name="Good" xfId="59"/>
     <cellStyle name="Heading 1" xfId="60"/>
@@ -2636,27 +2725,42 @@
     <cellStyle name="Heading 3" xfId="62"/>
     <cellStyle name="Heading 4" xfId="63"/>
     <cellStyle name="Incorrecto" xfId="64" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Incorrecto 2" xfId="119"/>
     <cellStyle name="Input" xfId="65"/>
     <cellStyle name="l]_x000d__x000a_MultiplesUnidades=True_x000d__x000a_log=2_x000d__x000a_DistribucionForm=False_x000d__x000a_Novedades=proxy:8080/data/sim/sim44htm" xfId="66"/>
     <cellStyle name="Linked Cell" xfId="67"/>
     <cellStyle name="Neutral" xfId="68" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Neutral 2" xfId="120"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="69"/>
+    <cellStyle name="Normal 2 2" xfId="121"/>
+    <cellStyle name="Normal 2 3" xfId="87"/>
     <cellStyle name="Normal 3" xfId="85"/>
+    <cellStyle name="Normal 4" xfId="88"/>
+    <cellStyle name="Normal 5" xfId="86"/>
     <cellStyle name="Normal_Libro1" xfId="70"/>
     <cellStyle name="Normal_Planilla_Mapeo_CCCLTEMT" xfId="71"/>
     <cellStyle name="Notas" xfId="72" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Notas 2" xfId="122"/>
     <cellStyle name="Note" xfId="73"/>
     <cellStyle name="Output" xfId="74"/>
     <cellStyle name="Salida" xfId="75" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Salida 2" xfId="123"/>
     <cellStyle name="Texto de advertencia" xfId="76" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia 2" xfId="124"/>
     <cellStyle name="Texto explicativo" xfId="77" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo 2" xfId="125"/>
     <cellStyle name="Title" xfId="78"/>
     <cellStyle name="Título" xfId="79" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Título 1" xfId="80"/>
+    <cellStyle name="Título 1 2" xfId="127"/>
     <cellStyle name="Título 2" xfId="81" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 2 2" xfId="128"/>
     <cellStyle name="Título 3" xfId="82" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Título 3 2" xfId="129"/>
+    <cellStyle name="Título 4" xfId="126"/>
     <cellStyle name="Total" xfId="83" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Total 2" xfId="130"/>
     <cellStyle name="Warning Text" xfId="84"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3048,7 +3152,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3057,10 +3161,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="B1:R219"/>
+  <dimension ref="B1:R221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I165" workbookViewId="0">
-      <selection activeCell="N187" sqref="N187"/>
+    <sheetView tabSelected="1" topLeftCell="K183" workbookViewId="0">
+      <selection activeCell="O221" sqref="O190:O221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3781,7 +3885,7 @@
         <v>251</v>
       </c>
       <c r="K22" s="72" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="L22" s="69"/>
       <c r="M22" s="63">
@@ -3820,7 +3924,7 @@
         <v>252</v>
       </c>
       <c r="K23" s="82" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L23" s="69"/>
       <c r="M23" s="63">
@@ -3863,7 +3967,7 @@
         <v>253</v>
       </c>
       <c r="K24" s="82" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="L24" s="69"/>
       <c r="M24" s="63">
@@ -3902,7 +4006,7 @@
         <v>254</v>
       </c>
       <c r="K25" s="82" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="L25" s="69"/>
       <c r="M25" s="63">
@@ -3941,7 +4045,7 @@
         <v>255</v>
       </c>
       <c r="K26" s="82" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="L26" s="69"/>
       <c r="M26" s="63">
@@ -3982,7 +4086,7 @@
         <v>256</v>
       </c>
       <c r="K27" s="82" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L27" s="69"/>
       <c r="M27" s="63">
@@ -4021,7 +4125,7 @@
         <v>257</v>
       </c>
       <c r="K28" s="82" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="L28" s="69"/>
       <c r="M28" s="63">
@@ -4062,7 +4166,7 @@
         <v>258</v>
       </c>
       <c r="K29" s="82" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="L29" s="69"/>
       <c r="M29" s="63">
@@ -4101,7 +4205,7 @@
         <v>259</v>
       </c>
       <c r="K30" s="82" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="L30" s="69"/>
       <c r="M30" s="63">
@@ -4140,7 +4244,7 @@
         <v>260</v>
       </c>
       <c r="K31" s="82" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="L31" s="69"/>
       <c r="M31" s="63">
@@ -4178,10 +4282,10 @@
         <v>109</v>
       </c>
       <c r="J32" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K32" s="82" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="L32" s="69"/>
       <c r="M32" s="63">
@@ -4219,10 +4323,10 @@
         <v>110</v>
       </c>
       <c r="J33" s="26" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K33" s="82" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="L33" s="69"/>
       <c r="M33" s="63">
@@ -4258,10 +4362,10 @@
         <v>111</v>
       </c>
       <c r="J34" s="26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K34" s="82" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L34" s="69"/>
       <c r="M34" s="63">
@@ -4297,10 +4401,10 @@
         <v>113</v>
       </c>
       <c r="J35" s="26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K35" s="82" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="L35" s="69"/>
       <c r="M35" s="63">
@@ -4340,10 +4444,10 @@
         <v>114</v>
       </c>
       <c r="J36" s="26" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K36" s="82" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="L36" s="69"/>
       <c r="M36" s="63">
@@ -4383,10 +4487,10 @@
         <v>115</v>
       </c>
       <c r="J37" s="26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K37" s="82" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L37" s="69"/>
       <c r="M37" s="63">
@@ -4426,10 +4530,10 @@
         <v>116</v>
       </c>
       <c r="J38" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K38" s="82" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="L38" s="69"/>
       <c r="M38" s="63">
@@ -4469,10 +4573,10 @@
         <v>117</v>
       </c>
       <c r="J39" s="26" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K39" s="82" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L39" s="69"/>
       <c r="M39" s="63">
@@ -4508,10 +4612,10 @@
         <v>118</v>
       </c>
       <c r="J40" s="26" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K40" s="82" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="L40" s="69"/>
       <c r="M40" s="63">
@@ -4549,10 +4653,10 @@
         <v>119</v>
       </c>
       <c r="J41" s="26" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K41" s="82" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="L41" s="69"/>
       <c r="M41" s="62">
@@ -4588,10 +4692,10 @@
         <v>120</v>
       </c>
       <c r="J42" s="26" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K42" s="82" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L42" s="69"/>
       <c r="M42" s="63">
@@ -4627,10 +4731,10 @@
         <v>121</v>
       </c>
       <c r="J43" s="26" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K43" s="82" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L43" s="69"/>
       <c r="M43" s="63">
@@ -4666,10 +4770,10 @@
         <v>122</v>
       </c>
       <c r="J44" s="26" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K44" s="82" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L44" s="69"/>
       <c r="M44" s="63">
@@ -4705,10 +4809,10 @@
         <v>123</v>
       </c>
       <c r="J45" s="26" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K45" s="82" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="L45" s="69"/>
       <c r="M45" s="63">
@@ -4744,10 +4848,10 @@
         <v>124</v>
       </c>
       <c r="J46" s="42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K46" s="97" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L46" s="69"/>
       <c r="M46" s="63">
@@ -6522,7 +6626,7 @@
         <v>109</v>
       </c>
       <c r="N112" s="55" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O112" s="55" t="s">
         <v>45</v>
@@ -6543,10 +6647,10 @@
         <v>110</v>
       </c>
       <c r="N113" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O113" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P113" s="36" t="s">
         <v>25</v>
@@ -6562,10 +6666,10 @@
         <v>93</v>
       </c>
       <c r="N114" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O114" s="36" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P114" s="36" t="s">
         <v>25</v>
@@ -6581,10 +6685,10 @@
         <v>111</v>
       </c>
       <c r="N115" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O115" s="36" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P115" s="36" t="s">
         <v>20</v>
@@ -6600,10 +6704,10 @@
         <v>86</v>
       </c>
       <c r="N116" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O116" s="36" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P116" s="36" t="s">
         <v>20</v>
@@ -6619,10 +6723,10 @@
         <v>86</v>
       </c>
       <c r="N117" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O117" s="36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P117" s="36" t="s">
         <v>20</v>
@@ -6638,10 +6742,10 @@
         <v>93</v>
       </c>
       <c r="N118" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O118" s="36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P118" s="36" t="s">
         <v>25</v>
@@ -6657,10 +6761,10 @@
         <v>86</v>
       </c>
       <c r="N119" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O119" s="36" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P119" s="36" t="s">
         <v>20</v>
@@ -6676,10 +6780,10 @@
         <v>113</v>
       </c>
       <c r="N120" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O120" s="36" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P120" s="36" t="s">
         <v>25</v>
@@ -6695,10 +6799,10 @@
         <v>114</v>
       </c>
       <c r="N121" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O121" s="36" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P121" s="36" t="s">
         <v>20</v>
@@ -6714,10 +6818,10 @@
         <v>93</v>
       </c>
       <c r="N122" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O122" s="36" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P122" s="36" t="s">
         <v>25</v>
@@ -6733,10 +6837,10 @@
         <v>86</v>
       </c>
       <c r="N123" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O123" s="36" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P123" s="36" t="s">
         <v>20</v>
@@ -6752,10 +6856,10 @@
         <v>93</v>
       </c>
       <c r="N124" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O124" s="36" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P124" s="36" t="s">
         <v>25</v>
@@ -6771,10 +6875,10 @@
         <v>115</v>
       </c>
       <c r="N125" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O125" s="36" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P125" s="36" t="s">
         <v>25</v>
@@ -6790,10 +6894,10 @@
         <v>116</v>
       </c>
       <c r="N126" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O126" s="36" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P126" s="36" t="s">
         <v>20</v>
@@ -6809,10 +6913,10 @@
         <v>93</v>
       </c>
       <c r="N127" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O127" s="36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P127" s="36" t="s">
         <v>25</v>
@@ -6828,10 +6932,10 @@
         <v>86</v>
       </c>
       <c r="N128" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O128" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P128" s="36" t="s">
         <v>20</v>
@@ -6847,10 +6951,10 @@
         <v>93</v>
       </c>
       <c r="N129" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O129" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P129" s="36" t="s">
         <v>25</v>
@@ -6866,10 +6970,10 @@
         <v>86</v>
       </c>
       <c r="N130" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O130" s="36" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P130" s="36" t="s">
         <v>20</v>
@@ -6885,10 +6989,10 @@
         <v>93</v>
       </c>
       <c r="N131" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O131" s="36" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P131" s="36" t="s">
         <v>25</v>
@@ -6904,10 +7008,10 @@
         <v>86</v>
       </c>
       <c r="N132" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O132" s="36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P132" s="36" t="s">
         <v>20</v>
@@ -6923,10 +7027,10 @@
         <v>93</v>
       </c>
       <c r="N133" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O133" s="36" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P133" s="36" t="s">
         <v>25</v>
@@ -6942,10 +7046,10 @@
         <v>86</v>
       </c>
       <c r="N134" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O134" s="36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P134" s="36" t="s">
         <v>20</v>
@@ -6961,10 +7065,10 @@
         <v>93</v>
       </c>
       <c r="N135" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O135" s="36" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P135" s="36" t="s">
         <v>264</v>
@@ -6980,10 +7084,10 @@
         <v>86</v>
       </c>
       <c r="N136" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O136" s="36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P136" s="36" t="s">
         <v>20</v>
@@ -6999,10 +7103,10 @@
         <v>93</v>
       </c>
       <c r="N137" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O137" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P137" s="36" t="s">
         <v>25</v>
@@ -7018,10 +7122,10 @@
         <v>86</v>
       </c>
       <c r="N138" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O138" s="36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P138" s="36" t="s">
         <v>20</v>
@@ -7037,10 +7141,10 @@
         <v>93</v>
       </c>
       <c r="N139" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O139" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P139" s="36" t="s">
         <v>25</v>
@@ -7056,10 +7160,10 @@
         <v>86</v>
       </c>
       <c r="N140" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O140" s="36" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P140" s="36" t="s">
         <v>20</v>
@@ -7075,10 +7179,10 @@
         <v>117</v>
       </c>
       <c r="N141" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O141" s="36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P141" s="36" t="s">
         <v>25</v>
@@ -7094,10 +7198,10 @@
         <v>118</v>
       </c>
       <c r="N142" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O142" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P142" s="36" t="s">
         <v>20</v>
@@ -7113,10 +7217,10 @@
         <v>93</v>
       </c>
       <c r="N143" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O143" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P143" s="36" t="s">
         <v>17</v>
@@ -7132,10 +7236,10 @@
         <v>86</v>
       </c>
       <c r="N144" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O144" s="36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P144" s="36" t="s">
         <v>20</v>
@@ -7151,10 +7255,10 @@
         <v>93</v>
       </c>
       <c r="N145" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O145" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="P145" s="36" t="s">
         <v>26</v>
@@ -7170,10 +7274,10 @@
         <v>86</v>
       </c>
       <c r="N146" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O146" s="36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P146" s="36" t="s">
         <v>20</v>
@@ -7189,10 +7293,10 @@
         <v>86</v>
       </c>
       <c r="N147" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O147" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P147" s="36" t="s">
         <v>20</v>
@@ -7208,10 +7312,10 @@
         <v>93</v>
       </c>
       <c r="N148" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O148" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P148" s="36" t="s">
         <v>17</v>
@@ -7227,10 +7331,10 @@
         <v>86</v>
       </c>
       <c r="N149" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O149" s="36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P149" s="36" t="s">
         <v>25</v>
@@ -7246,10 +7350,10 @@
         <v>86</v>
       </c>
       <c r="N150" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O150" s="36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P150" s="36" t="s">
         <v>20</v>
@@ -7265,10 +7369,10 @@
         <v>86</v>
       </c>
       <c r="N151" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O151" s="36" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P151" s="36" t="s">
         <v>20</v>
@@ -7284,10 +7388,10 @@
         <v>4</v>
       </c>
       <c r="N152" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O152" s="36" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P152" s="36" t="s">
         <v>17</v>
@@ -7303,7 +7407,7 @@
         <v>3</v>
       </c>
       <c r="N153" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O153" s="36" t="s">
         <v>134</v>
@@ -7322,10 +7426,10 @@
         <v>8</v>
       </c>
       <c r="N154" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O154" s="36" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P154" s="36" t="s">
         <v>20</v>
@@ -7341,13 +7445,13 @@
         <v>86</v>
       </c>
       <c r="N155" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O155" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="P155" s="36" t="s">
         <v>329</v>
-      </c>
-      <c r="P155" s="36" t="s">
-        <v>330</v>
       </c>
       <c r="Q155" s="36" t="s">
         <v>21</v>
@@ -7360,13 +7464,13 @@
         <v>86</v>
       </c>
       <c r="N156" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O156" s="36" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P156" s="36" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q156" s="36" t="s">
         <v>21</v>
@@ -7379,13 +7483,13 @@
         <v>30</v>
       </c>
       <c r="N157" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O157" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="P157" s="36" t="s">
         <v>332</v>
-      </c>
-      <c r="P157" s="36" t="s">
-        <v>333</v>
       </c>
       <c r="Q157" s="36" t="s">
         <v>21</v>
@@ -7398,13 +7502,13 @@
         <v>86</v>
       </c>
       <c r="N158" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O158" s="36" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="P158" s="36" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q158" s="36" t="s">
         <v>21</v>
@@ -7417,10 +7521,10 @@
         <v>29</v>
       </c>
       <c r="N159" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O159" s="36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="P159" s="36" t="s">
         <v>235</v>
@@ -7436,10 +7540,10 @@
         <v>86</v>
       </c>
       <c r="N160" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O160" s="36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P160" s="36" t="s">
         <v>235</v>
@@ -7455,10 +7559,10 @@
         <v>86</v>
       </c>
       <c r="N161" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O161" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="P161" s="36" t="s">
         <v>242</v>
@@ -7474,10 +7578,10 @@
         <v>86</v>
       </c>
       <c r="N162" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O162" s="36" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P162" s="36" t="s">
         <v>232</v>
@@ -7493,10 +7597,10 @@
         <v>86</v>
       </c>
       <c r="N163" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O163" s="36" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P163" s="36" t="s">
         <v>232</v>
@@ -7512,10 +7616,10 @@
         <v>86</v>
       </c>
       <c r="N164" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O164" s="36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P164" s="36" t="s">
         <v>232</v>
@@ -7531,10 +7635,10 @@
         <v>86</v>
       </c>
       <c r="N165" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O165" s="36" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P165" s="36" t="s">
         <v>232</v>
@@ -7550,10 +7654,10 @@
         <v>86</v>
       </c>
       <c r="N166" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O166" s="36" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P166" s="36" t="s">
         <v>232</v>
@@ -7569,10 +7673,10 @@
         <v>86</v>
       </c>
       <c r="N167" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O167" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P167" s="36" t="s">
         <v>232</v>
@@ -7588,10 +7692,10 @@
         <v>86</v>
       </c>
       <c r="N168" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O168" s="36" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P168" s="36" t="s">
         <v>25</v>
@@ -7607,7 +7711,7 @@
         <v>108</v>
       </c>
       <c r="N169" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O169" s="36" t="s">
         <v>239</v>
@@ -7626,10 +7730,10 @@
         <v>86</v>
       </c>
       <c r="N170" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O170" s="36" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P170" s="36" t="s">
         <v>17</v>
@@ -7645,10 +7749,10 @@
         <v>119</v>
       </c>
       <c r="N171" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O171" s="36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P171" s="36" t="s">
         <v>17</v>
@@ -7664,10 +7768,10 @@
         <v>86</v>
       </c>
       <c r="N172" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O172" s="36" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P172" s="36" t="s">
         <v>20</v>
@@ -7683,10 +7787,10 @@
         <v>35</v>
       </c>
       <c r="N173" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O173" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P173" s="36" t="s">
         <v>17</v>
@@ -7702,10 +7806,10 @@
         <v>93</v>
       </c>
       <c r="N174" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O174" s="36" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P174" s="36" t="s">
         <v>17</v>
@@ -7721,10 +7825,10 @@
         <v>86</v>
       </c>
       <c r="N175" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O175" s="36" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P175" s="36" t="s">
         <v>25</v>
@@ -7740,10 +7844,10 @@
         <v>41</v>
       </c>
       <c r="N176" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O176" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P176" s="36" t="s">
         <v>17</v>
@@ -7759,10 +7863,10 @@
         <v>93</v>
       </c>
       <c r="N177" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O177" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P177" s="36" t="s">
         <v>17</v>
@@ -7778,10 +7882,10 @@
         <v>120</v>
       </c>
       <c r="N178" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O178" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P178" s="36" t="s">
         <v>17</v>
@@ -7797,10 +7901,10 @@
         <v>121</v>
       </c>
       <c r="N179" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O179" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P179" s="36" t="s">
         <v>17</v>
@@ -7816,10 +7920,10 @@
         <v>93</v>
       </c>
       <c r="N180" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O180" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="P180" s="36" t="s">
         <v>17</v>
@@ -7835,10 +7939,10 @@
         <v>86</v>
       </c>
       <c r="N181" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O181" s="36" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P181" s="36" t="s">
         <v>25</v>
@@ -7854,10 +7958,10 @@
         <v>93</v>
       </c>
       <c r="N182" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O182" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P182" s="36" t="s">
         <v>17</v>
@@ -7873,10 +7977,10 @@
         <v>86</v>
       </c>
       <c r="N183" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O183" s="36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P183" s="36" t="s">
         <v>17</v>
@@ -7892,10 +7996,10 @@
         <v>86</v>
       </c>
       <c r="N184" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O184" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P184" s="36" t="s">
         <v>17</v>
@@ -7911,10 +8015,10 @@
         <v>86</v>
       </c>
       <c r="N185" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O185" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P185" s="36" t="s">
         <v>25</v>
@@ -7930,13 +8034,13 @@
         <v>86</v>
       </c>
       <c r="N186" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O186" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="P186" s="36" t="s">
         <v>361</v>
-      </c>
-      <c r="P186" s="36" t="s">
-        <v>362</v>
       </c>
       <c r="Q186" s="36" t="s">
         <v>21</v>
@@ -7949,10 +8053,10 @@
         <v>86</v>
       </c>
       <c r="N187" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O187" s="36" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="P187" s="36" t="s">
         <v>25</v>
@@ -7968,13 +8072,13 @@
         <v>86</v>
       </c>
       <c r="N188" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O188" s="36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P188" s="36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Q188" s="36" t="s">
         <v>21</v>
@@ -7987,10 +8091,10 @@
         <v>86</v>
       </c>
       <c r="N189" s="83" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O189" s="83" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P189" s="83" t="s">
         <v>25</v>
@@ -8294,7 +8398,7 @@
         <v>262</v>
       </c>
       <c r="O205" s="36" t="s">
-        <v>277</v>
+        <v>409</v>
       </c>
       <c r="P205" s="51" t="s">
         <v>25</v>
@@ -8313,7 +8417,7 @@
         <v>262</v>
       </c>
       <c r="O206" s="36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P206" s="51" t="s">
         <v>17</v>
@@ -8332,7 +8436,7 @@
         <v>262</v>
       </c>
       <c r="O207" s="36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P207" s="51" t="s">
         <v>274</v>
@@ -8351,7 +8455,7 @@
         <v>262</v>
       </c>
       <c r="O208" s="36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P208" s="51" t="s">
         <v>274</v>
@@ -8370,7 +8474,7 @@
         <v>262</v>
       </c>
       <c r="O209" s="36" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P209" s="51" t="s">
         <v>274</v>
@@ -8389,7 +8493,7 @@
         <v>262</v>
       </c>
       <c r="O210" s="36" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P210" s="51" t="s">
         <v>274</v>
@@ -8408,7 +8512,7 @@
         <v>262</v>
       </c>
       <c r="O211" s="36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P211" s="51" t="s">
         <v>274</v>
@@ -8427,7 +8531,7 @@
         <v>262</v>
       </c>
       <c r="O212" s="36" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P212" s="51" t="s">
         <v>274</v>
@@ -8446,7 +8550,7 @@
         <v>262</v>
       </c>
       <c r="O213" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P213" s="51" t="s">
         <v>274</v>
@@ -8465,7 +8569,7 @@
         <v>262</v>
       </c>
       <c r="O214" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P214" s="51" t="s">
         <v>17</v>
@@ -8484,7 +8588,7 @@
         <v>262</v>
       </c>
       <c r="O215" s="51" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P215" s="51" t="s">
         <v>17</v>
@@ -8503,7 +8607,7 @@
         <v>262</v>
       </c>
       <c r="O216" s="30" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P216" s="92" t="s">
         <v>17</v>
@@ -8522,7 +8626,7 @@
         <v>262</v>
       </c>
       <c r="O217" s="92" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P217" s="92" t="s">
         <v>274</v>
@@ -8541,7 +8645,7 @@
         <v>262</v>
       </c>
       <c r="O218" s="92" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P218" s="92" t="s">
         <v>274</v>
@@ -8551,24 +8655,62 @@
       </c>
       <c r="R218" s="33"/>
     </row>
-    <row r="219" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L219" s="39"/>
-      <c r="M219" s="90">
-        <v>86</v>
-      </c>
-      <c r="N219" s="68" t="s">
+    <row r="219" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L219" s="38"/>
+      <c r="M219" s="89">
+        <v>86</v>
+      </c>
+      <c r="N219" s="51" t="s">
         <v>262</v>
       </c>
-      <c r="O219" s="93" t="s">
-        <v>384</v>
-      </c>
-      <c r="P219" s="93" t="s">
+      <c r="O219" s="92" t="s">
+        <v>410</v>
+      </c>
+      <c r="P219" s="92" t="s">
         <v>274</v>
       </c>
-      <c r="Q219" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="R219" s="34"/>
+      <c r="Q219" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="R219" s="33"/>
+    </row>
+    <row r="220" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L220" s="38"/>
+      <c r="M220" s="89">
+        <v>86</v>
+      </c>
+      <c r="N220" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="O220" s="30" t="s">
+        <v>411</v>
+      </c>
+      <c r="P220" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q220" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="R220" s="33"/>
+    </row>
+    <row r="221" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L221" s="39"/>
+      <c r="M221" s="90">
+        <v>86</v>
+      </c>
+      <c r="N221" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="O221" s="117" t="s">
+        <v>412</v>
+      </c>
+      <c r="P221" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q221" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="R221" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Leasing/Mapeos_INV_Leasing_V1.xlsx
+++ b/Leasing/Mapeos_INV_Leasing_V1.xlsx
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="427">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -759,12 +759,6 @@
     <t>Busqueda Fecha del Estado del CV del Involucrado</t>
   </si>
   <si>
-    <t>NUMBER</t>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-  </si>
-  <si>
     <t>Validaciones Generales PERSONAS/ 1. Búsqueda del correlativo</t>
   </si>
   <si>
@@ -1441,6 +1435,54 @@
   </si>
   <si>
     <t>POR_GAS_FMLRS</t>
+  </si>
+  <si>
+    <t>NUMBER(22)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(1)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(25)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
+  </si>
+  <si>
+    <t>DATE(7)</t>
+  </si>
+  <si>
+    <t>NUMBER(15,2)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(100)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(4)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(15)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(30)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(40)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(50)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(80)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(2)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(38)</t>
   </si>
 </sst>
 </file>
@@ -2243,15 +2285,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -2281,6 +2314,17 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -2420,7 +2464,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -2507,8 +2551,6 @@
     <xf numFmtId="0" fontId="3" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="85" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="85" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2523,7 +2565,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2534,7 +2575,7 @@
     <xf numFmtId="0" fontId="0" fillId="29" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2547,23 +2588,23 @@
     <xf numFmtId="0" fontId="3" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2571,6 +2612,7 @@
     <xf numFmtId="0" fontId="3" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2628,7 +2670,11 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="131">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -3152,7 +3198,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3163,8 +3209,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:R221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K183" workbookViewId="0">
-      <selection activeCell="O221" sqref="O190:O221"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3201,28 +3247,28 @@
         <v>15</v>
       </c>
       <c r="C2" s="28"/>
-      <c r="D2" s="105" t="s">
+      <c r="D2" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="106"/>
-      <c r="F2" s="107"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="105"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="114" t="s">
+      <c r="H2" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="115"/>
-      <c r="J2" s="116"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="114"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="31" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="32"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="113"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="111"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="49"/>
+      <c r="H3" s="47"/>
       <c r="I3" s="26" t="s">
         <v>43</v>
       </c>
@@ -3233,13 +3279,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="109"/>
-      <c r="F4" s="110"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="108"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="50"/>
+      <c r="H4" s="48"/>
       <c r="I4" s="42" t="s">
         <v>44</v>
       </c>
@@ -3250,11 +3296,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="108" t="s">
+      <c r="D5" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="109"/>
-      <c r="F5" s="110"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="108"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3266,29 +3312,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="100" t="s">
+      <c r="I7" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="101"/>
-      <c r="K7" s="102"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="100"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="98" t="s">
+      <c r="M7" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="99"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="97"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -3346,39 +3392,39 @@
       <c r="C9" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="47" t="s">
-        <v>17</v>
+      <c r="D9" s="118" t="s">
+        <v>411</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="41"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="80">
+      <c r="G9" s="67"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="77">
         <v>85</v>
       </c>
-      <c r="J9" s="95" t="s">
+      <c r="J9" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="96" t="s">
-        <v>187</v>
-      </c>
-      <c r="L9" s="74"/>
-      <c r="M9" s="61">
+      <c r="K9" s="93" t="s">
+        <v>185</v>
+      </c>
+      <c r="L9" s="71"/>
+      <c r="M9" s="58">
         <v>85</v>
       </c>
-      <c r="N9" s="52" t="s">
+      <c r="N9" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="O9" s="55" t="s">
+      <c r="O9" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="P9" s="53" t="s">
+      <c r="P9" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="53" t="s">
+      <c r="Q9" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="R9" s="56" t="s">
+      <c r="R9" s="54" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3389,16 +3435,16 @@
       <c r="C10" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="46" t="s">
-        <v>186</v>
+      <c r="D10" s="117" t="s">
+        <v>412</v>
       </c>
       <c r="E10" s="37">
         <v>1</v>
       </c>
       <c r="F10" s="18"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="64">
+      <c r="G10" s="68"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="61">
         <v>86</v>
       </c>
       <c r="J10" s="30" t="s">
@@ -3407,20 +3453,20 @@
       <c r="K10" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="74"/>
-      <c r="M10" s="62">
+      <c r="L10" s="71"/>
+      <c r="M10" s="59">
         <v>1</v>
       </c>
-      <c r="N10" s="54" t="s">
+      <c r="N10" s="52" t="s">
         <v>173</v>
       </c>
       <c r="O10" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="P10" s="51" t="s">
+      <c r="P10" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" s="51" t="s">
+      <c r="Q10" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R10" s="35"/>
@@ -3432,16 +3478,16 @@
       <c r="C11" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="46" t="s">
-        <v>185</v>
+      <c r="D11" s="117" t="s">
+        <v>413</v>
       </c>
       <c r="E11" s="37">
         <v>15</v>
       </c>
       <c r="F11" s="18"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="64">
+      <c r="G11" s="68"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="61">
         <v>87</v>
       </c>
       <c r="J11" s="30" t="s">
@@ -3450,20 +3496,20 @@
       <c r="K11" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="L11" s="74"/>
-      <c r="M11" s="62">
-        <v>86</v>
-      </c>
-      <c r="N11" s="54" t="s">
+      <c r="L11" s="71"/>
+      <c r="M11" s="59">
+        <v>86</v>
+      </c>
+      <c r="N11" s="52" t="s">
         <v>173</v>
       </c>
       <c r="O11" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="P11" s="51" t="s">
+      <c r="P11" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q11" s="51" t="s">
+      <c r="Q11" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R11" s="35"/>
@@ -3475,14 +3521,14 @@
       <c r="C12" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="46" t="s">
-        <v>17</v>
+      <c r="D12" s="117" t="s">
+        <v>411</v>
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="64">
+      <c r="G12" s="68"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="61">
         <v>88</v>
       </c>
       <c r="J12" s="30" t="s">
@@ -3491,20 +3537,20 @@
       <c r="K12" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="L12" s="74"/>
-      <c r="M12" s="62">
+      <c r="L12" s="71"/>
+      <c r="M12" s="59">
         <v>4</v>
       </c>
-      <c r="N12" s="54" t="s">
+      <c r="N12" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="O12" s="54" t="s">
+      <c r="O12" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="P12" s="51" t="s">
+      <c r="P12" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q12" s="51" t="s">
+      <c r="Q12" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R12" s="35"/>
@@ -3516,34 +3562,36 @@
       <c r="C13" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="46"/>
+      <c r="D13" s="117" t="s">
+        <v>411</v>
+      </c>
       <c r="E13" s="26"/>
       <c r="F13" s="44"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="64">
+      <c r="G13" s="69"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="61">
         <v>90</v>
       </c>
       <c r="J13" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="K13" s="82" t="s">
-        <v>188</v>
-      </c>
-      <c r="L13" s="69"/>
-      <c r="M13" s="62">
+      <c r="K13" s="79" t="s">
+        <v>186</v>
+      </c>
+      <c r="L13" s="66"/>
+      <c r="M13" s="59">
         <v>3</v>
       </c>
-      <c r="N13" s="54" t="s">
+      <c r="N13" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="O13" s="54" t="s">
+      <c r="O13" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="P13" s="51" t="s">
+      <c r="P13" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q13" s="51" t="s">
+      <c r="Q13" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R13" s="35"/>
@@ -3555,34 +3603,36 @@
       <c r="C14" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="117" t="s">
+        <v>414</v>
+      </c>
       <c r="E14" s="26"/>
       <c r="F14" s="44"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="64">
+      <c r="G14" s="69"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="61">
         <v>91</v>
       </c>
       <c r="J14" s="26" t="s">
         <v>175</v>
       </c>
       <c r="K14" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="L14" s="69"/>
-      <c r="M14" s="62">
+        <v>187</v>
+      </c>
+      <c r="L14" s="66"/>
+      <c r="M14" s="59">
         <v>61</v>
       </c>
-      <c r="N14" s="54" t="s">
+      <c r="N14" s="52" t="s">
         <v>173</v>
       </c>
       <c r="O14" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="P14" s="51" t="s">
+      <c r="P14" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q14" s="51" t="s">
+      <c r="Q14" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R14" s="35"/>
@@ -3594,36 +3644,36 @@
       <c r="C15" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="26" t="s">
-        <v>17</v>
+      <c r="D15" s="117" t="s">
+        <v>411</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="44"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="64">
+      <c r="G15" s="69"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="61">
         <v>92</v>
       </c>
       <c r="J15" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="K15" s="82" t="s">
-        <v>190</v>
-      </c>
-      <c r="L15" s="69"/>
-      <c r="M15" s="62">
+      <c r="K15" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="L15" s="66"/>
+      <c r="M15" s="59">
         <v>90</v>
       </c>
-      <c r="N15" s="54" t="s">
+      <c r="N15" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="O15" s="54" t="s">
+      <c r="O15" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="P15" s="51" t="s">
+      <c r="P15" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="Q15" s="51" t="s">
+      <c r="Q15" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R15" s="35"/>
@@ -3635,12 +3685,14 @@
       <c r="C16" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="26"/>
+      <c r="D16" s="117" t="s">
+        <v>415</v>
+      </c>
       <c r="E16" s="26"/>
       <c r="F16" s="44"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="64">
+      <c r="G16" s="69"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="61">
         <v>93</v>
       </c>
       <c r="J16" s="30" t="s">
@@ -3649,20 +3701,20 @@
       <c r="K16" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="L16" s="69"/>
-      <c r="M16" s="62">
-        <v>86</v>
-      </c>
-      <c r="N16" s="54" t="s">
+      <c r="L16" s="66"/>
+      <c r="M16" s="59">
+        <v>86</v>
+      </c>
+      <c r="N16" s="52" t="s">
         <v>173</v>
       </c>
       <c r="O16" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="P16" s="51" t="s">
+      <c r="P16" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q16" s="51" t="s">
+      <c r="Q16" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R16" s="35"/>
@@ -3674,34 +3726,36 @@
       <c r="C17" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="26"/>
+      <c r="D17" s="117" t="s">
+        <v>412</v>
+      </c>
       <c r="E17" s="26"/>
       <c r="F17" s="44"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="64">
+      <c r="G17" s="69"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="61">
         <v>94</v>
       </c>
       <c r="J17" s="30" t="s">
         <v>177</v>
       </c>
       <c r="K17" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="L17" s="69"/>
-      <c r="M17" s="62">
+        <v>189</v>
+      </c>
+      <c r="L17" s="66"/>
+      <c r="M17" s="59">
         <v>91</v>
       </c>
-      <c r="N17" s="54" t="s">
+      <c r="N17" s="52" t="s">
         <v>173</v>
       </c>
       <c r="O17" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="P17" s="51" t="s">
+      <c r="P17" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q17" s="51" t="s">
+      <c r="Q17" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R17" s="35"/>
@@ -3713,34 +3767,36 @@
       <c r="C18" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="26"/>
+      <c r="D18" s="117" t="s">
+        <v>416</v>
+      </c>
       <c r="E18" s="26"/>
       <c r="F18" s="44"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="64">
+      <c r="G18" s="69"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="61">
         <v>95</v>
       </c>
       <c r="J18" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="K18" s="82" t="s">
+      <c r="K18" s="79" t="s">
         <v>179</v>
       </c>
-      <c r="L18" s="69"/>
-      <c r="M18" s="62">
+      <c r="L18" s="66"/>
+      <c r="M18" s="59">
         <v>93</v>
       </c>
-      <c r="N18" s="54" t="s">
+      <c r="N18" s="52" t="s">
         <v>173</v>
       </c>
       <c r="O18" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="P18" s="51" t="s">
+      <c r="P18" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="Q18" s="51" t="s">
+      <c r="Q18" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R18" s="35"/>
@@ -3752,34 +3808,36 @@
       <c r="C19" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="26"/>
+      <c r="D19" s="117" t="s">
+        <v>412</v>
+      </c>
       <c r="E19" s="26"/>
       <c r="F19" s="44"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="64">
+      <c r="G19" s="69"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="61">
         <v>96</v>
       </c>
       <c r="J19" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="K19" s="82" t="s">
+      <c r="K19" s="79" t="s">
         <v>181</v>
       </c>
-      <c r="L19" s="69"/>
-      <c r="M19" s="62">
-        <v>86</v>
-      </c>
-      <c r="N19" s="54" t="s">
+      <c r="L19" s="66"/>
+      <c r="M19" s="59">
+        <v>86</v>
+      </c>
+      <c r="N19" s="52" t="s">
         <v>173</v>
       </c>
       <c r="O19" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="51" t="s">
+      <c r="P19" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q19" s="51" t="s">
+      <c r="Q19" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R19" s="35"/>
@@ -3791,34 +3849,36 @@
       <c r="C20" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="26"/>
+      <c r="D20" s="117" t="s">
+        <v>411</v>
+      </c>
       <c r="E20" s="26"/>
       <c r="F20" s="44"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="64">
+      <c r="G20" s="69"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="61">
         <v>97</v>
       </c>
       <c r="J20" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="K20" s="82" t="s">
-        <v>192</v>
-      </c>
-      <c r="L20" s="69"/>
-      <c r="M20" s="62">
+      <c r="K20" s="79" t="s">
+        <v>190</v>
+      </c>
+      <c r="L20" s="66"/>
+      <c r="M20" s="59">
         <v>92</v>
       </c>
-      <c r="N20" s="54" t="s">
+      <c r="N20" s="52" t="s">
         <v>173</v>
       </c>
       <c r="O20" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="P20" s="51" t="s">
+      <c r="P20" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="Q20" s="51" t="s">
+      <c r="Q20" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R20" s="35"/>
@@ -3830,34 +3890,36 @@
       <c r="C21" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="26"/>
+      <c r="D21" s="117" t="s">
+        <v>411</v>
+      </c>
       <c r="E21" s="26"/>
       <c r="F21" s="44"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="64">
+      <c r="G21" s="69"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="61">
         <v>98</v>
       </c>
       <c r="J21" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="K21" s="82" t="s">
-        <v>193</v>
-      </c>
-      <c r="L21" s="69"/>
-      <c r="M21" s="63">
+      <c r="K21" s="79" t="s">
+        <v>191</v>
+      </c>
+      <c r="L21" s="66"/>
+      <c r="M21" s="60">
         <v>93</v>
       </c>
-      <c r="N21" s="54" t="s">
+      <c r="N21" s="52" t="s">
         <v>173</v>
       </c>
       <c r="O21" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="P21" s="51" t="s">
+      <c r="P21" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="Q21" s="51" t="s">
+      <c r="Q21" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R21" s="35"/>
@@ -3869,38 +3931,38 @@
       <c r="C22" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="26" t="s">
-        <v>186</v>
+      <c r="D22" s="117" t="s">
+        <v>417</v>
       </c>
       <c r="E22" s="26">
         <v>50</v>
       </c>
       <c r="F22" s="44"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="64">
+      <c r="G22" s="69"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="61">
         <v>99</v>
       </c>
       <c r="J22" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="K22" s="72" t="s">
-        <v>383</v>
-      </c>
-      <c r="L22" s="69"/>
-      <c r="M22" s="63">
+        <v>249</v>
+      </c>
+      <c r="K22" s="69" t="s">
+        <v>381</v>
+      </c>
+      <c r="L22" s="66"/>
+      <c r="M22" s="60">
         <v>94</v>
       </c>
-      <c r="N22" s="54" t="s">
+      <c r="N22" s="52" t="s">
         <v>173</v>
       </c>
       <c r="O22" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="P22" s="51" t="s">
+      <c r="P22" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q22" s="51" t="s">
+      <c r="Q22" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R22" s="35"/>
@@ -3912,34 +3974,36 @@
       <c r="C23" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="26"/>
+      <c r="D23" s="117" t="s">
+        <v>418</v>
+      </c>
       <c r="E23" s="26"/>
       <c r="F23" s="44"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="64">
+      <c r="G23" s="69"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="61">
         <v>100</v>
       </c>
       <c r="J23" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="K23" s="82" t="s">
-        <v>384</v>
-      </c>
-      <c r="L23" s="69"/>
-      <c r="M23" s="63">
+        <v>250</v>
+      </c>
+      <c r="K23" s="79" t="s">
+        <v>382</v>
+      </c>
+      <c r="L23" s="66"/>
+      <c r="M23" s="60">
         <v>93</v>
       </c>
-      <c r="N23" s="54" t="s">
+      <c r="N23" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="O23" s="51" t="s">
+      <c r="O23" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="P23" s="51" t="s">
+      <c r="P23" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q23" s="51" t="s">
+      <c r="Q23" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R23" s="35"/>
@@ -3951,38 +4015,38 @@
       <c r="C24" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="26" t="s">
-        <v>185</v>
+      <c r="D24" s="117" t="s">
+        <v>417</v>
       </c>
       <c r="E24" s="26">
         <v>15</v>
       </c>
       <c r="F24" s="44"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="64">
+      <c r="G24" s="69"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="61">
         <v>101</v>
       </c>
       <c r="J24" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="K24" s="82" t="s">
-        <v>385</v>
-      </c>
-      <c r="L24" s="69"/>
-      <c r="M24" s="63">
+        <v>251</v>
+      </c>
+      <c r="K24" s="79" t="s">
+        <v>383</v>
+      </c>
+      <c r="L24" s="66"/>
+      <c r="M24" s="60">
         <v>93</v>
       </c>
-      <c r="N24" s="54" t="s">
+      <c r="N24" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="O24" s="51" t="s">
+      <c r="O24" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="P24" s="51" t="s">
+      <c r="P24" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q24" s="51" t="s">
+      <c r="Q24" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R24" s="35"/>
@@ -3994,34 +4058,36 @@
       <c r="C25" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="26"/>
+      <c r="D25" s="117" t="s">
+        <v>419</v>
+      </c>
       <c r="E25" s="26"/>
       <c r="F25" s="44"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="64">
+      <c r="G25" s="69"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="61">
         <v>102</v>
       </c>
       <c r="J25" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="K25" s="82" t="s">
-        <v>386</v>
-      </c>
-      <c r="L25" s="69"/>
-      <c r="M25" s="63">
+        <v>252</v>
+      </c>
+      <c r="K25" s="79" t="s">
+        <v>384</v>
+      </c>
+      <c r="L25" s="66"/>
+      <c r="M25" s="60">
         <v>93</v>
       </c>
-      <c r="N25" s="54" t="s">
+      <c r="N25" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="O25" s="51" t="s">
+      <c r="O25" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="P25" s="51" t="s">
+      <c r="P25" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q25" s="51" t="s">
+      <c r="Q25" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R25" s="35"/>
@@ -4033,34 +4099,36 @@
       <c r="C26" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="26"/>
+      <c r="D26" s="117" t="s">
+        <v>419</v>
+      </c>
       <c r="E26" s="26"/>
       <c r="F26" s="44"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="64">
+      <c r="G26" s="69"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="61">
         <v>103</v>
       </c>
       <c r="J26" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="K26" s="82" t="s">
-        <v>387</v>
-      </c>
-      <c r="L26" s="69"/>
-      <c r="M26" s="63">
+        <v>253</v>
+      </c>
+      <c r="K26" s="79" t="s">
+        <v>385</v>
+      </c>
+      <c r="L26" s="66"/>
+      <c r="M26" s="60">
         <v>93</v>
       </c>
-      <c r="N26" s="54" t="s">
+      <c r="N26" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="O26" s="51" t="s">
+      <c r="O26" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="P26" s="51" t="s">
+      <c r="P26" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="Q26" s="51" t="s">
+      <c r="Q26" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R26" s="35"/>
@@ -4072,36 +4140,36 @@
       <c r="C27" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="26" t="s">
-        <v>20</v>
+      <c r="D27" s="117" t="s">
+        <v>415</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="44"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="64">
+      <c r="G27" s="69"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="61">
         <v>104</v>
       </c>
       <c r="J27" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="K27" s="82" t="s">
-        <v>388</v>
-      </c>
-      <c r="L27" s="69"/>
-      <c r="M27" s="63">
+        <v>254</v>
+      </c>
+      <c r="K27" s="79" t="s">
+        <v>386</v>
+      </c>
+      <c r="L27" s="66"/>
+      <c r="M27" s="60">
         <v>93</v>
       </c>
-      <c r="N27" s="54" t="s">
+      <c r="N27" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="O27" s="51" t="s">
+      <c r="O27" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="P27" s="51" t="s">
+      <c r="P27" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q27" s="51" t="s">
+      <c r="Q27" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R27" s="35"/>
@@ -4113,34 +4181,36 @@
       <c r="C28" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="26"/>
+      <c r="D28" s="117" t="s">
+        <v>415</v>
+      </c>
       <c r="E28" s="26"/>
       <c r="F28" s="44"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="64">
+      <c r="G28" s="69"/>
+      <c r="H28" s="115"/>
+      <c r="I28" s="61">
         <v>105</v>
       </c>
       <c r="J28" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="K28" s="82" t="s">
-        <v>389</v>
-      </c>
-      <c r="L28" s="69"/>
-      <c r="M28" s="63">
+        <v>255</v>
+      </c>
+      <c r="K28" s="79" t="s">
+        <v>387</v>
+      </c>
+      <c r="L28" s="66"/>
+      <c r="M28" s="60">
         <v>93</v>
       </c>
-      <c r="N28" s="54" t="s">
+      <c r="N28" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="O28" s="51" t="s">
+      <c r="O28" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="P28" s="51" t="s">
+      <c r="P28" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q28" s="51" t="s">
+      <c r="Q28" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R28" s="35"/>
@@ -4152,36 +4222,36 @@
       <c r="C29" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="26" t="s">
-        <v>17</v>
+      <c r="D29" s="117" t="s">
+        <v>411</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="44"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="64">
+      <c r="G29" s="69"/>
+      <c r="H29" s="115"/>
+      <c r="I29" s="61">
         <v>106</v>
       </c>
       <c r="J29" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="K29" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="L29" s="69"/>
-      <c r="M29" s="63">
+        <v>256</v>
+      </c>
+      <c r="K29" s="79" t="s">
+        <v>388</v>
+      </c>
+      <c r="L29" s="66"/>
+      <c r="M29" s="60">
         <v>93</v>
       </c>
-      <c r="N29" s="54" t="s">
+      <c r="N29" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="O29" s="51" t="s">
+      <c r="O29" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="P29" s="51" t="s">
+      <c r="P29" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="Q29" s="51" t="s">
+      <c r="Q29" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R29" s="35"/>
@@ -4193,34 +4263,36 @@
       <c r="C30" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="26"/>
+      <c r="D30" s="117" t="s">
+        <v>415</v>
+      </c>
       <c r="E30" s="26"/>
       <c r="F30" s="44"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="64">
+      <c r="G30" s="69"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="61">
         <v>107</v>
       </c>
       <c r="J30" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="K30" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="L30" s="69"/>
-      <c r="M30" s="63">
-        <v>86</v>
-      </c>
-      <c r="N30" s="54" t="s">
+        <v>257</v>
+      </c>
+      <c r="K30" s="79" t="s">
+        <v>389</v>
+      </c>
+      <c r="L30" s="66"/>
+      <c r="M30" s="60">
+        <v>86</v>
+      </c>
+      <c r="N30" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="O30" s="51" t="s">
+      <c r="O30" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="P30" s="51" t="s">
+      <c r="P30" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q30" s="51" t="s">
+      <c r="Q30" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R30" s="35"/>
@@ -4232,34 +4304,36 @@
       <c r="C31" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="26"/>
+      <c r="D31" s="117" t="s">
+        <v>411</v>
+      </c>
       <c r="E31" s="26"/>
       <c r="F31" s="44"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="64">
+      <c r="G31" s="69"/>
+      <c r="H31" s="115"/>
+      <c r="I31" s="61">
         <v>108</v>
       </c>
       <c r="J31" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="K31" s="82" t="s">
-        <v>392</v>
-      </c>
-      <c r="L31" s="69"/>
-      <c r="M31" s="63">
-        <v>86</v>
-      </c>
-      <c r="N31" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="K31" s="79" t="s">
+        <v>390</v>
+      </c>
+      <c r="L31" s="66"/>
+      <c r="M31" s="60">
+        <v>86</v>
+      </c>
+      <c r="N31" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="O31" s="51" t="s">
+      <c r="O31" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="P31" s="51" t="s">
+      <c r="P31" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q31" s="51" t="s">
+      <c r="Q31" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R31" s="35"/>
@@ -4271,36 +4345,36 @@
       <c r="C32" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="26" t="s">
-        <v>17</v>
+      <c r="D32" s="117" t="s">
+        <v>411</v>
       </c>
       <c r="E32" s="26"/>
       <c r="F32" s="44"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="64">
+      <c r="G32" s="69"/>
+      <c r="H32" s="115"/>
+      <c r="I32" s="61">
         <v>109</v>
       </c>
       <c r="J32" s="26" t="s">
-        <v>364</v>
-      </c>
-      <c r="K32" s="82" t="s">
-        <v>393</v>
-      </c>
-      <c r="L32" s="69"/>
-      <c r="M32" s="63">
-        <v>86</v>
-      </c>
-      <c r="N32" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="K32" s="79" t="s">
+        <v>391</v>
+      </c>
+      <c r="L32" s="66"/>
+      <c r="M32" s="60">
+        <v>86</v>
+      </c>
+      <c r="N32" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="O32" s="51" t="s">
+      <c r="O32" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="P32" s="51" t="s">
+      <c r="P32" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q32" s="51" t="s">
+      <c r="Q32" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R32" s="35"/>
@@ -4312,36 +4386,36 @@
       <c r="C33" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="26" t="s">
-        <v>17</v>
+      <c r="D33" s="117" t="s">
+        <v>418</v>
       </c>
       <c r="E33" s="26"/>
       <c r="F33" s="44"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="64">
+      <c r="G33" s="69"/>
+      <c r="H33" s="115"/>
+      <c r="I33" s="61">
         <v>110</v>
       </c>
       <c r="J33" s="26" t="s">
-        <v>365</v>
-      </c>
-      <c r="K33" s="82" t="s">
-        <v>394</v>
-      </c>
-      <c r="L33" s="69"/>
-      <c r="M33" s="63">
+        <v>363</v>
+      </c>
+      <c r="K33" s="79" t="s">
+        <v>392</v>
+      </c>
+      <c r="L33" s="66"/>
+      <c r="M33" s="60">
         <v>96</v>
       </c>
-      <c r="N33" s="54" t="s">
+      <c r="N33" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="O33" s="51" t="s">
+      <c r="O33" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="P33" s="51" t="s">
+      <c r="P33" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q33" s="51" t="s">
+      <c r="Q33" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R33" s="35"/>
@@ -4353,34 +4427,36 @@
       <c r="C34" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="26"/>
+      <c r="D34" s="117" t="s">
+        <v>411</v>
+      </c>
       <c r="E34" s="26"/>
       <c r="F34" s="44"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="64">
+      <c r="G34" s="69"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="61">
         <v>111</v>
       </c>
       <c r="J34" s="26" t="s">
-        <v>366</v>
-      </c>
-      <c r="K34" s="82" t="s">
-        <v>395</v>
-      </c>
-      <c r="L34" s="69"/>
-      <c r="M34" s="63">
+        <v>364</v>
+      </c>
+      <c r="K34" s="79" t="s">
+        <v>393</v>
+      </c>
+      <c r="L34" s="66"/>
+      <c r="M34" s="60">
         <v>96</v>
       </c>
-      <c r="N34" s="54" t="s">
+      <c r="N34" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="O34" s="51" t="s">
+      <c r="O34" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="P34" s="51" t="s">
+      <c r="P34" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q34" s="51" t="s">
+      <c r="Q34" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R34" s="35"/>
@@ -4392,34 +4468,36 @@
       <c r="C35" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="26"/>
+      <c r="D35" s="117" t="s">
+        <v>420</v>
+      </c>
       <c r="E35" s="26"/>
       <c r="F35" s="44"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="64">
+      <c r="G35" s="69"/>
+      <c r="H35" s="115"/>
+      <c r="I35" s="61">
         <v>113</v>
       </c>
       <c r="J35" s="26" t="s">
-        <v>367</v>
-      </c>
-      <c r="K35" s="82" t="s">
-        <v>396</v>
-      </c>
-      <c r="L35" s="69"/>
-      <c r="M35" s="63">
+        <v>365</v>
+      </c>
+      <c r="K35" s="79" t="s">
+        <v>394</v>
+      </c>
+      <c r="L35" s="66"/>
+      <c r="M35" s="60">
         <v>93</v>
       </c>
-      <c r="N35" s="54" t="s">
+      <c r="N35" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="O35" s="51" t="s">
+      <c r="O35" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="P35" s="51" t="s">
+      <c r="P35" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q35" s="51" t="s">
+      <c r="Q35" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R35" s="35"/>
@@ -4431,38 +4509,38 @@
       <c r="C36" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="26" t="s">
-        <v>186</v>
+      <c r="D36" s="117" t="s">
+        <v>412</v>
       </c>
       <c r="E36" s="26">
         <v>3</v>
       </c>
       <c r="F36" s="44"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="64">
+      <c r="G36" s="69"/>
+      <c r="H36" s="115"/>
+      <c r="I36" s="61">
         <v>114</v>
       </c>
       <c r="J36" s="26" t="s">
-        <v>368</v>
-      </c>
-      <c r="K36" s="82" t="s">
-        <v>397</v>
-      </c>
-      <c r="L36" s="69"/>
-      <c r="M36" s="63">
-        <v>86</v>
-      </c>
-      <c r="N36" s="54" t="s">
+        <v>366</v>
+      </c>
+      <c r="K36" s="79" t="s">
+        <v>395</v>
+      </c>
+      <c r="L36" s="66"/>
+      <c r="M36" s="60">
+        <v>86</v>
+      </c>
+      <c r="N36" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="O36" s="51" t="s">
+      <c r="O36" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="P36" s="51" t="s">
+      <c r="P36" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q36" s="51" t="s">
+      <c r="Q36" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R36" s="35"/>
@@ -4474,38 +4552,38 @@
       <c r="C37" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="26" t="s">
-        <v>186</v>
+      <c r="D37" s="117" t="s">
+        <v>417</v>
       </c>
       <c r="E37" s="26">
         <v>50</v>
       </c>
       <c r="F37" s="44"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="64">
+      <c r="G37" s="69"/>
+      <c r="H37" s="115"/>
+      <c r="I37" s="61">
         <v>115</v>
       </c>
       <c r="J37" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="K37" s="82" t="s">
-        <v>398</v>
-      </c>
-      <c r="L37" s="69"/>
-      <c r="M37" s="63">
-        <v>86</v>
-      </c>
-      <c r="N37" s="54" t="s">
+        <v>367</v>
+      </c>
+      <c r="K37" s="79" t="s">
+        <v>396</v>
+      </c>
+      <c r="L37" s="66"/>
+      <c r="M37" s="60">
+        <v>86</v>
+      </c>
+      <c r="N37" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="O37" s="51" t="s">
+      <c r="O37" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="P37" s="51" t="s">
+      <c r="P37" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q37" s="51" t="s">
+      <c r="Q37" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R37" s="35"/>
@@ -4517,38 +4595,38 @@
       <c r="C38" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="26" t="s">
-        <v>186</v>
+      <c r="D38" s="117" t="s">
+        <v>421</v>
       </c>
       <c r="E38" s="26">
         <v>50</v>
       </c>
       <c r="F38" s="44"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="64">
+      <c r="G38" s="69"/>
+      <c r="H38" s="115"/>
+      <c r="I38" s="61">
         <v>116</v>
       </c>
       <c r="J38" s="26" t="s">
-        <v>370</v>
-      </c>
-      <c r="K38" s="82" t="s">
-        <v>399</v>
-      </c>
-      <c r="L38" s="69"/>
-      <c r="M38" s="63">
-        <v>86</v>
-      </c>
-      <c r="N38" s="54" t="s">
+        <v>368</v>
+      </c>
+      <c r="K38" s="79" t="s">
+        <v>397</v>
+      </c>
+      <c r="L38" s="66"/>
+      <c r="M38" s="60">
+        <v>86</v>
+      </c>
+      <c r="N38" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="O38" s="51" t="s">
+      <c r="O38" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="P38" s="51" t="s">
+      <c r="P38" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q38" s="51" t="s">
+      <c r="Q38" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R38" s="35"/>
@@ -4560,38 +4638,38 @@
       <c r="C39" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="26" t="s">
-        <v>186</v>
+      <c r="D39" s="117" t="s">
+        <v>412</v>
       </c>
       <c r="E39" s="26">
         <v>1</v>
       </c>
       <c r="F39" s="44"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="64">
+      <c r="G39" s="69"/>
+      <c r="H39" s="115"/>
+      <c r="I39" s="61">
         <v>117</v>
       </c>
       <c r="J39" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="K39" s="82" t="s">
-        <v>400</v>
-      </c>
-      <c r="L39" s="69"/>
-      <c r="M39" s="63">
-        <v>86</v>
-      </c>
-      <c r="N39" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="K39" s="79" t="s">
+        <v>398</v>
+      </c>
+      <c r="L39" s="66"/>
+      <c r="M39" s="60">
+        <v>86</v>
+      </c>
+      <c r="N39" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="O39" s="51" t="s">
+      <c r="O39" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="P39" s="51" t="s">
+      <c r="P39" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q39" s="51" t="s">
+      <c r="Q39" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R39" s="35"/>
@@ -4603,34 +4681,36 @@
       <c r="C40" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="26"/>
+      <c r="D40" s="117" t="s">
+        <v>415</v>
+      </c>
       <c r="E40" s="26"/>
       <c r="F40" s="44"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="64">
+      <c r="G40" s="69"/>
+      <c r="H40" s="115"/>
+      <c r="I40" s="61">
         <v>118</v>
       </c>
       <c r="J40" s="26" t="s">
-        <v>372</v>
-      </c>
-      <c r="K40" s="82" t="s">
-        <v>401</v>
-      </c>
-      <c r="L40" s="69"/>
-      <c r="M40" s="63">
-        <v>86</v>
-      </c>
-      <c r="N40" s="54" t="s">
+        <v>370</v>
+      </c>
+      <c r="K40" s="79" t="s">
+        <v>399</v>
+      </c>
+      <c r="L40" s="66"/>
+      <c r="M40" s="60">
+        <v>86</v>
+      </c>
+      <c r="N40" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="O40" s="51" t="s">
+      <c r="O40" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="P40" s="51" t="s">
+      <c r="P40" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q40" s="51" t="s">
+      <c r="Q40" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R40" s="35"/>
@@ -4642,36 +4722,36 @@
       <c r="C41" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="26" t="s">
-        <v>17</v>
+      <c r="D41" s="117" t="s">
+        <v>411</v>
       </c>
       <c r="E41" s="26"/>
       <c r="F41" s="44"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="64">
+      <c r="G41" s="69"/>
+      <c r="H41" s="115"/>
+      <c r="I41" s="61">
         <v>119</v>
       </c>
       <c r="J41" s="26" t="s">
-        <v>373</v>
-      </c>
-      <c r="K41" s="82" t="s">
-        <v>402</v>
-      </c>
-      <c r="L41" s="69"/>
-      <c r="M41" s="62">
+        <v>371</v>
+      </c>
+      <c r="K41" s="79" t="s">
+        <v>400</v>
+      </c>
+      <c r="L41" s="66"/>
+      <c r="M41" s="59">
         <v>97</v>
       </c>
-      <c r="N41" s="54" t="s">
+      <c r="N41" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="O41" s="51" t="s">
+      <c r="O41" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="P41" s="51" t="s">
+      <c r="P41" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q41" s="51" t="s">
+      <c r="Q41" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R41" s="35"/>
@@ -4683,34 +4763,36 @@
       <c r="C42" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="D42" s="26"/>
+      <c r="D42" s="117" t="s">
+        <v>412</v>
+      </c>
       <c r="E42" s="26"/>
       <c r="F42" s="44"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="64">
+      <c r="G42" s="69"/>
+      <c r="H42" s="115"/>
+      <c r="I42" s="61">
         <v>120</v>
       </c>
       <c r="J42" s="26" t="s">
-        <v>374</v>
-      </c>
-      <c r="K42" s="82" t="s">
-        <v>403</v>
-      </c>
-      <c r="L42" s="69"/>
-      <c r="M42" s="63">
-        <v>86</v>
-      </c>
-      <c r="N42" s="54" t="s">
+        <v>372</v>
+      </c>
+      <c r="K42" s="79" t="s">
+        <v>401</v>
+      </c>
+      <c r="L42" s="66"/>
+      <c r="M42" s="60">
+        <v>86</v>
+      </c>
+      <c r="N42" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="O42" s="51" t="s">
+      <c r="O42" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="P42" s="51" t="s">
+      <c r="P42" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q42" s="51" t="s">
+      <c r="Q42" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R42" s="35"/>
@@ -4722,34 +4804,36 @@
       <c r="C43" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="D43" s="26"/>
+      <c r="D43" s="117" t="s">
+        <v>416</v>
+      </c>
       <c r="E43" s="26"/>
       <c r="F43" s="44"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="64">
+      <c r="G43" s="69"/>
+      <c r="H43" s="115"/>
+      <c r="I43" s="61">
         <v>121</v>
       </c>
       <c r="J43" s="26" t="s">
-        <v>375</v>
-      </c>
-      <c r="K43" s="82" t="s">
-        <v>404</v>
-      </c>
-      <c r="L43" s="69"/>
-      <c r="M43" s="63">
-        <v>86</v>
-      </c>
-      <c r="N43" s="54" t="s">
+        <v>373</v>
+      </c>
+      <c r="K43" s="79" t="s">
+        <v>402</v>
+      </c>
+      <c r="L43" s="66"/>
+      <c r="M43" s="60">
+        <v>86</v>
+      </c>
+      <c r="N43" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="O43" s="51" t="s">
+      <c r="O43" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="P43" s="51" t="s">
+      <c r="P43" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q43" s="51" t="s">
+      <c r="Q43" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R43" s="35"/>
@@ -4761,34 +4845,36 @@
       <c r="C44" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="D44" s="26"/>
+      <c r="D44" s="117" t="s">
+        <v>411</v>
+      </c>
       <c r="E44" s="26"/>
       <c r="F44" s="44"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="64">
+      <c r="G44" s="69"/>
+      <c r="H44" s="115"/>
+      <c r="I44" s="61">
         <v>122</v>
       </c>
       <c r="J44" s="26" t="s">
-        <v>376</v>
-      </c>
-      <c r="K44" s="82" t="s">
-        <v>405</v>
-      </c>
-      <c r="L44" s="69"/>
-      <c r="M44" s="63">
-        <v>86</v>
-      </c>
-      <c r="N44" s="54" t="s">
+        <v>374</v>
+      </c>
+      <c r="K44" s="79" t="s">
+        <v>403</v>
+      </c>
+      <c r="L44" s="66"/>
+      <c r="M44" s="60">
+        <v>86</v>
+      </c>
+      <c r="N44" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="O44" s="51" t="s">
+      <c r="O44" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="P44" s="51" t="s">
+      <c r="P44" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q44" s="51" t="s">
+      <c r="Q44" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R44" s="35"/>
@@ -4800,34 +4886,36 @@
       <c r="C45" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="26"/>
+      <c r="D45" s="117" t="s">
+        <v>411</v>
+      </c>
       <c r="E45" s="26"/>
       <c r="F45" s="44"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="64">
+      <c r="G45" s="69"/>
+      <c r="H45" s="115"/>
+      <c r="I45" s="61">
         <v>123</v>
       </c>
       <c r="J45" s="26" t="s">
-        <v>377</v>
-      </c>
-      <c r="K45" s="82" t="s">
-        <v>406</v>
-      </c>
-      <c r="L45" s="69"/>
-      <c r="M45" s="63">
-        <v>86</v>
-      </c>
-      <c r="N45" s="54" t="s">
+        <v>375</v>
+      </c>
+      <c r="K45" s="79" t="s">
+        <v>404</v>
+      </c>
+      <c r="L45" s="66"/>
+      <c r="M45" s="60">
+        <v>86</v>
+      </c>
+      <c r="N45" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="O45" s="51" t="s">
+      <c r="O45" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="P45" s="51" t="s">
+      <c r="P45" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q45" s="51" t="s">
+      <c r="Q45" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R45" s="35"/>
@@ -4839,34 +4927,36 @@
       <c r="C46" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="D46" s="26"/>
+      <c r="D46" s="117" t="s">
+        <v>411</v>
+      </c>
       <c r="E46" s="26"/>
       <c r="F46" s="44"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="67">
+      <c r="G46" s="69"/>
+      <c r="H46" s="115"/>
+      <c r="I46" s="64">
         <v>124</v>
       </c>
       <c r="J46" s="42" t="s">
-        <v>378</v>
-      </c>
-      <c r="K46" s="97" t="s">
-        <v>407</v>
-      </c>
-      <c r="L46" s="69"/>
-      <c r="M46" s="63">
-        <v>86</v>
-      </c>
-      <c r="N46" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="K46" s="94" t="s">
+        <v>405</v>
+      </c>
+      <c r="L46" s="66"/>
+      <c r="M46" s="60">
+        <v>86</v>
+      </c>
+      <c r="N46" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="O46" s="51" t="s">
+      <c r="O46" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="P46" s="51" t="s">
+      <c r="P46" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q46" s="51" t="s">
+      <c r="Q46" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R46" s="35"/>
@@ -4878,25 +4968,27 @@
       <c r="C47" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="D47" s="26"/>
+      <c r="D47" s="117" t="s">
+        <v>411</v>
+      </c>
       <c r="E47" s="26"/>
       <c r="F47" s="44"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="38"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="66"/>
       <c r="L47" s="38"/>
-      <c r="M47" s="63">
-        <v>86</v>
-      </c>
-      <c r="N47" s="54" t="s">
+      <c r="M47" s="60">
+        <v>86</v>
+      </c>
+      <c r="N47" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="O47" s="51" t="s">
+      <c r="O47" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="P47" s="51" t="s">
+      <c r="P47" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q47" s="51" t="s">
+      <c r="Q47" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R47" s="35"/>
@@ -4908,27 +5000,27 @@
       <c r="C48" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D48" s="26" t="s">
-        <v>17</v>
+      <c r="D48" s="117" t="s">
+        <v>411</v>
       </c>
       <c r="E48" s="26"/>
       <c r="F48" s="44"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="38"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="66"/>
       <c r="L48" s="38"/>
-      <c r="M48" s="63">
-        <v>86</v>
-      </c>
-      <c r="N48" s="54" t="s">
+      <c r="M48" s="60">
+        <v>86</v>
+      </c>
+      <c r="N48" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="O48" s="51" t="s">
+      <c r="O48" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="P48" s="51" t="s">
+      <c r="P48" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q48" s="51" t="s">
+      <c r="Q48" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R48" s="35"/>
@@ -4940,25 +5032,27 @@
       <c r="C49" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="D49" s="26"/>
+      <c r="D49" s="117" t="s">
+        <v>411</v>
+      </c>
       <c r="E49" s="26"/>
       <c r="F49" s="44"/>
-      <c r="G49" s="72"/>
-      <c r="H49" s="38"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="66"/>
       <c r="L49" s="38"/>
-      <c r="M49" s="63">
-        <v>86</v>
-      </c>
-      <c r="N49" s="54" t="s">
+      <c r="M49" s="60">
+        <v>86</v>
+      </c>
+      <c r="N49" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="O49" s="51" t="s">
+      <c r="O49" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="P49" s="51" t="s">
+      <c r="P49" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q49" s="51" t="s">
+      <c r="Q49" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R49" s="35"/>
@@ -4970,27 +5064,27 @@
       <c r="C50" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="D50" s="26" t="s">
-        <v>17</v>
+      <c r="D50" s="117" t="s">
+        <v>412</v>
       </c>
       <c r="E50" s="26"/>
       <c r="F50" s="44"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="38"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="66"/>
       <c r="L50" s="38"/>
-      <c r="M50" s="63">
-        <v>86</v>
-      </c>
-      <c r="N50" s="54" t="s">
+      <c r="M50" s="60">
+        <v>86</v>
+      </c>
+      <c r="N50" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="O50" s="51" t="s">
+      <c r="O50" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="P50" s="51" t="s">
+      <c r="P50" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q50" s="51" t="s">
+      <c r="Q50" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R50" s="35"/>
@@ -5002,27 +5096,27 @@
       <c r="C51" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D51" s="26" t="s">
-        <v>17</v>
+      <c r="D51" s="117" t="s">
+        <v>411</v>
       </c>
       <c r="E51" s="26"/>
       <c r="F51" s="44"/>
-      <c r="G51" s="72"/>
-      <c r="H51" s="38"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="66"/>
       <c r="L51" s="38"/>
-      <c r="M51" s="63">
-        <v>86</v>
-      </c>
-      <c r="N51" s="54" t="s">
+      <c r="M51" s="60">
+        <v>86</v>
+      </c>
+      <c r="N51" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="O51" s="51" t="s">
+      <c r="O51" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="P51" s="51" t="s">
+      <c r="P51" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q51" s="51" t="s">
+      <c r="Q51" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R51" s="35"/>
@@ -5034,25 +5128,27 @@
       <c r="C52" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="D52" s="26"/>
+      <c r="D52" s="117" t="s">
+        <v>415</v>
+      </c>
       <c r="E52" s="26"/>
       <c r="F52" s="44"/>
-      <c r="G52" s="72"/>
-      <c r="H52" s="38"/>
+      <c r="G52" s="69"/>
+      <c r="H52" s="66"/>
       <c r="L52" s="38"/>
-      <c r="M52" s="62">
+      <c r="M52" s="59">
         <v>93</v>
       </c>
-      <c r="N52" s="54" t="s">
+      <c r="N52" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="O52" s="51" t="s">
+      <c r="O52" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="P52" s="51" t="s">
+      <c r="P52" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q52" s="51" t="s">
+      <c r="Q52" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R52" s="35"/>
@@ -5064,25 +5160,27 @@
       <c r="C53" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D53" s="26"/>
+      <c r="D53" s="117" t="s">
+        <v>422</v>
+      </c>
       <c r="E53" s="26"/>
       <c r="F53" s="44"/>
-      <c r="G53" s="72"/>
-      <c r="H53" s="38"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="66"/>
       <c r="L53" s="38"/>
-      <c r="M53" s="63">
-        <v>86</v>
-      </c>
-      <c r="N53" s="54" t="s">
+      <c r="M53" s="60">
+        <v>86</v>
+      </c>
+      <c r="N53" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="O53" s="51" t="s">
+      <c r="O53" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="P53" s="51" t="s">
+      <c r="P53" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q53" s="51"/>
+      <c r="Q53" s="49"/>
       <c r="R53" s="35"/>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.2">
@@ -5092,25 +5190,27 @@
       <c r="C54" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="D54" s="26"/>
+      <c r="D54" s="117" t="s">
+        <v>411</v>
+      </c>
       <c r="E54" s="26"/>
       <c r="F54" s="44"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="38"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="66"/>
       <c r="L54" s="38"/>
-      <c r="M54" s="64">
+      <c r="M54" s="61">
         <v>87</v>
       </c>
-      <c r="N54" s="54" t="s">
+      <c r="N54" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="O54" s="51" t="s">
+      <c r="O54" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="P54" s="51" t="s">
+      <c r="P54" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="Q54" s="51" t="s">
+      <c r="Q54" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R54" s="35"/>
@@ -5122,25 +5222,27 @@
       <c r="C55" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="D55" s="26"/>
+      <c r="D55" s="117" t="s">
+        <v>423</v>
+      </c>
       <c r="E55" s="26"/>
       <c r="F55" s="44"/>
-      <c r="G55" s="72"/>
-      <c r="H55" s="38"/>
+      <c r="G55" s="69"/>
+      <c r="H55" s="66"/>
       <c r="L55" s="38"/>
-      <c r="M55" s="64">
+      <c r="M55" s="61">
         <v>88</v>
       </c>
-      <c r="N55" s="54" t="s">
+      <c r="N55" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="O55" s="51" t="s">
+      <c r="O55" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="P55" s="51" t="s">
+      <c r="P55" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="Q55" s="51" t="s">
+      <c r="Q55" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R55" s="35"/>
@@ -5152,28 +5254,30 @@
       <c r="C56" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="D56" s="26"/>
+      <c r="D56" s="117" t="s">
+        <v>418</v>
+      </c>
       <c r="E56" s="26"/>
       <c r="F56" s="44"/>
-      <c r="G56" s="72"/>
-      <c r="H56" s="38"/>
+      <c r="G56" s="69"/>
+      <c r="H56" s="66"/>
       <c r="L56" s="38"/>
-      <c r="M56" s="65">
-        <v>86</v>
-      </c>
-      <c r="N56" s="60" t="s">
+      <c r="M56" s="62">
+        <v>86</v>
+      </c>
+      <c r="N56" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="O56" s="59" t="s">
+      <c r="O56" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="P56" s="59" t="s">
+      <c r="P56" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="Q56" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="R56" s="66"/>
+      <c r="Q56" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="R56" s="63"/>
     </row>
     <row r="57" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B57" s="25">
@@ -5182,28 +5286,30 @@
       <c r="C57" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="D57" s="26"/>
+      <c r="D57" s="117" t="s">
+        <v>417</v>
+      </c>
       <c r="E57" s="26"/>
       <c r="F57" s="44"/>
-      <c r="G57" s="72"/>
-      <c r="H57" s="38"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="66"/>
       <c r="L57" s="39"/>
-      <c r="M57" s="76">
+      <c r="M57" s="73">
         <v>98</v>
       </c>
-      <c r="N57" s="77" t="s">
+      <c r="N57" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="O57" s="78" t="s">
+      <c r="O57" s="75" t="s">
         <v>183</v>
       </c>
-      <c r="P57" s="78" t="s">
+      <c r="P57" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="Q57" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="R57" s="79"/>
+      <c r="Q57" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="R57" s="76"/>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B58" s="43">
@@ -5212,28 +5318,30 @@
       <c r="C58" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="D58" s="26"/>
+      <c r="D58" s="117" t="s">
+        <v>424</v>
+      </c>
       <c r="E58" s="26"/>
       <c r="F58" s="44"/>
-      <c r="G58" s="72"/>
-      <c r="H58" s="38"/>
-      <c r="L58" s="81"/>
-      <c r="M58" s="80">
+      <c r="G58" s="69"/>
+      <c r="H58" s="66"/>
+      <c r="L58" s="78"/>
+      <c r="M58" s="77">
         <v>99</v>
       </c>
-      <c r="N58" s="53" t="s">
-        <v>250</v>
-      </c>
-      <c r="O58" s="53" t="s">
+      <c r="N58" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="O58" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="P58" s="53" t="s">
+      <c r="P58" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="Q58" s="53" t="s">
+      <c r="Q58" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="R58" s="56"/>
+      <c r="R58" s="54"/>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B59" s="43">
@@ -5242,25 +5350,27 @@
       <c r="C59" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D59" s="26"/>
+      <c r="D59" s="117" t="s">
+        <v>412</v>
+      </c>
       <c r="E59" s="26"/>
       <c r="F59" s="44"/>
-      <c r="G59" s="72"/>
-      <c r="H59" s="38"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="66"/>
       <c r="L59" s="38"/>
-      <c r="M59" s="64">
+      <c r="M59" s="61">
         <v>93</v>
       </c>
-      <c r="N59" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O59" s="51" t="s">
-        <v>194</v>
-      </c>
-      <c r="P59" s="51" t="s">
+      <c r="N59" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O59" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="P59" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="Q59" s="51" t="s">
+      <c r="Q59" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R59" s="35"/>
@@ -5272,25 +5382,27 @@
       <c r="C60" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="D60" s="26"/>
+      <c r="D60" s="117" t="s">
+        <v>420</v>
+      </c>
       <c r="E60" s="26"/>
       <c r="F60" s="44"/>
-      <c r="G60" s="72"/>
-      <c r="H60" s="38"/>
+      <c r="G60" s="69"/>
+      <c r="H60" s="66"/>
       <c r="L60" s="38"/>
-      <c r="M60" s="64">
-        <v>86</v>
-      </c>
-      <c r="N60" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O60" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="P60" s="51" t="s">
+      <c r="M60" s="61">
+        <v>86</v>
+      </c>
+      <c r="N60" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O60" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="P60" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="Q60" s="51" t="s">
+      <c r="Q60" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R60" s="35"/>
@@ -5302,25 +5414,27 @@
       <c r="C61" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D61" s="26"/>
+      <c r="D61" s="117" t="s">
+        <v>411</v>
+      </c>
       <c r="E61" s="26"/>
       <c r="F61" s="44"/>
-      <c r="G61" s="72"/>
-      <c r="H61" s="38"/>
+      <c r="G61" s="69"/>
+      <c r="H61" s="66"/>
       <c r="L61" s="38"/>
-      <c r="M61" s="64">
+      <c r="M61" s="61">
         <v>93</v>
       </c>
-      <c r="N61" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O61" s="51" t="s">
-        <v>196</v>
-      </c>
-      <c r="P61" s="51" t="s">
+      <c r="N61" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O61" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="P61" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="Q61" s="51" t="s">
+      <c r="Q61" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R61" s="35"/>
@@ -5332,27 +5446,27 @@
       <c r="C62" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="D62" s="26" t="s">
-        <v>17</v>
+      <c r="D62" s="117" t="s">
+        <v>411</v>
       </c>
       <c r="E62" s="26"/>
       <c r="F62" s="44"/>
-      <c r="G62" s="72"/>
-      <c r="H62" s="38"/>
+      <c r="G62" s="69"/>
+      <c r="H62" s="66"/>
       <c r="L62" s="38"/>
-      <c r="M62" s="64">
-        <v>86</v>
-      </c>
-      <c r="N62" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O62" s="51" t="s">
-        <v>197</v>
-      </c>
-      <c r="P62" s="51" t="s">
+      <c r="M62" s="61">
+        <v>86</v>
+      </c>
+      <c r="N62" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O62" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="P62" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="Q62" s="51" t="s">
+      <c r="Q62" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R62" s="35"/>
@@ -5364,25 +5478,27 @@
       <c r="C63" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="D63" s="26"/>
+      <c r="D63" s="117" t="s">
+        <v>425</v>
+      </c>
       <c r="E63" s="26"/>
       <c r="F63" s="44"/>
-      <c r="G63" s="72"/>
-      <c r="H63" s="38"/>
+      <c r="G63" s="69"/>
+      <c r="H63" s="66"/>
       <c r="L63" s="38"/>
-      <c r="M63" s="64">
+      <c r="M63" s="61">
         <v>93</v>
       </c>
-      <c r="N63" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O63" s="51" t="s">
-        <v>198</v>
-      </c>
-      <c r="P63" s="51" t="s">
+      <c r="N63" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O63" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="P63" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="Q63" s="51" t="s">
+      <c r="Q63" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R63" s="35"/>
@@ -5394,25 +5510,27 @@
       <c r="C64" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="D64" s="26"/>
+      <c r="D64" s="117" t="s">
+        <v>413</v>
+      </c>
       <c r="E64" s="26"/>
       <c r="F64" s="44"/>
-      <c r="G64" s="72"/>
-      <c r="H64" s="38"/>
+      <c r="G64" s="69"/>
+      <c r="H64" s="66"/>
       <c r="L64" s="38"/>
-      <c r="M64" s="64">
-        <v>86</v>
-      </c>
-      <c r="N64" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O64" s="51" t="s">
-        <v>199</v>
-      </c>
-      <c r="P64" s="51" t="s">
+      <c r="M64" s="61">
+        <v>86</v>
+      </c>
+      <c r="N64" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O64" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="P64" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="Q64" s="51" t="s">
+      <c r="Q64" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R64" s="35"/>
@@ -5424,25 +5542,27 @@
       <c r="C65" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="D65" s="26"/>
+      <c r="D65" s="117" t="s">
+        <v>420</v>
+      </c>
       <c r="E65" s="26"/>
       <c r="F65" s="44"/>
-      <c r="G65" s="72"/>
-      <c r="H65" s="38"/>
+      <c r="G65" s="69"/>
+      <c r="H65" s="66"/>
       <c r="L65" s="38"/>
-      <c r="M65" s="64">
+      <c r="M65" s="61">
         <v>100</v>
       </c>
-      <c r="N65" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O65" s="51" t="s">
-        <v>200</v>
-      </c>
-      <c r="P65" s="51" t="s">
+      <c r="N65" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O65" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="P65" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="Q65" s="51" t="s">
+      <c r="Q65" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R65" s="35"/>
@@ -5454,25 +5574,27 @@
       <c r="C66" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="D66" s="26"/>
+      <c r="D66" s="117" t="s">
+        <v>415</v>
+      </c>
       <c r="E66" s="26"/>
       <c r="F66" s="44"/>
-      <c r="G66" s="72"/>
-      <c r="H66" s="38"/>
+      <c r="G66" s="69"/>
+      <c r="H66" s="66"/>
       <c r="L66" s="38"/>
-      <c r="M66" s="64">
+      <c r="M66" s="61">
         <v>101</v>
       </c>
-      <c r="N66" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O66" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="P66" s="51" t="s">
+      <c r="N66" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O66" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="P66" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="Q66" s="51" t="s">
+      <c r="Q66" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R66" s="35"/>
@@ -5484,25 +5606,27 @@
       <c r="C67" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="D67" s="26"/>
+      <c r="D67" s="117" t="s">
+        <v>412</v>
+      </c>
       <c r="E67" s="26"/>
       <c r="F67" s="44"/>
-      <c r="G67" s="72"/>
-      <c r="H67" s="38"/>
+      <c r="G67" s="69"/>
+      <c r="H67" s="66"/>
       <c r="L67" s="38"/>
-      <c r="M67" s="64">
+      <c r="M67" s="61">
         <v>93</v>
       </c>
-      <c r="N67" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O67" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="P67" s="51" t="s">
+      <c r="N67" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O67" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="P67" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="Q67" s="51" t="s">
+      <c r="Q67" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R67" s="35"/>
@@ -5514,25 +5638,27 @@
       <c r="C68" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="D68" s="26"/>
+      <c r="D68" s="117" t="s">
+        <v>411</v>
+      </c>
       <c r="E68" s="26"/>
       <c r="F68" s="44"/>
-      <c r="G68" s="72"/>
-      <c r="H68" s="38"/>
+      <c r="G68" s="69"/>
+      <c r="H68" s="66"/>
       <c r="L68" s="38"/>
-      <c r="M68" s="64">
-        <v>86</v>
-      </c>
-      <c r="N68" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O68" s="51" t="s">
-        <v>203</v>
-      </c>
-      <c r="P68" s="51" t="s">
+      <c r="M68" s="61">
+        <v>86</v>
+      </c>
+      <c r="N68" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O68" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="P68" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="Q68" s="51" t="s">
+      <c r="Q68" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R68" s="35"/>
@@ -5544,27 +5670,27 @@
       <c r="C69" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="26" t="s">
-        <v>20</v>
+      <c r="D69" s="117" t="s">
+        <v>415</v>
       </c>
       <c r="E69" s="26"/>
       <c r="F69" s="44"/>
-      <c r="G69" s="72"/>
-      <c r="H69" s="38"/>
+      <c r="G69" s="69"/>
+      <c r="H69" s="66"/>
       <c r="L69" s="38"/>
-      <c r="M69" s="64">
+      <c r="M69" s="61">
         <v>93</v>
       </c>
-      <c r="N69" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O69" s="51" t="s">
-        <v>204</v>
-      </c>
-      <c r="P69" s="51" t="s">
+      <c r="N69" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O69" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="P69" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="Q69" s="51" t="s">
+      <c r="Q69" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R69" s="35"/>
@@ -5576,25 +5702,27 @@
       <c r="C70" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="D70" s="26"/>
+      <c r="D70" s="117" t="s">
+        <v>411</v>
+      </c>
       <c r="E70" s="26"/>
       <c r="F70" s="44"/>
-      <c r="G70" s="72"/>
-      <c r="H70" s="38"/>
+      <c r="G70" s="69"/>
+      <c r="H70" s="66"/>
       <c r="L70" s="38"/>
-      <c r="M70" s="64">
-        <v>86</v>
-      </c>
-      <c r="N70" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O70" s="51" t="s">
-        <v>205</v>
-      </c>
-      <c r="P70" s="51" t="s">
+      <c r="M70" s="61">
+        <v>86</v>
+      </c>
+      <c r="N70" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O70" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="P70" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="Q70" s="51" t="s">
+      <c r="Q70" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R70" s="35"/>
@@ -5606,25 +5734,27 @@
       <c r="C71" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="D71" s="26"/>
+      <c r="D71" s="117" t="s">
+        <v>415</v>
+      </c>
       <c r="E71" s="26"/>
       <c r="F71" s="44"/>
-      <c r="G71" s="72"/>
-      <c r="H71" s="38"/>
+      <c r="G71" s="69"/>
+      <c r="H71" s="66"/>
       <c r="L71" s="38"/>
-      <c r="M71" s="64">
+      <c r="M71" s="61">
         <v>93</v>
       </c>
-      <c r="N71" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O71" s="51" t="s">
-        <v>206</v>
-      </c>
-      <c r="P71" s="51" t="s">
+      <c r="N71" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O71" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="P71" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="Q71" s="51" t="s">
+      <c r="Q71" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R71" s="35"/>
@@ -5636,25 +5766,27 @@
       <c r="C72" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="D72" s="26"/>
+      <c r="D72" s="117" t="s">
+        <v>414</v>
+      </c>
       <c r="E72" s="26"/>
       <c r="F72" s="44"/>
-      <c r="G72" s="72"/>
-      <c r="H72" s="38"/>
+      <c r="G72" s="69"/>
+      <c r="H72" s="66"/>
       <c r="L72" s="38"/>
-      <c r="M72" s="64">
-        <v>86</v>
-      </c>
-      <c r="N72" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O72" s="51" t="s">
-        <v>207</v>
-      </c>
-      <c r="P72" s="51" t="s">
+      <c r="M72" s="61">
+        <v>86</v>
+      </c>
+      <c r="N72" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O72" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="P72" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="Q72" s="51" t="s">
+      <c r="Q72" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R72" s="35"/>
@@ -5666,25 +5798,27 @@
       <c r="C73" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D73" s="26"/>
+      <c r="D73" s="117" t="s">
+        <v>418</v>
+      </c>
       <c r="E73" s="26"/>
       <c r="F73" s="44"/>
-      <c r="G73" s="72"/>
-      <c r="H73" s="38"/>
+      <c r="G73" s="69"/>
+      <c r="H73" s="66"/>
       <c r="L73" s="38"/>
-      <c r="M73" s="64">
+      <c r="M73" s="61">
         <v>93</v>
       </c>
-      <c r="N73" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O73" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="P73" s="51" t="s">
+      <c r="N73" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O73" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="P73" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="Q73" s="51" t="s">
+      <c r="Q73" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R73" s="35"/>
@@ -5696,25 +5830,27 @@
       <c r="C74" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="D74" s="26"/>
+      <c r="D74" s="117" t="s">
+        <v>411</v>
+      </c>
       <c r="E74" s="26"/>
       <c r="F74" s="44"/>
-      <c r="G74" s="72"/>
-      <c r="H74" s="38"/>
+      <c r="G74" s="69"/>
+      <c r="H74" s="66"/>
       <c r="L74" s="38"/>
-      <c r="M74" s="64">
-        <v>86</v>
-      </c>
-      <c r="N74" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O74" s="51" t="s">
-        <v>209</v>
-      </c>
-      <c r="P74" s="51" t="s">
+      <c r="M74" s="61">
+        <v>86</v>
+      </c>
+      <c r="N74" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O74" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="P74" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="Q74" s="51" t="s">
+      <c r="Q74" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R74" s="35"/>
@@ -5726,25 +5862,27 @@
       <c r="C75" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="D75" s="26"/>
+      <c r="D75" s="117" t="s">
+        <v>422</v>
+      </c>
       <c r="E75" s="26"/>
       <c r="F75" s="44"/>
-      <c r="G75" s="72"/>
-      <c r="H75" s="38"/>
+      <c r="G75" s="69"/>
+      <c r="H75" s="66"/>
       <c r="L75" s="38"/>
-      <c r="M75" s="64">
+      <c r="M75" s="61">
         <v>102</v>
       </c>
-      <c r="N75" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O75" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="P75" s="51" t="s">
+      <c r="N75" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O75" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="P75" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="Q75" s="51" t="s">
+      <c r="Q75" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R75" s="35"/>
@@ -5756,25 +5894,27 @@
       <c r="C76" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="D76" s="26"/>
+      <c r="D76" s="117" t="s">
+        <v>422</v>
+      </c>
       <c r="E76" s="26"/>
       <c r="F76" s="44"/>
-      <c r="G76" s="72"/>
-      <c r="H76" s="38"/>
+      <c r="G76" s="69"/>
+      <c r="H76" s="66"/>
       <c r="L76" s="38"/>
-      <c r="M76" s="64">
+      <c r="M76" s="61">
         <v>103</v>
       </c>
-      <c r="N76" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O76" s="51" t="s">
-        <v>211</v>
-      </c>
-      <c r="P76" s="51" t="s">
+      <c r="N76" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O76" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="P76" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="Q76" s="51" t="s">
+      <c r="Q76" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R76" s="35"/>
@@ -5786,25 +5926,27 @@
       <c r="C77" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="D77" s="26"/>
+      <c r="D77" s="117" t="s">
+        <v>422</v>
+      </c>
       <c r="E77" s="26"/>
       <c r="F77" s="44"/>
-      <c r="G77" s="72"/>
-      <c r="H77" s="38"/>
+      <c r="G77" s="69"/>
+      <c r="H77" s="66"/>
       <c r="L77" s="38"/>
-      <c r="M77" s="64">
+      <c r="M77" s="61">
         <v>104</v>
       </c>
-      <c r="N77" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O77" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="P77" s="51" t="s">
+      <c r="N77" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O77" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="P77" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="Q77" s="51" t="s">
+      <c r="Q77" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R77" s="35"/>
@@ -5816,25 +5958,27 @@
       <c r="C78" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="D78" s="26"/>
+      <c r="D78" s="117" t="s">
+        <v>422</v>
+      </c>
       <c r="E78" s="26"/>
       <c r="F78" s="44"/>
-      <c r="G78" s="72"/>
-      <c r="H78" s="38"/>
+      <c r="G78" s="69"/>
+      <c r="H78" s="66"/>
       <c r="L78" s="38"/>
-      <c r="M78" s="64">
+      <c r="M78" s="61">
         <v>105</v>
       </c>
-      <c r="N78" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O78" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="P78" s="51" t="s">
+      <c r="N78" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O78" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="P78" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="Q78" s="51" t="s">
+      <c r="Q78" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R78" s="35"/>
@@ -5846,25 +5990,27 @@
       <c r="C79" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="D79" s="26"/>
+      <c r="D79" s="117" t="s">
+        <v>418</v>
+      </c>
       <c r="E79" s="26"/>
       <c r="F79" s="44"/>
-      <c r="G79" s="72"/>
-      <c r="H79" s="38"/>
+      <c r="G79" s="69"/>
+      <c r="H79" s="66"/>
       <c r="L79" s="38"/>
-      <c r="M79" s="64">
+      <c r="M79" s="61">
         <v>106</v>
       </c>
-      <c r="N79" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O79" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="P79" s="51" t="s">
+      <c r="N79" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O79" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="P79" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="Q79" s="51" t="s">
+      <c r="Q79" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R79" s="35"/>
@@ -5876,25 +6022,27 @@
       <c r="C80" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="D80" s="26"/>
+      <c r="D80" s="117" t="s">
+        <v>418</v>
+      </c>
       <c r="E80" s="26"/>
       <c r="F80" s="44"/>
-      <c r="G80" s="72"/>
-      <c r="H80" s="38"/>
+      <c r="G80" s="69"/>
+      <c r="H80" s="66"/>
       <c r="L80" s="38"/>
-      <c r="M80" s="64">
+      <c r="M80" s="61">
         <v>107</v>
       </c>
-      <c r="N80" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O80" s="51" t="s">
-        <v>215</v>
-      </c>
-      <c r="P80" s="51" t="s">
+      <c r="N80" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O80" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="P80" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="Q80" s="51" t="s">
+      <c r="Q80" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R80" s="35"/>
@@ -5906,25 +6054,27 @@
       <c r="C81" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="D81" s="26"/>
+      <c r="D81" s="117" t="s">
+        <v>411</v>
+      </c>
       <c r="E81" s="26"/>
       <c r="F81" s="44"/>
-      <c r="G81" s="72"/>
-      <c r="H81" s="38"/>
+      <c r="G81" s="69"/>
+      <c r="H81" s="66"/>
       <c r="L81" s="38"/>
-      <c r="M81" s="64">
+      <c r="M81" s="61">
         <v>93</v>
       </c>
-      <c r="N81" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O81" s="51" t="s">
-        <v>216</v>
-      </c>
-      <c r="P81" s="51" t="s">
+      <c r="N81" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O81" s="49" t="s">
+        <v>214</v>
+      </c>
+      <c r="P81" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="Q81" s="51" t="s">
+      <c r="Q81" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R81" s="35"/>
@@ -5936,25 +6086,27 @@
       <c r="C82" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="D82" s="26"/>
+      <c r="D82" s="117" t="s">
+        <v>415</v>
+      </c>
       <c r="E82" s="26"/>
       <c r="F82" s="44"/>
-      <c r="G82" s="72"/>
-      <c r="H82" s="38"/>
+      <c r="G82" s="69"/>
+      <c r="H82" s="66"/>
       <c r="L82" s="38"/>
-      <c r="M82" s="64">
-        <v>86</v>
-      </c>
-      <c r="N82" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O82" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="P82" s="51" t="s">
+      <c r="M82" s="61">
+        <v>86</v>
+      </c>
+      <c r="N82" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O82" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="P82" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="Q82" s="51" t="s">
+      <c r="Q82" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R82" s="35"/>
@@ -5966,25 +6118,27 @@
       <c r="C83" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="D83" s="26"/>
+      <c r="D83" s="117" t="s">
+        <v>411</v>
+      </c>
       <c r="E83" s="26"/>
       <c r="F83" s="44"/>
-      <c r="G83" s="72"/>
-      <c r="H83" s="38"/>
+      <c r="G83" s="69"/>
+      <c r="H83" s="66"/>
       <c r="L83" s="38"/>
-      <c r="M83" s="64">
+      <c r="M83" s="61">
         <v>93</v>
       </c>
-      <c r="N83" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O83" s="51" t="s">
-        <v>218</v>
-      </c>
-      <c r="P83" s="51" t="s">
+      <c r="N83" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O83" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="P83" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="Q83" s="51" t="s">
+      <c r="Q83" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R83" s="35"/>
@@ -5996,25 +6150,27 @@
       <c r="C84" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="D84" s="26"/>
+      <c r="D84" s="117" t="s">
+        <v>415</v>
+      </c>
       <c r="E84" s="26"/>
       <c r="F84" s="44"/>
-      <c r="G84" s="72"/>
-      <c r="H84" s="38"/>
+      <c r="G84" s="69"/>
+      <c r="H84" s="66"/>
       <c r="L84" s="38"/>
-      <c r="M84" s="64">
-        <v>86</v>
-      </c>
-      <c r="N84" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O84" s="51" t="s">
-        <v>219</v>
-      </c>
-      <c r="P84" s="51" t="s">
+      <c r="M84" s="61">
+        <v>86</v>
+      </c>
+      <c r="N84" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O84" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="P84" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="Q84" s="51" t="s">
+      <c r="Q84" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R84" s="35"/>
@@ -6026,25 +6182,27 @@
       <c r="C85" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="D85" s="26"/>
+      <c r="D85" s="117" t="s">
+        <v>415</v>
+      </c>
       <c r="E85" s="26"/>
       <c r="F85" s="44"/>
-      <c r="G85" s="72"/>
-      <c r="H85" s="38"/>
+      <c r="G85" s="69"/>
+      <c r="H85" s="66"/>
       <c r="L85" s="38"/>
-      <c r="M85" s="64">
+      <c r="M85" s="61">
         <v>93</v>
       </c>
-      <c r="N85" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O85" s="54" t="s">
-        <v>220</v>
-      </c>
-      <c r="P85" s="51" t="s">
+      <c r="N85" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O85" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="P85" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="Q85" s="51" t="s">
+      <c r="Q85" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R85" s="35"/>
@@ -6056,25 +6214,27 @@
       <c r="C86" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="D86" s="26"/>
+      <c r="D86" s="117" t="s">
+        <v>418</v>
+      </c>
       <c r="E86" s="26"/>
       <c r="F86" s="44"/>
-      <c r="G86" s="72"/>
-      <c r="H86" s="38"/>
+      <c r="G86" s="69"/>
+      <c r="H86" s="66"/>
       <c r="L86" s="38"/>
-      <c r="M86" s="64">
-        <v>86</v>
-      </c>
-      <c r="N86" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O86" s="51" t="s">
-        <v>221</v>
-      </c>
-      <c r="P86" s="51" t="s">
+      <c r="M86" s="61">
+        <v>86</v>
+      </c>
+      <c r="N86" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O86" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="P86" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="Q86" s="51" t="s">
+      <c r="Q86" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R86" s="35"/>
@@ -6086,25 +6246,27 @@
       <c r="C87" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="D87" s="26"/>
+      <c r="D87" s="117" t="s">
+        <v>426</v>
+      </c>
       <c r="E87" s="26"/>
       <c r="F87" s="44"/>
-      <c r="G87" s="72"/>
-      <c r="H87" s="38"/>
+      <c r="G87" s="69"/>
+      <c r="H87" s="66"/>
       <c r="L87" s="38"/>
-      <c r="M87" s="64">
+      <c r="M87" s="61">
         <v>93</v>
       </c>
-      <c r="N87" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O87" s="51" t="s">
-        <v>222</v>
-      </c>
-      <c r="P87" s="51" t="s">
+      <c r="N87" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O87" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="P87" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="Q87" s="51" t="s">
+      <c r="Q87" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R87" s="35"/>
@@ -6116,25 +6278,27 @@
       <c r="C88" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="D88" s="26"/>
+      <c r="D88" s="117" t="s">
+        <v>416</v>
+      </c>
       <c r="E88" s="26"/>
       <c r="F88" s="44"/>
-      <c r="G88" s="72"/>
-      <c r="H88" s="38"/>
+      <c r="G88" s="69"/>
+      <c r="H88" s="66"/>
       <c r="L88" s="38"/>
-      <c r="M88" s="64">
-        <v>86</v>
-      </c>
-      <c r="N88" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O88" s="51" t="s">
-        <v>223</v>
-      </c>
-      <c r="P88" s="51" t="s">
+      <c r="M88" s="61">
+        <v>86</v>
+      </c>
+      <c r="N88" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O88" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="P88" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="Q88" s="51" t="s">
+      <c r="Q88" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R88" s="35"/>
@@ -6146,25 +6310,27 @@
       <c r="C89" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="D89" s="26"/>
+      <c r="D89" s="117" t="s">
+        <v>426</v>
+      </c>
       <c r="E89" s="26"/>
       <c r="F89" s="44"/>
-      <c r="G89" s="72"/>
-      <c r="H89" s="38"/>
+      <c r="G89" s="69"/>
+      <c r="H89" s="66"/>
       <c r="L89" s="38"/>
-      <c r="M89" s="64">
-        <v>86</v>
-      </c>
-      <c r="N89" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O89" s="51" t="s">
-        <v>224</v>
-      </c>
-      <c r="P89" s="51" t="s">
+      <c r="M89" s="61">
+        <v>86</v>
+      </c>
+      <c r="N89" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O89" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="P89" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="Q89" s="51" t="s">
+      <c r="Q89" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R89" s="35"/>
@@ -6176,25 +6342,27 @@
       <c r="C90" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="D90" s="26"/>
+      <c r="D90" s="117" t="s">
+        <v>418</v>
+      </c>
       <c r="E90" s="26"/>
       <c r="F90" s="44"/>
-      <c r="G90" s="72"/>
-      <c r="H90" s="38"/>
+      <c r="G90" s="69"/>
+      <c r="H90" s="66"/>
       <c r="L90" s="38"/>
-      <c r="M90" s="64">
-        <v>86</v>
-      </c>
-      <c r="N90" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O90" s="51" t="s">
-        <v>225</v>
-      </c>
-      <c r="P90" s="51" t="s">
+      <c r="M90" s="61">
+        <v>86</v>
+      </c>
+      <c r="N90" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O90" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="P90" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="Q90" s="51" t="s">
+      <c r="Q90" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R90" s="35"/>
@@ -6206,451 +6374,455 @@
       <c r="C91" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="D91" s="26"/>
+      <c r="D91" s="117" t="s">
+        <v>418</v>
+      </c>
       <c r="E91" s="26"/>
       <c r="F91" s="44"/>
-      <c r="G91" s="72"/>
-      <c r="H91" s="38"/>
+      <c r="G91" s="69"/>
+      <c r="H91" s="66"/>
       <c r="L91" s="38"/>
-      <c r="M91" s="64">
-        <v>86</v>
-      </c>
-      <c r="N91" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O91" s="51" t="s">
-        <v>226</v>
-      </c>
-      <c r="P91" s="51" t="s">
+      <c r="M91" s="61">
+        <v>86</v>
+      </c>
+      <c r="N91" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O91" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="P91" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="Q91" s="51" t="s">
+      <c r="Q91" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R91" s="35"/>
     </row>
     <row r="92" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="48">
+      <c r="B92" s="46">
         <v>84</v>
       </c>
-      <c r="C92" s="57" t="s">
+      <c r="C92" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="D92" s="42"/>
+      <c r="D92" s="119" t="s">
+        <v>418</v>
+      </c>
       <c r="E92" s="42"/>
       <c r="F92" s="45"/>
-      <c r="G92" s="73"/>
-      <c r="H92" s="39"/>
+      <c r="G92" s="70"/>
+      <c r="H92" s="116"/>
       <c r="L92" s="38"/>
-      <c r="M92" s="64">
+      <c r="M92" s="61">
         <v>93</v>
       </c>
-      <c r="N92" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O92" s="51" t="s">
-        <v>227</v>
-      </c>
-      <c r="P92" s="51" t="s">
+      <c r="N92" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O92" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="P92" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="Q92" s="51" t="s">
+      <c r="Q92" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R92" s="35"/>
     </row>
     <row r="93" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L93" s="38"/>
-      <c r="M93" s="64">
-        <v>86</v>
-      </c>
-      <c r="N93" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O93" s="51" t="s">
-        <v>228</v>
-      </c>
-      <c r="P93" s="51" t="s">
+      <c r="M93" s="61">
+        <v>86</v>
+      </c>
+      <c r="N93" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O93" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="P93" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="Q93" s="51" t="s">
+      <c r="Q93" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R93" s="35"/>
     </row>
     <row r="94" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L94" s="38"/>
-      <c r="M94" s="64">
-        <v>86</v>
-      </c>
-      <c r="N94" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O94" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="P94" s="51" t="s">
+      <c r="M94" s="61">
+        <v>86</v>
+      </c>
+      <c r="N94" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O94" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="P94" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="Q94" s="51" t="s">
+      <c r="Q94" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R94" s="35"/>
     </row>
     <row r="95" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L95" s="38"/>
-      <c r="M95" s="64">
+      <c r="M95" s="61">
         <v>63</v>
       </c>
-      <c r="N95" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O95" s="51" t="s">
-        <v>230</v>
-      </c>
-      <c r="P95" s="51" t="s">
+      <c r="N95" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O95" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="P95" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="Q95" s="51" t="s">
+      <c r="Q95" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R95" s="35"/>
     </row>
     <row r="96" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L96" s="38"/>
-      <c r="M96" s="64">
-        <v>86</v>
-      </c>
-      <c r="N96" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O96" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="P96" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q96" s="51" t="s">
+      <c r="M96" s="61">
+        <v>86</v>
+      </c>
+      <c r="N96" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O96" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="P96" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q96" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R96" s="35"/>
     </row>
     <row r="97" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L97" s="38"/>
-      <c r="M97" s="64">
-        <v>86</v>
-      </c>
-      <c r="N97" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O97" s="51" t="s">
-        <v>233</v>
-      </c>
-      <c r="P97" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q97" s="51" t="s">
+      <c r="M97" s="61">
+        <v>86</v>
+      </c>
+      <c r="N97" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O97" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="P97" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q97" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R97" s="35"/>
     </row>
     <row r="98" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L98" s="38"/>
-      <c r="M98" s="64">
+      <c r="M98" s="61">
         <v>49</v>
       </c>
-      <c r="N98" s="51" t="s">
-        <v>250</v>
+      <c r="N98" s="49" t="s">
+        <v>248</v>
       </c>
       <c r="O98" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="P98" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q98" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="P98" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q98" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R98" s="35"/>
     </row>
     <row r="99" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L99" s="38"/>
-      <c r="M99" s="64">
-        <v>86</v>
-      </c>
-      <c r="N99" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O99" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="P99" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q99" s="51" t="s">
+      <c r="M99" s="61">
+        <v>86</v>
+      </c>
+      <c r="N99" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O99" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="P99" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q99" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R99" s="35"/>
     </row>
     <row r="100" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L100" s="38"/>
-      <c r="M100" s="64">
-        <v>86</v>
-      </c>
-      <c r="N100" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O100" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="P100" s="51" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q100" s="51" t="s">
+      <c r="M100" s="61">
+        <v>86</v>
+      </c>
+      <c r="N100" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O100" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="P100" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q100" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R100" s="35"/>
     </row>
     <row r="101" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L101" s="38"/>
-      <c r="M101" s="64">
+      <c r="M101" s="61">
         <v>108</v>
       </c>
-      <c r="N101" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O101" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="P101" s="51" t="s">
+      <c r="N101" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O101" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="P101" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="Q101" s="51" t="s">
+      <c r="Q101" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R101" s="35"/>
     </row>
     <row r="102" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L102" s="38"/>
-      <c r="M102" s="64">
+      <c r="M102" s="61">
         <v>3</v>
       </c>
-      <c r="N102" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O102" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="P102" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q102" s="51" t="s">
+      <c r="N102" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O102" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="P102" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q102" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R102" s="35"/>
     </row>
     <row r="103" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L103" s="38"/>
-      <c r="M103" s="64">
-        <v>86</v>
-      </c>
-      <c r="N103" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O103" s="54" t="s">
-        <v>241</v>
-      </c>
-      <c r="P103" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q103" s="51" t="s">
+      <c r="M103" s="61">
+        <v>86</v>
+      </c>
+      <c r="N103" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O103" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="P103" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q103" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R103" s="35"/>
     </row>
     <row r="104" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L104" s="38"/>
-      <c r="M104" s="64">
+      <c r="M104" s="61">
         <v>60</v>
       </c>
-      <c r="N104" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O104" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="P104" s="51" t="s">
+      <c r="N104" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O104" s="49" t="s">
+        <v>241</v>
+      </c>
+      <c r="P104" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="Q104" s="51" t="s">
+      <c r="Q104" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R104" s="35"/>
     </row>
     <row r="105" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L105" s="38"/>
-      <c r="M105" s="64">
+      <c r="M105" s="61">
         <v>93</v>
       </c>
-      <c r="N105" s="51" t="s">
-        <v>250</v>
+      <c r="N105" s="49" t="s">
+        <v>248</v>
       </c>
       <c r="O105" s="36" t="s">
-        <v>244</v>
-      </c>
-      <c r="P105" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="P105" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="Q105" s="51" t="s">
+      <c r="Q105" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R105" s="35"/>
     </row>
     <row r="106" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L106" s="38"/>
-      <c r="M106" s="64">
-        <v>86</v>
-      </c>
-      <c r="N106" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O106" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="P106" s="51" t="s">
+      <c r="M106" s="61">
+        <v>86</v>
+      </c>
+      <c r="N106" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O106" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="P106" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="Q106" s="51" t="s">
+      <c r="Q106" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R106" s="35"/>
     </row>
     <row r="107" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L107" s="38"/>
-      <c r="M107" s="64">
-        <v>86</v>
-      </c>
-      <c r="N107" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O107" s="51" t="s">
-        <v>246</v>
-      </c>
-      <c r="P107" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q107" s="51" t="s">
+      <c r="M107" s="61">
+        <v>86</v>
+      </c>
+      <c r="N107" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O107" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="P107" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q107" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R107" s="35"/>
     </row>
     <row r="108" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L108" s="38"/>
-      <c r="M108" s="64">
-        <v>86</v>
-      </c>
-      <c r="N108" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O108" s="51" t="s">
-        <v>247</v>
-      </c>
-      <c r="P108" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q108" s="51" t="s">
+      <c r="M108" s="61">
+        <v>86</v>
+      </c>
+      <c r="N108" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O108" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="P108" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q108" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R108" s="35"/>
     </row>
     <row r="109" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L109" s="38"/>
-      <c r="M109" s="64">
-        <v>86</v>
-      </c>
-      <c r="N109" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O109" s="51" t="s">
+      <c r="M109" s="61">
+        <v>86</v>
+      </c>
+      <c r="N109" s="49" t="s">
         <v>248</v>
       </c>
-      <c r="P109" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q109" s="51" t="s">
+      <c r="O109" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="P109" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q109" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R109" s="35"/>
     </row>
     <row r="110" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L110" s="38"/>
-      <c r="M110" s="64">
-        <v>86</v>
-      </c>
-      <c r="N110" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="O110" s="51" t="s">
-        <v>249</v>
-      </c>
-      <c r="P110" s="51" t="s">
+      <c r="M110" s="61">
+        <v>86</v>
+      </c>
+      <c r="N110" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="O110" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="P110" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="Q110" s="51" t="s">
+      <c r="Q110" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R110" s="35"/>
     </row>
     <row r="111" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L111" s="38"/>
-      <c r="M111" s="76">
+      <c r="M111" s="73">
         <v>93</v>
       </c>
-      <c r="N111" s="75" t="s">
-        <v>250</v>
-      </c>
-      <c r="O111" s="78" t="s">
-        <v>261</v>
-      </c>
-      <c r="P111" s="75" t="s">
+      <c r="N111" s="72" t="s">
+        <v>248</v>
+      </c>
+      <c r="O111" s="75" t="s">
+        <v>259</v>
+      </c>
+      <c r="P111" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="Q111" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="R111" s="79"/>
+      <c r="Q111" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="R111" s="76"/>
     </row>
     <row r="112" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L112" s="81"/>
-      <c r="M112" s="88">
+      <c r="L112" s="78"/>
+      <c r="M112" s="85">
         <v>109</v>
       </c>
-      <c r="N112" s="55" t="s">
-        <v>363</v>
-      </c>
-      <c r="O112" s="55" t="s">
+      <c r="N112" s="53" t="s">
+        <v>361</v>
+      </c>
+      <c r="O112" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="P112" s="55" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q112" s="55" t="s">
+      <c r="P112" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q112" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="R112" s="84" t="s">
+      <c r="R112" s="81" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="113" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L113" s="38"/>
-      <c r="M113" s="89">
+      <c r="M113" s="86">
         <v>110</v>
       </c>
       <c r="N113" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O113" s="36" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="P113" s="36" t="s">
         <v>25</v>
@@ -6658,18 +6830,18 @@
       <c r="Q113" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R113" s="85"/>
+      <c r="R113" s="82"/>
     </row>
     <row r="114" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L114" s="38"/>
-      <c r="M114" s="89">
+      <c r="M114" s="86">
         <v>93</v>
       </c>
       <c r="N114" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O114" s="36" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="P114" s="36" t="s">
         <v>25</v>
@@ -6677,18 +6849,18 @@
       <c r="Q114" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R114" s="85"/>
+      <c r="R114" s="82"/>
     </row>
     <row r="115" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L115" s="38"/>
-      <c r="M115" s="89">
+      <c r="M115" s="86">
         <v>111</v>
       </c>
       <c r="N115" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O115" s="36" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P115" s="36" t="s">
         <v>20</v>
@@ -6696,18 +6868,18 @@
       <c r="Q115" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R115" s="85"/>
+      <c r="R115" s="82"/>
     </row>
     <row r="116" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L116" s="38"/>
-      <c r="M116" s="89">
+      <c r="M116" s="86">
         <v>86</v>
       </c>
       <c r="N116" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O116" s="36" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P116" s="36" t="s">
         <v>20</v>
@@ -6715,18 +6887,18 @@
       <c r="Q116" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R116" s="85"/>
+      <c r="R116" s="82"/>
     </row>
     <row r="117" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L117" s="38"/>
-      <c r="M117" s="89">
+      <c r="M117" s="86">
         <v>86</v>
       </c>
       <c r="N117" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O117" s="36" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="P117" s="36" t="s">
         <v>20</v>
@@ -6734,18 +6906,18 @@
       <c r="Q117" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R117" s="85"/>
+      <c r="R117" s="82"/>
     </row>
     <row r="118" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L118" s="38"/>
-      <c r="M118" s="89">
+      <c r="M118" s="86">
         <v>93</v>
       </c>
       <c r="N118" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O118" s="36" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="P118" s="36" t="s">
         <v>25</v>
@@ -6753,18 +6925,18 @@
       <c r="Q118" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R118" s="85"/>
+      <c r="R118" s="82"/>
     </row>
     <row r="119" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L119" s="38"/>
-      <c r="M119" s="89">
+      <c r="M119" s="86">
         <v>86</v>
       </c>
       <c r="N119" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O119" s="36" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="P119" s="36" t="s">
         <v>20</v>
@@ -6772,18 +6944,18 @@
       <c r="Q119" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R119" s="85"/>
+      <c r="R119" s="82"/>
     </row>
     <row r="120" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L120" s="38"/>
-      <c r="M120" s="89">
+      <c r="M120" s="86">
         <v>113</v>
       </c>
       <c r="N120" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O120" s="36" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="P120" s="36" t="s">
         <v>25</v>
@@ -6791,18 +6963,18 @@
       <c r="Q120" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R120" s="85"/>
+      <c r="R120" s="82"/>
     </row>
     <row r="121" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L121" s="38"/>
-      <c r="M121" s="89">
+      <c r="M121" s="86">
         <v>114</v>
       </c>
       <c r="N121" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O121" s="36" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P121" s="36" t="s">
         <v>20</v>
@@ -6810,18 +6982,18 @@
       <c r="Q121" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R121" s="85"/>
+      <c r="R121" s="82"/>
     </row>
     <row r="122" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L122" s="38"/>
-      <c r="M122" s="89">
+      <c r="M122" s="86">
         <v>93</v>
       </c>
       <c r="N122" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O122" s="36" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="P122" s="36" t="s">
         <v>25</v>
@@ -6829,18 +7001,18 @@
       <c r="Q122" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R122" s="85"/>
+      <c r="R122" s="82"/>
     </row>
     <row r="123" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L123" s="38"/>
-      <c r="M123" s="89">
+      <c r="M123" s="86">
         <v>86</v>
       </c>
       <c r="N123" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O123" s="36" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="P123" s="36" t="s">
         <v>20</v>
@@ -6848,18 +7020,18 @@
       <c r="Q123" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R123" s="85"/>
+      <c r="R123" s="82"/>
     </row>
     <row r="124" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L124" s="38"/>
-      <c r="M124" s="89">
+      <c r="M124" s="86">
         <v>93</v>
       </c>
       <c r="N124" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O124" s="36" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="P124" s="36" t="s">
         <v>25</v>
@@ -6867,18 +7039,18 @@
       <c r="Q124" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R124" s="85"/>
+      <c r="R124" s="82"/>
     </row>
     <row r="125" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L125" s="38"/>
-      <c r="M125" s="89">
+      <c r="M125" s="86">
         <v>115</v>
       </c>
       <c r="N125" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O125" s="36" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="P125" s="36" t="s">
         <v>25</v>
@@ -6886,18 +7058,18 @@
       <c r="Q125" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R125" s="85"/>
+      <c r="R125" s="82"/>
     </row>
     <row r="126" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L126" s="38"/>
-      <c r="M126" s="89">
+      <c r="M126" s="86">
         <v>116</v>
       </c>
       <c r="N126" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O126" s="36" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P126" s="36" t="s">
         <v>20</v>
@@ -6905,18 +7077,18 @@
       <c r="Q126" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R126" s="85"/>
+      <c r="R126" s="82"/>
     </row>
     <row r="127" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L127" s="38"/>
-      <c r="M127" s="89">
+      <c r="M127" s="86">
         <v>93</v>
       </c>
       <c r="N127" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O127" s="36" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="P127" s="36" t="s">
         <v>25</v>
@@ -6924,18 +7096,18 @@
       <c r="Q127" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R127" s="85"/>
+      <c r="R127" s="82"/>
     </row>
     <row r="128" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L128" s="38"/>
-      <c r="M128" s="89">
+      <c r="M128" s="86">
         <v>86</v>
       </c>
       <c r="N128" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O128" s="36" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="P128" s="36" t="s">
         <v>20</v>
@@ -6943,18 +7115,18 @@
       <c r="Q128" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R128" s="85"/>
+      <c r="R128" s="82"/>
     </row>
     <row r="129" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L129" s="38"/>
-      <c r="M129" s="89">
+      <c r="M129" s="86">
         <v>93</v>
       </c>
       <c r="N129" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O129" s="36" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="P129" s="36" t="s">
         <v>25</v>
@@ -6962,18 +7134,18 @@
       <c r="Q129" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R129" s="85"/>
+      <c r="R129" s="82"/>
     </row>
     <row r="130" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L130" s="38"/>
-      <c r="M130" s="89">
+      <c r="M130" s="86">
         <v>86</v>
       </c>
       <c r="N130" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O130" s="36" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="P130" s="36" t="s">
         <v>20</v>
@@ -6981,18 +7153,18 @@
       <c r="Q130" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R130" s="85"/>
+      <c r="R130" s="82"/>
     </row>
     <row r="131" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L131" s="38"/>
-      <c r="M131" s="89">
+      <c r="M131" s="86">
         <v>93</v>
       </c>
       <c r="N131" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O131" s="36" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="P131" s="36" t="s">
         <v>25</v>
@@ -7000,18 +7172,18 @@
       <c r="Q131" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R131" s="85"/>
+      <c r="R131" s="82"/>
     </row>
     <row r="132" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L132" s="38"/>
-      <c r="M132" s="89">
+      <c r="M132" s="86">
         <v>86</v>
       </c>
       <c r="N132" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O132" s="36" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="P132" s="36" t="s">
         <v>20</v>
@@ -7019,18 +7191,18 @@
       <c r="Q132" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R132" s="85"/>
+      <c r="R132" s="82"/>
     </row>
     <row r="133" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L133" s="38"/>
-      <c r="M133" s="89">
+      <c r="M133" s="86">
         <v>93</v>
       </c>
       <c r="N133" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O133" s="36" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="P133" s="36" t="s">
         <v>25</v>
@@ -7038,18 +7210,18 @@
       <c r="Q133" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R133" s="85"/>
+      <c r="R133" s="82"/>
     </row>
     <row r="134" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L134" s="38"/>
-      <c r="M134" s="89">
+      <c r="M134" s="86">
         <v>86</v>
       </c>
       <c r="N134" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O134" s="36" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="P134" s="36" t="s">
         <v>20</v>
@@ -7057,37 +7229,37 @@
       <c r="Q134" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R134" s="85"/>
+      <c r="R134" s="82"/>
     </row>
     <row r="135" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L135" s="38"/>
-      <c r="M135" s="89">
+      <c r="M135" s="86">
         <v>93</v>
       </c>
       <c r="N135" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O135" s="36" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="P135" s="36" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q135" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R135" s="85"/>
+      <c r="R135" s="82"/>
     </row>
     <row r="136" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L136" s="38"/>
-      <c r="M136" s="89">
+      <c r="M136" s="86">
         <v>86</v>
       </c>
       <c r="N136" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O136" s="36" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="P136" s="36" t="s">
         <v>20</v>
@@ -7095,18 +7267,18 @@
       <c r="Q136" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R136" s="85"/>
+      <c r="R136" s="82"/>
     </row>
     <row r="137" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L137" s="38"/>
-      <c r="M137" s="89">
+      <c r="M137" s="86">
         <v>93</v>
       </c>
       <c r="N137" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O137" s="36" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="P137" s="36" t="s">
         <v>25</v>
@@ -7114,18 +7286,18 @@
       <c r="Q137" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R137" s="85"/>
+      <c r="R137" s="82"/>
     </row>
     <row r="138" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L138" s="38"/>
-      <c r="M138" s="89">
+      <c r="M138" s="86">
         <v>86</v>
       </c>
       <c r="N138" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O138" s="36" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="P138" s="36" t="s">
         <v>20</v>
@@ -7133,18 +7305,18 @@
       <c r="Q138" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R138" s="85"/>
+      <c r="R138" s="82"/>
     </row>
     <row r="139" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L139" s="38"/>
-      <c r="M139" s="89">
+      <c r="M139" s="86">
         <v>93</v>
       </c>
       <c r="N139" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O139" s="36" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P139" s="36" t="s">
         <v>25</v>
@@ -7152,18 +7324,18 @@
       <c r="Q139" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R139" s="85"/>
+      <c r="R139" s="82"/>
     </row>
     <row r="140" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L140" s="38"/>
-      <c r="M140" s="89">
+      <c r="M140" s="86">
         <v>86</v>
       </c>
       <c r="N140" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O140" s="36" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P140" s="36" t="s">
         <v>20</v>
@@ -7171,18 +7343,18 @@
       <c r="Q140" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R140" s="85"/>
+      <c r="R140" s="82"/>
     </row>
     <row r="141" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L141" s="38"/>
-      <c r="M141" s="89">
+      <c r="M141" s="86">
         <v>117</v>
       </c>
       <c r="N141" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O141" s="36" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P141" s="36" t="s">
         <v>25</v>
@@ -7190,18 +7362,18 @@
       <c r="Q141" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R141" s="85"/>
+      <c r="R141" s="82"/>
     </row>
     <row r="142" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L142" s="38"/>
-      <c r="M142" s="89">
+      <c r="M142" s="86">
         <v>118</v>
       </c>
       <c r="N142" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O142" s="36" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P142" s="36" t="s">
         <v>20</v>
@@ -7209,18 +7381,18 @@
       <c r="Q142" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R142" s="85"/>
+      <c r="R142" s="82"/>
     </row>
     <row r="143" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L143" s="38"/>
-      <c r="M143" s="89">
+      <c r="M143" s="86">
         <v>93</v>
       </c>
       <c r="N143" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O143" s="36" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="P143" s="36" t="s">
         <v>17</v>
@@ -7228,18 +7400,18 @@
       <c r="Q143" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R143" s="85"/>
+      <c r="R143" s="82"/>
     </row>
     <row r="144" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L144" s="38"/>
-      <c r="M144" s="89">
+      <c r="M144" s="86">
         <v>86</v>
       </c>
       <c r="N144" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O144" s="36" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P144" s="36" t="s">
         <v>20</v>
@@ -7247,18 +7419,18 @@
       <c r="Q144" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R144" s="85"/>
+      <c r="R144" s="82"/>
     </row>
     <row r="145" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L145" s="38"/>
-      <c r="M145" s="89">
+      <c r="M145" s="86">
         <v>93</v>
       </c>
       <c r="N145" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O145" s="36" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="P145" s="36" t="s">
         <v>26</v>
@@ -7266,18 +7438,18 @@
       <c r="Q145" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R145" s="85"/>
+      <c r="R145" s="82"/>
     </row>
     <row r="146" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L146" s="38"/>
-      <c r="M146" s="89">
+      <c r="M146" s="86">
         <v>86</v>
       </c>
       <c r="N146" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O146" s="36" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="P146" s="36" t="s">
         <v>20</v>
@@ -7285,18 +7457,18 @@
       <c r="Q146" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R146" s="85"/>
+      <c r="R146" s="82"/>
     </row>
     <row r="147" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L147" s="38"/>
-      <c r="M147" s="89">
+      <c r="M147" s="86">
         <v>86</v>
       </c>
       <c r="N147" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O147" s="36" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="P147" s="36" t="s">
         <v>20</v>
@@ -7304,18 +7476,18 @@
       <c r="Q147" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R147" s="85"/>
+      <c r="R147" s="82"/>
     </row>
     <row r="148" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L148" s="38"/>
-      <c r="M148" s="89">
+      <c r="M148" s="86">
         <v>93</v>
       </c>
       <c r="N148" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O148" s="36" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P148" s="36" t="s">
         <v>17</v>
@@ -7323,18 +7495,18 @@
       <c r="Q148" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R148" s="85"/>
+      <c r="R148" s="82"/>
     </row>
     <row r="149" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L149" s="38"/>
-      <c r="M149" s="89">
+      <c r="M149" s="86">
         <v>86</v>
       </c>
       <c r="N149" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O149" s="36" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="P149" s="36" t="s">
         <v>25</v>
@@ -7342,18 +7514,18 @@
       <c r="Q149" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R149" s="85"/>
+      <c r="R149" s="82"/>
     </row>
     <row r="150" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L150" s="38"/>
-      <c r="M150" s="89">
+      <c r="M150" s="86">
         <v>86</v>
       </c>
       <c r="N150" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O150" s="36" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="P150" s="36" t="s">
         <v>20</v>
@@ -7361,18 +7533,18 @@
       <c r="Q150" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R150" s="85"/>
+      <c r="R150" s="82"/>
     </row>
     <row r="151" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L151" s="38"/>
-      <c r="M151" s="89">
+      <c r="M151" s="86">
         <v>86</v>
       </c>
       <c r="N151" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O151" s="36" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="P151" s="36" t="s">
         <v>20</v>
@@ -7380,18 +7552,18 @@
       <c r="Q151" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R151" s="85"/>
+      <c r="R151" s="82"/>
     </row>
     <row r="152" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L152" s="38"/>
-      <c r="M152" s="89">
+      <c r="M152" s="86">
         <v>4</v>
       </c>
       <c r="N152" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O152" s="36" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P152" s="36" t="s">
         <v>17</v>
@@ -7399,37 +7571,37 @@
       <c r="Q152" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R152" s="85"/>
+      <c r="R152" s="82"/>
     </row>
     <row r="153" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L153" s="38"/>
-      <c r="M153" s="89">
+      <c r="M153" s="86">
         <v>3</v>
       </c>
       <c r="N153" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O153" s="36" t="s">
         <v>134</v>
       </c>
       <c r="P153" s="36" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Q153" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R153" s="85"/>
+      <c r="R153" s="82"/>
     </row>
     <row r="154" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L154" s="38"/>
-      <c r="M154" s="89">
+      <c r="M154" s="86">
         <v>8</v>
       </c>
       <c r="N154" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O154" s="36" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="P154" s="36" t="s">
         <v>20</v>
@@ -7437,265 +7609,265 @@
       <c r="Q154" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R154" s="85"/>
+      <c r="R154" s="82"/>
     </row>
     <row r="155" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L155" s="38"/>
-      <c r="M155" s="89">
+      <c r="M155" s="86">
         <v>86</v>
       </c>
       <c r="N155" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O155" s="36" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="P155" s="36" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="Q155" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R155" s="85"/>
+      <c r="R155" s="82"/>
     </row>
     <row r="156" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L156" s="38"/>
-      <c r="M156" s="89">
+      <c r="M156" s="86">
         <v>86</v>
       </c>
       <c r="N156" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O156" s="36" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="P156" s="36" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="Q156" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R156" s="85"/>
+      <c r="R156" s="82"/>
     </row>
     <row r="157" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L157" s="38"/>
-      <c r="M157" s="89">
+      <c r="M157" s="86">
         <v>30</v>
       </c>
       <c r="N157" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O157" s="36" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="P157" s="36" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="Q157" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R157" s="85"/>
+      <c r="R157" s="82"/>
     </row>
     <row r="158" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L158" s="38"/>
-      <c r="M158" s="89">
+      <c r="M158" s="86">
         <v>86</v>
       </c>
       <c r="N158" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O158" s="36" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="P158" s="36" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="Q158" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R158" s="85"/>
+      <c r="R158" s="82"/>
     </row>
     <row r="159" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L159" s="38"/>
-      <c r="M159" s="89">
+      <c r="M159" s="86">
         <v>29</v>
       </c>
       <c r="N159" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O159" s="36" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="P159" s="36" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="Q159" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R159" s="85"/>
+      <c r="R159" s="82"/>
     </row>
     <row r="160" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L160" s="38"/>
-      <c r="M160" s="89">
+      <c r="M160" s="86">
         <v>86</v>
       </c>
       <c r="N160" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O160" s="36" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="P160" s="36" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="Q160" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R160" s="85"/>
+      <c r="R160" s="82"/>
     </row>
     <row r="161" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L161" s="38"/>
-      <c r="M161" s="89">
+      <c r="M161" s="86">
         <v>86</v>
       </c>
       <c r="N161" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O161" s="36" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="P161" s="36" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Q161" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R161" s="85"/>
+      <c r="R161" s="82"/>
     </row>
     <row r="162" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L162" s="38"/>
-      <c r="M162" s="89">
+      <c r="M162" s="86">
         <v>86</v>
       </c>
       <c r="N162" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O162" s="36" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P162" s="36" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Q162" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R162" s="85"/>
+      <c r="R162" s="82"/>
     </row>
     <row r="163" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L163" s="38"/>
-      <c r="M163" s="89">
+      <c r="M163" s="86">
         <v>86</v>
       </c>
       <c r="N163" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O163" s="36" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="P163" s="36" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Q163" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R163" s="85"/>
+      <c r="R163" s="82"/>
     </row>
     <row r="164" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L164" s="38"/>
-      <c r="M164" s="89">
+      <c r="M164" s="86">
         <v>86</v>
       </c>
       <c r="N164" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O164" s="36" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="P164" s="36" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Q164" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R164" s="85"/>
+      <c r="R164" s="82"/>
     </row>
     <row r="165" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L165" s="38"/>
-      <c r="M165" s="89">
+      <c r="M165" s="86">
         <v>86</v>
       </c>
       <c r="N165" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O165" s="36" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="P165" s="36" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Q165" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R165" s="85"/>
+      <c r="R165" s="82"/>
     </row>
     <row r="166" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L166" s="38"/>
-      <c r="M166" s="89">
+      <c r="M166" s="86">
         <v>86</v>
       </c>
       <c r="N166" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O166" s="36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P166" s="36" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Q166" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R166" s="85"/>
+      <c r="R166" s="82"/>
     </row>
     <row r="167" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L167" s="38"/>
-      <c r="M167" s="89">
+      <c r="M167" s="86">
         <v>86</v>
       </c>
       <c r="N167" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O167" s="36" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="P167" s="36" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Q167" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R167" s="85"/>
+      <c r="R167" s="82"/>
     </row>
     <row r="168" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L168" s="38"/>
-      <c r="M168" s="89">
+      <c r="M168" s="86">
         <v>86</v>
       </c>
       <c r="N168" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O168" s="36" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="P168" s="36" t="s">
         <v>25</v>
@@ -7703,18 +7875,18 @@
       <c r="Q168" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R168" s="85"/>
+      <c r="R168" s="82"/>
     </row>
     <row r="169" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L169" s="38"/>
-      <c r="M169" s="89">
+      <c r="M169" s="86">
         <v>108</v>
       </c>
       <c r="N169" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O169" s="36" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P169" s="36" t="s">
         <v>17</v>
@@ -7722,18 +7894,18 @@
       <c r="Q169" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R169" s="85"/>
+      <c r="R169" s="82"/>
     </row>
     <row r="170" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L170" s="38"/>
-      <c r="M170" s="89">
+      <c r="M170" s="86">
         <v>86</v>
       </c>
       <c r="N170" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O170" s="36" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="P170" s="36" t="s">
         <v>17</v>
@@ -7741,18 +7913,18 @@
       <c r="Q170" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R170" s="85"/>
+      <c r="R170" s="82"/>
     </row>
     <row r="171" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L171" s="38"/>
-      <c r="M171" s="89">
+      <c r="M171" s="86">
         <v>119</v>
       </c>
       <c r="N171" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O171" s="36" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="P171" s="36" t="s">
         <v>17</v>
@@ -7760,18 +7932,18 @@
       <c r="Q171" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R171" s="85"/>
+      <c r="R171" s="82"/>
     </row>
     <row r="172" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L172" s="38"/>
-      <c r="M172" s="89">
+      <c r="M172" s="86">
         <v>86</v>
       </c>
       <c r="N172" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O172" s="36" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="P172" s="36" t="s">
         <v>20</v>
@@ -7779,18 +7951,18 @@
       <c r="Q172" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R172" s="85"/>
+      <c r="R172" s="82"/>
     </row>
     <row r="173" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L173" s="38"/>
-      <c r="M173" s="89">
+      <c r="M173" s="86">
         <v>35</v>
       </c>
       <c r="N173" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O173" s="36" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="P173" s="36" t="s">
         <v>17</v>
@@ -7798,18 +7970,18 @@
       <c r="Q173" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R173" s="85"/>
+      <c r="R173" s="82"/>
     </row>
     <row r="174" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L174" s="38"/>
-      <c r="M174" s="89">
+      <c r="M174" s="86">
         <v>93</v>
       </c>
       <c r="N174" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O174" s="36" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="P174" s="36" t="s">
         <v>17</v>
@@ -7817,18 +7989,18 @@
       <c r="Q174" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R174" s="85"/>
+      <c r="R174" s="82"/>
     </row>
     <row r="175" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L175" s="38"/>
-      <c r="M175" s="89">
+      <c r="M175" s="86">
         <v>86</v>
       </c>
       <c r="N175" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O175" s="36" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="P175" s="36" t="s">
         <v>25</v>
@@ -7836,18 +8008,18 @@
       <c r="Q175" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R175" s="85"/>
+      <c r="R175" s="82"/>
     </row>
     <row r="176" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L176" s="38"/>
-      <c r="M176" s="89">
+      <c r="M176" s="86">
         <v>41</v>
       </c>
       <c r="N176" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O176" s="36" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="P176" s="36" t="s">
         <v>17</v>
@@ -7855,18 +8027,18 @@
       <c r="Q176" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R176" s="85"/>
+      <c r="R176" s="82"/>
     </row>
     <row r="177" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L177" s="38"/>
-      <c r="M177" s="89">
+      <c r="M177" s="86">
         <v>93</v>
       </c>
       <c r="N177" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O177" s="36" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="P177" s="36" t="s">
         <v>17</v>
@@ -7874,18 +8046,18 @@
       <c r="Q177" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R177" s="85"/>
+      <c r="R177" s="82"/>
     </row>
     <row r="178" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L178" s="38"/>
-      <c r="M178" s="89">
+      <c r="M178" s="86">
         <v>120</v>
       </c>
       <c r="N178" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O178" s="36" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P178" s="36" t="s">
         <v>17</v>
@@ -7893,18 +8065,18 @@
       <c r="Q178" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R178" s="85"/>
+      <c r="R178" s="82"/>
     </row>
     <row r="179" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L179" s="38"/>
-      <c r="M179" s="89">
+      <c r="M179" s="86">
         <v>121</v>
       </c>
       <c r="N179" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O179" s="36" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="P179" s="36" t="s">
         <v>17</v>
@@ -7912,18 +8084,18 @@
       <c r="Q179" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R179" s="85"/>
+      <c r="R179" s="82"/>
     </row>
     <row r="180" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L180" s="38"/>
-      <c r="M180" s="89">
+      <c r="M180" s="86">
         <v>93</v>
       </c>
       <c r="N180" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O180" s="36" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="P180" s="36" t="s">
         <v>17</v>
@@ -7931,18 +8103,18 @@
       <c r="Q180" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R180" s="85"/>
+      <c r="R180" s="82"/>
     </row>
     <row r="181" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L181" s="38"/>
-      <c r="M181" s="89">
+      <c r="M181" s="86">
         <v>86</v>
       </c>
       <c r="N181" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O181" s="36" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="P181" s="36" t="s">
         <v>25</v>
@@ -7950,18 +8122,18 @@
       <c r="Q181" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R181" s="85"/>
+      <c r="R181" s="82"/>
     </row>
     <row r="182" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L182" s="38"/>
-      <c r="M182" s="89">
+      <c r="M182" s="86">
         <v>93</v>
       </c>
       <c r="N182" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O182" s="36" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="P182" s="36" t="s">
         <v>17</v>
@@ -7969,18 +8141,18 @@
       <c r="Q182" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R182" s="85"/>
+      <c r="R182" s="82"/>
     </row>
     <row r="183" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L183" s="38"/>
-      <c r="M183" s="89">
+      <c r="M183" s="86">
         <v>86</v>
       </c>
       <c r="N183" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O183" s="36" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="P183" s="36" t="s">
         <v>17</v>
@@ -7988,18 +8160,18 @@
       <c r="Q183" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R183" s="85"/>
+      <c r="R183" s="82"/>
     </row>
     <row r="184" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L184" s="38"/>
-      <c r="M184" s="89">
+      <c r="M184" s="86">
         <v>86</v>
       </c>
       <c r="N184" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O184" s="36" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="P184" s="36" t="s">
         <v>17</v>
@@ -8007,18 +8179,18 @@
       <c r="Q184" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R184" s="85"/>
+      <c r="R184" s="82"/>
     </row>
     <row r="185" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L185" s="38"/>
-      <c r="M185" s="89">
+      <c r="M185" s="86">
         <v>86</v>
       </c>
       <c r="N185" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O185" s="36" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="P185" s="36" t="s">
         <v>25</v>
@@ -8026,37 +8198,37 @@
       <c r="Q185" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R185" s="85"/>
+      <c r="R185" s="82"/>
     </row>
     <row r="186" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L186" s="38"/>
-      <c r="M186" s="89">
+      <c r="M186" s="86">
         <v>86</v>
       </c>
       <c r="N186" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O186" s="36" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="P186" s="36" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="Q186" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R186" s="85"/>
+      <c r="R186" s="82"/>
     </row>
     <row r="187" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L187" s="38"/>
-      <c r="M187" s="89">
+      <c r="M187" s="86">
         <v>86</v>
       </c>
       <c r="N187" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O187" s="36" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="P187" s="36" t="s">
         <v>25</v>
@@ -8064,650 +8236,650 @@
       <c r="Q187" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R187" s="85"/>
+      <c r="R187" s="82"/>
     </row>
     <row r="188" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L188" s="38"/>
-      <c r="M188" s="89">
+      <c r="M188" s="86">
         <v>86</v>
       </c>
       <c r="N188" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O188" s="36" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="P188" s="36" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="Q188" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R188" s="85"/>
+      <c r="R188" s="82"/>
     </row>
     <row r="189" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L189" s="38"/>
-      <c r="M189" s="91">
-        <v>86</v>
-      </c>
-      <c r="N189" s="83" t="s">
-        <v>363</v>
-      </c>
-      <c r="O189" s="83" t="s">
-        <v>379</v>
-      </c>
-      <c r="P189" s="83" t="s">
+      <c r="M189" s="88">
+        <v>86</v>
+      </c>
+      <c r="N189" s="80" t="s">
+        <v>361</v>
+      </c>
+      <c r="O189" s="80" t="s">
+        <v>377</v>
+      </c>
+      <c r="P189" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="Q189" s="83" t="s">
-        <v>21</v>
-      </c>
-      <c r="R189" s="86"/>
+      <c r="Q189" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="R189" s="83"/>
     </row>
     <row r="190" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L190" s="81"/>
-      <c r="M190" s="88">
+      <c r="L190" s="78"/>
+      <c r="M190" s="85">
         <v>109</v>
       </c>
-      <c r="N190" s="55" t="s">
+      <c r="N190" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="O190" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="P190" s="51" t="s">
         <v>262</v>
       </c>
-      <c r="O190" s="53" t="s">
-        <v>263</v>
-      </c>
-      <c r="P190" s="53" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q190" s="53" t="s">
+      <c r="Q190" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="R190" s="87"/>
+      <c r="R190" s="84"/>
     </row>
     <row r="191" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L191" s="38"/>
-      <c r="M191" s="89">
+      <c r="M191" s="86">
         <v>122</v>
       </c>
-      <c r="N191" s="51" t="s">
-        <v>262</v>
+      <c r="N191" s="49" t="s">
+        <v>260</v>
       </c>
       <c r="O191" s="36" t="s">
-        <v>265</v>
-      </c>
-      <c r="P191" s="51" t="s">
+        <v>263</v>
+      </c>
+      <c r="P191" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="Q191" s="51" t="s">
+      <c r="Q191" s="49" t="s">
         <v>18</v>
       </c>
       <c r="R191" s="33"/>
     </row>
     <row r="192" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L192" s="38"/>
-      <c r="M192" s="89">
+      <c r="M192" s="86">
         <v>93</v>
       </c>
-      <c r="N192" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="O192" s="51" t="s">
-        <v>266</v>
-      </c>
-      <c r="P192" s="51" t="s">
+      <c r="N192" s="49" t="s">
+        <v>260</v>
+      </c>
+      <c r="O192" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="P192" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="Q192" s="51" t="s">
+      <c r="Q192" s="49" t="s">
         <v>18</v>
       </c>
       <c r="R192" s="33"/>
     </row>
     <row r="193" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L193" s="38"/>
-      <c r="M193" s="89">
+      <c r="M193" s="86">
         <v>87</v>
       </c>
-      <c r="N193" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="O193" s="51" t="s">
-        <v>267</v>
-      </c>
-      <c r="P193" s="51" t="s">
+      <c r="N193" s="49" t="s">
+        <v>260</v>
+      </c>
+      <c r="O193" s="49" t="s">
+        <v>265</v>
+      </c>
+      <c r="P193" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="Q193" s="51" t="s">
+      <c r="Q193" s="49" t="s">
         <v>18</v>
       </c>
       <c r="R193" s="33"/>
     </row>
     <row r="194" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L194" s="38"/>
-      <c r="M194" s="89">
+      <c r="M194" s="86">
         <v>92</v>
       </c>
-      <c r="N194" s="51" t="s">
-        <v>262</v>
+      <c r="N194" s="49" t="s">
+        <v>260</v>
       </c>
       <c r="O194" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="P194" s="51" t="s">
+      <c r="P194" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="Q194" s="51" t="s">
+      <c r="Q194" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R194" s="33"/>
     </row>
     <row r="195" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L195" s="38"/>
-      <c r="M195" s="89">
+      <c r="M195" s="86">
         <v>88</v>
       </c>
-      <c r="N195" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="O195" s="51" t="s">
+      <c r="N195" s="49" t="s">
+        <v>260</v>
+      </c>
+      <c r="O195" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="P195" s="51" t="s">
+      <c r="P195" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="Q195" s="51" t="s">
+      <c r="Q195" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R195" s="33"/>
     </row>
     <row r="196" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L196" s="38"/>
-      <c r="M196" s="89">
+      <c r="M196" s="86">
         <v>87</v>
       </c>
-      <c r="N196" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="O196" s="51" t="s">
+      <c r="N196" s="49" t="s">
+        <v>260</v>
+      </c>
+      <c r="O196" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="P196" s="51" t="s">
+      <c r="P196" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="Q196" s="51" t="s">
+      <c r="Q196" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R196" s="33"/>
     </row>
     <row r="197" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L197" s="38"/>
-      <c r="M197" s="89">
+      <c r="M197" s="86">
         <v>93</v>
       </c>
-      <c r="N197" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="O197" s="51" t="s">
-        <v>268</v>
-      </c>
-      <c r="P197" s="51" t="s">
+      <c r="N197" s="49" t="s">
+        <v>260</v>
+      </c>
+      <c r="O197" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="P197" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="Q197" s="51" t="s">
+      <c r="Q197" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R197" s="33"/>
     </row>
     <row r="198" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L198" s="38"/>
-      <c r="M198" s="89">
+      <c r="M198" s="86">
         <v>122</v>
       </c>
       <c r="N198" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="O198" s="54" t="s">
-        <v>269</v>
-      </c>
-      <c r="P198" s="51" t="s">
+        <v>260</v>
+      </c>
+      <c r="O198" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="P198" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="Q198" s="51" t="s">
+      <c r="Q198" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R198" s="33"/>
     </row>
     <row r="199" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L199" s="38"/>
-      <c r="M199" s="89">
+      <c r="M199" s="86">
         <v>93</v>
       </c>
-      <c r="N199" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="O199" s="54" t="s">
-        <v>270</v>
-      </c>
-      <c r="P199" s="51" t="s">
+      <c r="N199" s="49" t="s">
+        <v>260</v>
+      </c>
+      <c r="O199" s="52" t="s">
+        <v>268</v>
+      </c>
+      <c r="P199" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="Q199" s="51" t="s">
+      <c r="Q199" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R199" s="33"/>
     </row>
     <row r="200" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L200" s="38"/>
-      <c r="M200" s="89">
+      <c r="M200" s="86">
         <v>96</v>
       </c>
-      <c r="N200" s="51" t="s">
-        <v>262</v>
+      <c r="N200" s="49" t="s">
+        <v>260</v>
       </c>
       <c r="O200" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="P200" s="51" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q200" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="P200" s="49" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q200" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R200" s="33"/>
     </row>
     <row r="201" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L201" s="38"/>
-      <c r="M201" s="94">
-        <v>86</v>
-      </c>
-      <c r="N201" s="59" t="s">
-        <v>262</v>
-      </c>
-      <c r="O201" s="59" t="s">
+      <c r="M201" s="91">
+        <v>86</v>
+      </c>
+      <c r="N201" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="O201" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="P201" s="59" t="s">
+      <c r="P201" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="Q201" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="R201" s="66"/>
+      <c r="Q201" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="R201" s="63"/>
     </row>
     <row r="202" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L202" s="38"/>
-      <c r="M202" s="89">
-        <v>86</v>
-      </c>
-      <c r="N202" s="51" t="s">
-        <v>262</v>
+      <c r="M202" s="86">
+        <v>86</v>
+      </c>
+      <c r="N202" s="49" t="s">
+        <v>260</v>
       </c>
       <c r="O202" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="P202" s="51" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q202" s="51" t="s">
+        <v>271</v>
+      </c>
+      <c r="P202" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q202" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R202" s="33"/>
     </row>
     <row r="203" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L203" s="38"/>
-      <c r="M203" s="89">
-        <v>86</v>
-      </c>
-      <c r="N203" s="51" t="s">
-        <v>262</v>
+      <c r="M203" s="86">
+        <v>86</v>
+      </c>
+      <c r="N203" s="49" t="s">
+        <v>260</v>
       </c>
       <c r="O203" s="36" t="s">
-        <v>275</v>
-      </c>
-      <c r="P203" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="P203" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="Q203" s="51" t="s">
+      <c r="Q203" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R203" s="33"/>
     </row>
     <row r="204" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L204" s="38"/>
-      <c r="M204" s="89">
+      <c r="M204" s="86">
         <v>41</v>
       </c>
-      <c r="N204" s="51" t="s">
-        <v>262</v>
+      <c r="N204" s="49" t="s">
+        <v>260</v>
       </c>
       <c r="O204" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="P204" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="P204" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="Q204" s="51" t="s">
+      <c r="Q204" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R204" s="33"/>
     </row>
     <row r="205" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L205" s="38"/>
-      <c r="M205" s="89">
-        <v>86</v>
-      </c>
-      <c r="N205" s="51" t="s">
-        <v>262</v>
+      <c r="M205" s="86">
+        <v>86</v>
+      </c>
+      <c r="N205" s="49" t="s">
+        <v>260</v>
       </c>
       <c r="O205" s="36" t="s">
-        <v>409</v>
-      </c>
-      <c r="P205" s="51" t="s">
+        <v>407</v>
+      </c>
+      <c r="P205" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="Q205" s="51" t="s">
+      <c r="Q205" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R205" s="33"/>
     </row>
     <row r="206" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L206" s="38"/>
-      <c r="M206" s="89">
+      <c r="M206" s="86">
         <v>123</v>
       </c>
-      <c r="N206" s="51" t="s">
-        <v>262</v>
+      <c r="N206" s="49" t="s">
+        <v>260</v>
       </c>
       <c r="O206" s="36" t="s">
-        <v>277</v>
-      </c>
-      <c r="P206" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="P206" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="Q206" s="51" t="s">
+      <c r="Q206" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R206" s="33"/>
     </row>
     <row r="207" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L207" s="38"/>
-      <c r="M207" s="89">
-        <v>86</v>
-      </c>
-      <c r="N207" s="51" t="s">
-        <v>262</v>
+      <c r="M207" s="86">
+        <v>86</v>
+      </c>
+      <c r="N207" s="49" t="s">
+        <v>260</v>
       </c>
       <c r="O207" s="36" t="s">
-        <v>278</v>
-      </c>
-      <c r="P207" s="51" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q207" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="P207" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q207" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R207" s="33"/>
     </row>
     <row r="208" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L208" s="38"/>
-      <c r="M208" s="89">
+      <c r="M208" s="86">
         <v>124</v>
       </c>
-      <c r="N208" s="51" t="s">
-        <v>262</v>
+      <c r="N208" s="49" t="s">
+        <v>260</v>
       </c>
       <c r="O208" s="36" t="s">
-        <v>279</v>
-      </c>
-      <c r="P208" s="51" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q208" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="P208" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q208" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R208" s="33"/>
     </row>
     <row r="209" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L209" s="38"/>
-      <c r="M209" s="89">
-        <v>86</v>
-      </c>
-      <c r="N209" s="51" t="s">
-        <v>262</v>
+      <c r="M209" s="86">
+        <v>86</v>
+      </c>
+      <c r="N209" s="49" t="s">
+        <v>260</v>
       </c>
       <c r="O209" s="36" t="s">
-        <v>280</v>
-      </c>
-      <c r="P209" s="51" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q209" s="51" t="s">
+        <v>278</v>
+      </c>
+      <c r="P209" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q209" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R209" s="33"/>
     </row>
     <row r="210" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L210" s="38"/>
-      <c r="M210" s="89">
-        <v>86</v>
-      </c>
-      <c r="N210" s="51" t="s">
-        <v>262</v>
+      <c r="M210" s="86">
+        <v>86</v>
+      </c>
+      <c r="N210" s="49" t="s">
+        <v>260</v>
       </c>
       <c r="O210" s="36" t="s">
-        <v>281</v>
-      </c>
-      <c r="P210" s="51" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q210" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="P210" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q210" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R210" s="33"/>
     </row>
     <row r="211" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L211" s="38"/>
-      <c r="M211" s="89">
-        <v>86</v>
-      </c>
-      <c r="N211" s="51" t="s">
-        <v>262</v>
+      <c r="M211" s="86">
+        <v>86</v>
+      </c>
+      <c r="N211" s="49" t="s">
+        <v>260</v>
       </c>
       <c r="O211" s="36" t="s">
-        <v>282</v>
-      </c>
-      <c r="P211" s="51" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q211" s="51" t="s">
+        <v>280</v>
+      </c>
+      <c r="P211" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q211" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R211" s="33"/>
     </row>
     <row r="212" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L212" s="38"/>
-      <c r="M212" s="89">
-        <v>86</v>
-      </c>
-      <c r="N212" s="51" t="s">
-        <v>262</v>
+      <c r="M212" s="86">
+        <v>86</v>
+      </c>
+      <c r="N212" s="49" t="s">
+        <v>260</v>
       </c>
       <c r="O212" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="P212" s="51" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q212" s="51" t="s">
+        <v>281</v>
+      </c>
+      <c r="P212" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q212" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R212" s="33"/>
     </row>
     <row r="213" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L213" s="38"/>
-      <c r="M213" s="89">
-        <v>86</v>
-      </c>
-      <c r="N213" s="51" t="s">
-        <v>262</v>
+      <c r="M213" s="86">
+        <v>86</v>
+      </c>
+      <c r="N213" s="49" t="s">
+        <v>260</v>
       </c>
       <c r="O213" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="P213" s="51" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q213" s="51" t="s">
+        <v>282</v>
+      </c>
+      <c r="P213" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q213" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R213" s="33"/>
     </row>
     <row r="214" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L214" s="38"/>
-      <c r="M214" s="89">
-        <v>86</v>
-      </c>
-      <c r="N214" s="51" t="s">
-        <v>262</v>
+      <c r="M214" s="86">
+        <v>86</v>
+      </c>
+      <c r="N214" s="49" t="s">
+        <v>260</v>
       </c>
       <c r="O214" s="36" t="s">
-        <v>285</v>
-      </c>
-      <c r="P214" s="51" t="s">
+        <v>283</v>
+      </c>
+      <c r="P214" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="Q214" s="51" t="s">
+      <c r="Q214" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R214" s="33"/>
     </row>
     <row r="215" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L215" s="38"/>
-      <c r="M215" s="89">
-        <v>86</v>
-      </c>
-      <c r="N215" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="O215" s="51" t="s">
-        <v>286</v>
-      </c>
-      <c r="P215" s="51" t="s">
+      <c r="M215" s="86">
+        <v>86</v>
+      </c>
+      <c r="N215" s="49" t="s">
+        <v>260</v>
+      </c>
+      <c r="O215" s="49" t="s">
+        <v>284</v>
+      </c>
+      <c r="P215" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="Q215" s="51" t="s">
+      <c r="Q215" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R215" s="33"/>
     </row>
     <row r="216" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L216" s="38"/>
-      <c r="M216" s="89">
-        <v>86</v>
-      </c>
-      <c r="N216" s="51" t="s">
-        <v>262</v>
+      <c r="M216" s="86">
+        <v>86</v>
+      </c>
+      <c r="N216" s="49" t="s">
+        <v>260</v>
       </c>
       <c r="O216" s="30" t="s">
-        <v>380</v>
-      </c>
-      <c r="P216" s="92" t="s">
+        <v>378</v>
+      </c>
+      <c r="P216" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="Q216" s="51" t="s">
+      <c r="Q216" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R216" s="33"/>
     </row>
     <row r="217" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L217" s="38"/>
-      <c r="M217" s="89">
-        <v>86</v>
-      </c>
-      <c r="N217" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="O217" s="92" t="s">
-        <v>381</v>
-      </c>
-      <c r="P217" s="92" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q217" s="51" t="s">
+      <c r="M217" s="86">
+        <v>86</v>
+      </c>
+      <c r="N217" s="49" t="s">
+        <v>260</v>
+      </c>
+      <c r="O217" s="89" t="s">
+        <v>379</v>
+      </c>
+      <c r="P217" s="89" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q217" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R217" s="33"/>
     </row>
     <row r="218" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L218" s="38"/>
-      <c r="M218" s="89">
-        <v>86</v>
-      </c>
-      <c r="N218" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="O218" s="92" t="s">
-        <v>382</v>
-      </c>
-      <c r="P218" s="92" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q218" s="51" t="s">
+      <c r="M218" s="86">
+        <v>86</v>
+      </c>
+      <c r="N218" s="49" t="s">
+        <v>260</v>
+      </c>
+      <c r="O218" s="89" t="s">
+        <v>380</v>
+      </c>
+      <c r="P218" s="89" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q218" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R218" s="33"/>
     </row>
     <row r="219" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L219" s="38"/>
-      <c r="M219" s="89">
-        <v>86</v>
-      </c>
-      <c r="N219" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="O219" s="92" t="s">
-        <v>410</v>
-      </c>
-      <c r="P219" s="92" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q219" s="51" t="s">
+      <c r="M219" s="86">
+        <v>86</v>
+      </c>
+      <c r="N219" s="49" t="s">
+        <v>260</v>
+      </c>
+      <c r="O219" s="89" t="s">
+        <v>408</v>
+      </c>
+      <c r="P219" s="89" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q219" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R219" s="33"/>
     </row>
     <row r="220" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L220" s="38"/>
-      <c r="M220" s="89">
-        <v>86</v>
-      </c>
-      <c r="N220" s="51" t="s">
-        <v>262</v>
+      <c r="M220" s="86">
+        <v>86</v>
+      </c>
+      <c r="N220" s="49" t="s">
+        <v>260</v>
       </c>
       <c r="O220" s="30" t="s">
-        <v>411</v>
-      </c>
-      <c r="P220" s="92" t="s">
+        <v>409</v>
+      </c>
+      <c r="P220" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="Q220" s="51" t="s">
+      <c r="Q220" s="49" t="s">
         <v>21</v>
       </c>
       <c r="R220" s="33"/>
     </row>
     <row r="221" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L221" s="39"/>
-      <c r="M221" s="90">
-        <v>86</v>
-      </c>
-      <c r="N221" s="68" t="s">
-        <v>262</v>
-      </c>
-      <c r="O221" s="117" t="s">
-        <v>412</v>
-      </c>
-      <c r="P221" s="93" t="s">
+      <c r="M221" s="87">
+        <v>86</v>
+      </c>
+      <c r="N221" s="65" t="s">
+        <v>260</v>
+      </c>
+      <c r="O221" s="95" t="s">
+        <v>410</v>
+      </c>
+      <c r="P221" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="Q221" s="68" t="s">
+      <c r="Q221" s="65" t="s">
         <v>21</v>
       </c>
       <c r="R221" s="34"/>

--- a/Leasing/Mapeos_INV_Leasing_V1.xlsx
+++ b/Leasing/Mapeos_INV_Leasing_V1.xlsx
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="431">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -1483,6 +1483,18 @@
   </si>
   <si>
     <t>VARCHAR2(38)</t>
+  </si>
+  <si>
+    <t>Asignar parametro Fecha Proceso</t>
+  </si>
+  <si>
+    <t>Poner aquí: Fecha_Proceso (Variable de ambiente)</t>
+  </si>
+  <si>
+    <t>Asignar parametro Fecha Default</t>
+  </si>
+  <si>
+    <t>Poner aquí: Fecha_Default (Variable de ambiente)</t>
   </si>
 </sst>
 </file>
@@ -2613,6 +2625,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2670,11 +2687,6 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="131">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -3198,7 +3210,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3209,8 +3221,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:R221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="J84" sqref="J84"/>
+    <sheetView tabSelected="1" topLeftCell="F37" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3247,26 +3259,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="28"/>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="105"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="110"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="112" t="s">
+      <c r="H2" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="113"/>
-      <c r="J2" s="114"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="119"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="31" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="32"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="111"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="116"/>
       <c r="G3" s="10"/>
       <c r="H3" s="47"/>
       <c r="I3" s="26" t="s">
@@ -3279,11 +3291,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="107"/>
-      <c r="F4" s="108"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="113"/>
       <c r="G4" s="7"/>
       <c r="H4" s="48"/>
       <c r="I4" s="42" t="s">
@@ -3296,11 +3308,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="106" t="s">
+      <c r="D5" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="107"/>
-      <c r="F5" s="108"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="113"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3312,29 +3324,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="98" t="s">
+      <c r="I7" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="99"/>
-      <c r="K7" s="100"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="105"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="96" t="s">
+      <c r="M7" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="97"/>
-      <c r="R7" s="97"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -3392,13 +3404,13 @@
       <c r="C9" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="118" t="s">
+      <c r="D9" s="99" t="s">
         <v>411</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="41"/>
       <c r="G9" s="67"/>
-      <c r="H9" s="115"/>
+      <c r="H9" s="96"/>
       <c r="I9" s="77">
         <v>85</v>
       </c>
@@ -3435,7 +3447,7 @@
       <c r="C10" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="117" t="s">
+      <c r="D10" s="98" t="s">
         <v>412</v>
       </c>
       <c r="E10" s="37">
@@ -3443,7 +3455,7 @@
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="68"/>
-      <c r="H10" s="115"/>
+      <c r="H10" s="96"/>
       <c r="I10" s="61">
         <v>86</v>
       </c>
@@ -3478,7 +3490,7 @@
       <c r="C11" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="117" t="s">
+      <c r="D11" s="98" t="s">
         <v>413</v>
       </c>
       <c r="E11" s="37">
@@ -3486,7 +3498,7 @@
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="68"/>
-      <c r="H11" s="115"/>
+      <c r="H11" s="96"/>
       <c r="I11" s="61">
         <v>87</v>
       </c>
@@ -3521,13 +3533,13 @@
       <c r="C12" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="117" t="s">
+      <c r="D12" s="98" t="s">
         <v>411</v>
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="18"/>
       <c r="G12" s="68"/>
-      <c r="H12" s="115"/>
+      <c r="H12" s="96"/>
       <c r="I12" s="61">
         <v>88</v>
       </c>
@@ -3562,13 +3574,13 @@
       <c r="C13" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="117" t="s">
+      <c r="D13" s="98" t="s">
         <v>411</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="44"/>
       <c r="G13" s="69"/>
-      <c r="H13" s="115"/>
+      <c r="H13" s="96"/>
       <c r="I13" s="61">
         <v>90</v>
       </c>
@@ -3603,13 +3615,13 @@
       <c r="C14" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="117" t="s">
+      <c r="D14" s="98" t="s">
         <v>414</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="44"/>
       <c r="G14" s="69"/>
-      <c r="H14" s="115"/>
+      <c r="H14" s="96"/>
       <c r="I14" s="61">
         <v>91</v>
       </c>
@@ -3644,13 +3656,13 @@
       <c r="C15" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="117" t="s">
+      <c r="D15" s="98" t="s">
         <v>411</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="44"/>
       <c r="G15" s="69"/>
-      <c r="H15" s="115"/>
+      <c r="H15" s="96"/>
       <c r="I15" s="61">
         <v>92</v>
       </c>
@@ -3685,13 +3697,13 @@
       <c r="C16" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="117" t="s">
+      <c r="D16" s="98" t="s">
         <v>415</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="44"/>
       <c r="G16" s="69"/>
-      <c r="H16" s="115"/>
+      <c r="H16" s="96"/>
       <c r="I16" s="61">
         <v>93</v>
       </c>
@@ -3726,13 +3738,13 @@
       <c r="C17" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="117" t="s">
+      <c r="D17" s="98" t="s">
         <v>412</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="44"/>
       <c r="G17" s="69"/>
-      <c r="H17" s="115"/>
+      <c r="H17" s="96"/>
       <c r="I17" s="61">
         <v>94</v>
       </c>
@@ -3767,13 +3779,13 @@
       <c r="C18" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="117" t="s">
+      <c r="D18" s="98" t="s">
         <v>416</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="44"/>
       <c r="G18" s="69"/>
-      <c r="H18" s="115"/>
+      <c r="H18" s="96"/>
       <c r="I18" s="61">
         <v>95</v>
       </c>
@@ -3808,13 +3820,13 @@
       <c r="C19" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="117" t="s">
+      <c r="D19" s="98" t="s">
         <v>412</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="44"/>
       <c r="G19" s="69"/>
-      <c r="H19" s="115"/>
+      <c r="H19" s="96"/>
       <c r="I19" s="61">
         <v>96</v>
       </c>
@@ -3849,13 +3861,13 @@
       <c r="C20" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="117" t="s">
+      <c r="D20" s="98" t="s">
         <v>411</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="44"/>
       <c r="G20" s="69"/>
-      <c r="H20" s="115"/>
+      <c r="H20" s="96"/>
       <c r="I20" s="61">
         <v>97</v>
       </c>
@@ -3890,13 +3902,13 @@
       <c r="C21" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="117" t="s">
+      <c r="D21" s="98" t="s">
         <v>411</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="44"/>
       <c r="G21" s="69"/>
-      <c r="H21" s="115"/>
+      <c r="H21" s="96"/>
       <c r="I21" s="61">
         <v>98</v>
       </c>
@@ -3931,7 +3943,7 @@
       <c r="C22" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="117" t="s">
+      <c r="D22" s="98" t="s">
         <v>417</v>
       </c>
       <c r="E22" s="26">
@@ -3939,7 +3951,7 @@
       </c>
       <c r="F22" s="44"/>
       <c r="G22" s="69"/>
-      <c r="H22" s="115"/>
+      <c r="H22" s="96"/>
       <c r="I22" s="61">
         <v>99</v>
       </c>
@@ -3974,13 +3986,13 @@
       <c r="C23" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="117" t="s">
+      <c r="D23" s="98" t="s">
         <v>418</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="44"/>
       <c r="G23" s="69"/>
-      <c r="H23" s="115"/>
+      <c r="H23" s="96"/>
       <c r="I23" s="61">
         <v>100</v>
       </c>
@@ -4015,7 +4027,7 @@
       <c r="C24" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="117" t="s">
+      <c r="D24" s="98" t="s">
         <v>417</v>
       </c>
       <c r="E24" s="26">
@@ -4023,7 +4035,7 @@
       </c>
       <c r="F24" s="44"/>
       <c r="G24" s="69"/>
-      <c r="H24" s="115"/>
+      <c r="H24" s="96"/>
       <c r="I24" s="61">
         <v>101</v>
       </c>
@@ -4058,13 +4070,13 @@
       <c r="C25" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="117" t="s">
+      <c r="D25" s="98" t="s">
         <v>419</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="44"/>
       <c r="G25" s="69"/>
-      <c r="H25" s="115"/>
+      <c r="H25" s="96"/>
       <c r="I25" s="61">
         <v>102</v>
       </c>
@@ -4099,13 +4111,13 @@
       <c r="C26" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="117" t="s">
+      <c r="D26" s="98" t="s">
         <v>419</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="44"/>
       <c r="G26" s="69"/>
-      <c r="H26" s="115"/>
+      <c r="H26" s="96"/>
       <c r="I26" s="61">
         <v>103</v>
       </c>
@@ -4140,13 +4152,13 @@
       <c r="C27" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="117" t="s">
+      <c r="D27" s="98" t="s">
         <v>415</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="44"/>
       <c r="G27" s="69"/>
-      <c r="H27" s="115"/>
+      <c r="H27" s="96"/>
       <c r="I27" s="61">
         <v>104</v>
       </c>
@@ -4181,13 +4193,13 @@
       <c r="C28" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="117" t="s">
+      <c r="D28" s="98" t="s">
         <v>415</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="44"/>
       <c r="G28" s="69"/>
-      <c r="H28" s="115"/>
+      <c r="H28" s="96"/>
       <c r="I28" s="61">
         <v>105</v>
       </c>
@@ -4222,13 +4234,13 @@
       <c r="C29" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="117" t="s">
+      <c r="D29" s="98" t="s">
         <v>411</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="44"/>
       <c r="G29" s="69"/>
-      <c r="H29" s="115"/>
+      <c r="H29" s="96"/>
       <c r="I29" s="61">
         <v>106</v>
       </c>
@@ -4263,13 +4275,13 @@
       <c r="C30" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="117" t="s">
+      <c r="D30" s="98" t="s">
         <v>415</v>
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="44"/>
       <c r="G30" s="69"/>
-      <c r="H30" s="115"/>
+      <c r="H30" s="96"/>
       <c r="I30" s="61">
         <v>107</v>
       </c>
@@ -4304,13 +4316,13 @@
       <c r="C31" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="117" t="s">
+      <c r="D31" s="98" t="s">
         <v>411</v>
       </c>
       <c r="E31" s="26"/>
       <c r="F31" s="44"/>
       <c r="G31" s="69"/>
-      <c r="H31" s="115"/>
+      <c r="H31" s="96"/>
       <c r="I31" s="61">
         <v>108</v>
       </c>
@@ -4345,13 +4357,13 @@
       <c r="C32" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="117" t="s">
+      <c r="D32" s="98" t="s">
         <v>411</v>
       </c>
       <c r="E32" s="26"/>
       <c r="F32" s="44"/>
       <c r="G32" s="69"/>
-      <c r="H32" s="115"/>
+      <c r="H32" s="96"/>
       <c r="I32" s="61">
         <v>109</v>
       </c>
@@ -4386,13 +4398,13 @@
       <c r="C33" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="117" t="s">
+      <c r="D33" s="98" t="s">
         <v>418</v>
       </c>
       <c r="E33" s="26"/>
       <c r="F33" s="44"/>
       <c r="G33" s="69"/>
-      <c r="H33" s="115"/>
+      <c r="H33" s="96"/>
       <c r="I33" s="61">
         <v>110</v>
       </c>
@@ -4427,13 +4439,13 @@
       <c r="C34" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="117" t="s">
+      <c r="D34" s="98" t="s">
         <v>411</v>
       </c>
       <c r="E34" s="26"/>
       <c r="F34" s="44"/>
       <c r="G34" s="69"/>
-      <c r="H34" s="115"/>
+      <c r="H34" s="96"/>
       <c r="I34" s="61">
         <v>111</v>
       </c>
@@ -4468,13 +4480,13 @@
       <c r="C35" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="117" t="s">
+      <c r="D35" s="98" t="s">
         <v>420</v>
       </c>
       <c r="E35" s="26"/>
       <c r="F35" s="44"/>
       <c r="G35" s="69"/>
-      <c r="H35" s="115"/>
+      <c r="H35" s="96"/>
       <c r="I35" s="61">
         <v>113</v>
       </c>
@@ -4509,7 +4521,7 @@
       <c r="C36" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="117" t="s">
+      <c r="D36" s="98" t="s">
         <v>412</v>
       </c>
       <c r="E36" s="26">
@@ -4517,7 +4529,7 @@
       </c>
       <c r="F36" s="44"/>
       <c r="G36" s="69"/>
-      <c r="H36" s="115"/>
+      <c r="H36" s="96"/>
       <c r="I36" s="61">
         <v>114</v>
       </c>
@@ -4552,7 +4564,7 @@
       <c r="C37" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="117" t="s">
+      <c r="D37" s="98" t="s">
         <v>417</v>
       </c>
       <c r="E37" s="26">
@@ -4560,7 +4572,7 @@
       </c>
       <c r="F37" s="44"/>
       <c r="G37" s="69"/>
-      <c r="H37" s="115"/>
+      <c r="H37" s="96"/>
       <c r="I37" s="61">
         <v>115</v>
       </c>
@@ -4595,7 +4607,7 @@
       <c r="C38" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="117" t="s">
+      <c r="D38" s="98" t="s">
         <v>421</v>
       </c>
       <c r="E38" s="26">
@@ -4603,7 +4615,7 @@
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="69"/>
-      <c r="H38" s="115"/>
+      <c r="H38" s="96"/>
       <c r="I38" s="61">
         <v>116</v>
       </c>
@@ -4638,7 +4650,7 @@
       <c r="C39" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="117" t="s">
+      <c r="D39" s="98" t="s">
         <v>412</v>
       </c>
       <c r="E39" s="26">
@@ -4646,7 +4658,7 @@
       </c>
       <c r="F39" s="44"/>
       <c r="G39" s="69"/>
-      <c r="H39" s="115"/>
+      <c r="H39" s="96"/>
       <c r="I39" s="61">
         <v>117</v>
       </c>
@@ -4681,13 +4693,13 @@
       <c r="C40" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="117" t="s">
+      <c r="D40" s="98" t="s">
         <v>415</v>
       </c>
       <c r="E40" s="26"/>
       <c r="F40" s="44"/>
       <c r="G40" s="69"/>
-      <c r="H40" s="115"/>
+      <c r="H40" s="96"/>
       <c r="I40" s="61">
         <v>118</v>
       </c>
@@ -4722,13 +4734,13 @@
       <c r="C41" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="117" t="s">
+      <c r="D41" s="98" t="s">
         <v>411</v>
       </c>
       <c r="E41" s="26"/>
       <c r="F41" s="44"/>
       <c r="G41" s="69"/>
-      <c r="H41" s="115"/>
+      <c r="H41" s="96"/>
       <c r="I41" s="61">
         <v>119</v>
       </c>
@@ -4763,13 +4775,13 @@
       <c r="C42" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="D42" s="117" t="s">
+      <c r="D42" s="98" t="s">
         <v>412</v>
       </c>
       <c r="E42" s="26"/>
       <c r="F42" s="44"/>
       <c r="G42" s="69"/>
-      <c r="H42" s="115"/>
+      <c r="H42" s="96"/>
       <c r="I42" s="61">
         <v>120</v>
       </c>
@@ -4804,13 +4816,13 @@
       <c r="C43" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="D43" s="117" t="s">
+      <c r="D43" s="98" t="s">
         <v>416</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="44"/>
       <c r="G43" s="69"/>
-      <c r="H43" s="115"/>
+      <c r="H43" s="96"/>
       <c r="I43" s="61">
         <v>121</v>
       </c>
@@ -4845,13 +4857,13 @@
       <c r="C44" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="D44" s="117" t="s">
+      <c r="D44" s="98" t="s">
         <v>411</v>
       </c>
       <c r="E44" s="26"/>
       <c r="F44" s="44"/>
       <c r="G44" s="69"/>
-      <c r="H44" s="115"/>
+      <c r="H44" s="96"/>
       <c r="I44" s="61">
         <v>122</v>
       </c>
@@ -4886,13 +4898,13 @@
       <c r="C45" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="117" t="s">
+      <c r="D45" s="98" t="s">
         <v>411</v>
       </c>
       <c r="E45" s="26"/>
       <c r="F45" s="44"/>
       <c r="G45" s="69"/>
-      <c r="H45" s="115"/>
+      <c r="H45" s="96"/>
       <c r="I45" s="61">
         <v>123</v>
       </c>
@@ -4920,27 +4932,27 @@
       </c>
       <c r="R45" s="35"/>
     </row>
-    <row r="46" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B46" s="25">
         <v>38</v>
       </c>
       <c r="C46" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="D46" s="117" t="s">
+      <c r="D46" s="98" t="s">
         <v>411</v>
       </c>
       <c r="E46" s="26"/>
       <c r="F46" s="44"/>
       <c r="G46" s="69"/>
-      <c r="H46" s="115"/>
-      <c r="I46" s="64">
+      <c r="H46" s="96"/>
+      <c r="I46" s="61">
         <v>124</v>
       </c>
-      <c r="J46" s="42" t="s">
+      <c r="J46" s="26" t="s">
         <v>376</v>
       </c>
-      <c r="K46" s="94" t="s">
+      <c r="K46" s="79" t="s">
         <v>405</v>
       </c>
       <c r="L46" s="66"/>
@@ -4968,14 +4980,23 @@
       <c r="C47" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="D47" s="117" t="s">
+      <c r="D47" s="98" t="s">
         <v>411</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="44"/>
       <c r="G47" s="69"/>
-      <c r="H47" s="66"/>
-      <c r="L47" s="38"/>
+      <c r="H47" s="96"/>
+      <c r="I47" s="61">
+        <v>125</v>
+      </c>
+      <c r="J47" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="K47" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="L47" s="66"/>
       <c r="M47" s="60">
         <v>86</v>
       </c>
@@ -4993,21 +5014,30 @@
       </c>
       <c r="R47" s="35"/>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="25">
         <v>40</v>
       </c>
       <c r="C48" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D48" s="117" t="s">
+      <c r="D48" s="98" t="s">
         <v>411</v>
       </c>
       <c r="E48" s="26"/>
       <c r="F48" s="44"/>
       <c r="G48" s="69"/>
-      <c r="H48" s="66"/>
-      <c r="L48" s="38"/>
+      <c r="H48" s="96"/>
+      <c r="I48" s="64">
+        <v>126</v>
+      </c>
+      <c r="J48" s="95" t="s">
+        <v>429</v>
+      </c>
+      <c r="K48" s="94" t="s">
+        <v>430</v>
+      </c>
+      <c r="L48" s="66"/>
       <c r="M48" s="60">
         <v>86</v>
       </c>
@@ -5032,7 +5062,7 @@
       <c r="C49" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="D49" s="117" t="s">
+      <c r="D49" s="98" t="s">
         <v>411</v>
       </c>
       <c r="E49" s="26"/>
@@ -5064,7 +5094,7 @@
       <c r="C50" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="D50" s="117" t="s">
+      <c r="D50" s="98" t="s">
         <v>412</v>
       </c>
       <c r="E50" s="26"/>
@@ -5096,7 +5126,7 @@
       <c r="C51" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D51" s="117" t="s">
+      <c r="D51" s="98" t="s">
         <v>411</v>
       </c>
       <c r="E51" s="26"/>
@@ -5128,7 +5158,7 @@
       <c r="C52" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="D52" s="117" t="s">
+      <c r="D52" s="98" t="s">
         <v>415</v>
       </c>
       <c r="E52" s="26"/>
@@ -5160,7 +5190,7 @@
       <c r="C53" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D53" s="117" t="s">
+      <c r="D53" s="98" t="s">
         <v>422</v>
       </c>
       <c r="E53" s="26"/>
@@ -5190,7 +5220,7 @@
       <c r="C54" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="D54" s="117" t="s">
+      <c r="D54" s="98" t="s">
         <v>411</v>
       </c>
       <c r="E54" s="26"/>
@@ -5222,7 +5252,7 @@
       <c r="C55" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="D55" s="117" t="s">
+      <c r="D55" s="98" t="s">
         <v>423</v>
       </c>
       <c r="E55" s="26"/>
@@ -5254,7 +5284,7 @@
       <c r="C56" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="D56" s="117" t="s">
+      <c r="D56" s="98" t="s">
         <v>418</v>
       </c>
       <c r="E56" s="26"/>
@@ -5263,7 +5293,7 @@
       <c r="H56" s="66"/>
       <c r="L56" s="38"/>
       <c r="M56" s="62">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="N56" s="57" t="s">
         <v>173</v>
@@ -5286,7 +5316,7 @@
       <c r="C57" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="D57" s="117" t="s">
+      <c r="D57" s="98" t="s">
         <v>417</v>
       </c>
       <c r="E57" s="26"/>
@@ -5318,7 +5348,7 @@
       <c r="C58" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="D58" s="117" t="s">
+      <c r="D58" s="98" t="s">
         <v>424</v>
       </c>
       <c r="E58" s="26"/>
@@ -5350,7 +5380,7 @@
       <c r="C59" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D59" s="117" t="s">
+      <c r="D59" s="98" t="s">
         <v>412</v>
       </c>
       <c r="E59" s="26"/>
@@ -5382,7 +5412,7 @@
       <c r="C60" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="D60" s="117" t="s">
+      <c r="D60" s="98" t="s">
         <v>420</v>
       </c>
       <c r="E60" s="26"/>
@@ -5414,7 +5444,7 @@
       <c r="C61" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D61" s="117" t="s">
+      <c r="D61" s="98" t="s">
         <v>411</v>
       </c>
       <c r="E61" s="26"/>
@@ -5446,7 +5476,7 @@
       <c r="C62" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="D62" s="117" t="s">
+      <c r="D62" s="98" t="s">
         <v>411</v>
       </c>
       <c r="E62" s="26"/>
@@ -5478,7 +5508,7 @@
       <c r="C63" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="D63" s="117" t="s">
+      <c r="D63" s="98" t="s">
         <v>425</v>
       </c>
       <c r="E63" s="26"/>
@@ -5510,7 +5540,7 @@
       <c r="C64" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="D64" s="117" t="s">
+      <c r="D64" s="98" t="s">
         <v>413</v>
       </c>
       <c r="E64" s="26"/>
@@ -5542,7 +5572,7 @@
       <c r="C65" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="D65" s="117" t="s">
+      <c r="D65" s="98" t="s">
         <v>420</v>
       </c>
       <c r="E65" s="26"/>
@@ -5574,7 +5604,7 @@
       <c r="C66" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="D66" s="117" t="s">
+      <c r="D66" s="98" t="s">
         <v>415</v>
       </c>
       <c r="E66" s="26"/>
@@ -5606,7 +5636,7 @@
       <c r="C67" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="D67" s="117" t="s">
+      <c r="D67" s="98" t="s">
         <v>412</v>
       </c>
       <c r="E67" s="26"/>
@@ -5638,7 +5668,7 @@
       <c r="C68" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="D68" s="117" t="s">
+      <c r="D68" s="98" t="s">
         <v>411</v>
       </c>
       <c r="E68" s="26"/>
@@ -5670,7 +5700,7 @@
       <c r="C69" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="117" t="s">
+      <c r="D69" s="98" t="s">
         <v>415</v>
       </c>
       <c r="E69" s="26"/>
@@ -5702,7 +5732,7 @@
       <c r="C70" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="D70" s="117" t="s">
+      <c r="D70" s="98" t="s">
         <v>411</v>
       </c>
       <c r="E70" s="26"/>
@@ -5734,7 +5764,7 @@
       <c r="C71" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="D71" s="117" t="s">
+      <c r="D71" s="98" t="s">
         <v>415</v>
       </c>
       <c r="E71" s="26"/>
@@ -5766,7 +5796,7 @@
       <c r="C72" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="D72" s="117" t="s">
+      <c r="D72" s="98" t="s">
         <v>414</v>
       </c>
       <c r="E72" s="26"/>
@@ -5798,7 +5828,7 @@
       <c r="C73" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D73" s="117" t="s">
+      <c r="D73" s="98" t="s">
         <v>418</v>
       </c>
       <c r="E73" s="26"/>
@@ -5830,7 +5860,7 @@
       <c r="C74" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="D74" s="117" t="s">
+      <c r="D74" s="98" t="s">
         <v>411</v>
       </c>
       <c r="E74" s="26"/>
@@ -5862,7 +5892,7 @@
       <c r="C75" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="D75" s="117" t="s">
+      <c r="D75" s="98" t="s">
         <v>422</v>
       </c>
       <c r="E75" s="26"/>
@@ -5894,7 +5924,7 @@
       <c r="C76" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="D76" s="117" t="s">
+      <c r="D76" s="98" t="s">
         <v>422</v>
       </c>
       <c r="E76" s="26"/>
@@ -5926,7 +5956,7 @@
       <c r="C77" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="D77" s="117" t="s">
+      <c r="D77" s="98" t="s">
         <v>422</v>
       </c>
       <c r="E77" s="26"/>
@@ -5958,7 +5988,7 @@
       <c r="C78" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="D78" s="117" t="s">
+      <c r="D78" s="98" t="s">
         <v>422</v>
       </c>
       <c r="E78" s="26"/>
@@ -5990,7 +6020,7 @@
       <c r="C79" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="D79" s="117" t="s">
+      <c r="D79" s="98" t="s">
         <v>418</v>
       </c>
       <c r="E79" s="26"/>
@@ -6022,7 +6052,7 @@
       <c r="C80" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="D80" s="117" t="s">
+      <c r="D80" s="98" t="s">
         <v>418</v>
       </c>
       <c r="E80" s="26"/>
@@ -6054,7 +6084,7 @@
       <c r="C81" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="D81" s="117" t="s">
+      <c r="D81" s="98" t="s">
         <v>411</v>
       </c>
       <c r="E81" s="26"/>
@@ -6086,7 +6116,7 @@
       <c r="C82" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="D82" s="117" t="s">
+      <c r="D82" s="98" t="s">
         <v>415</v>
       </c>
       <c r="E82" s="26"/>
@@ -6118,7 +6148,7 @@
       <c r="C83" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="D83" s="117" t="s">
+      <c r="D83" s="98" t="s">
         <v>411</v>
       </c>
       <c r="E83" s="26"/>
@@ -6150,7 +6180,7 @@
       <c r="C84" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="D84" s="117" t="s">
+      <c r="D84" s="98" t="s">
         <v>415</v>
       </c>
       <c r="E84" s="26"/>
@@ -6182,7 +6212,7 @@
       <c r="C85" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="D85" s="117" t="s">
+      <c r="D85" s="98" t="s">
         <v>415</v>
       </c>
       <c r="E85" s="26"/>
@@ -6214,7 +6244,7 @@
       <c r="C86" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="D86" s="117" t="s">
+      <c r="D86" s="98" t="s">
         <v>418</v>
       </c>
       <c r="E86" s="26"/>
@@ -6246,7 +6276,7 @@
       <c r="C87" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="D87" s="117" t="s">
+      <c r="D87" s="98" t="s">
         <v>426</v>
       </c>
       <c r="E87" s="26"/>
@@ -6278,7 +6308,7 @@
       <c r="C88" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="D88" s="117" t="s">
+      <c r="D88" s="98" t="s">
         <v>416</v>
       </c>
       <c r="E88" s="26"/>
@@ -6310,7 +6340,7 @@
       <c r="C89" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="D89" s="117" t="s">
+      <c r="D89" s="98" t="s">
         <v>426</v>
       </c>
       <c r="E89" s="26"/>
@@ -6342,7 +6372,7 @@
       <c r="C90" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="D90" s="117" t="s">
+      <c r="D90" s="98" t="s">
         <v>418</v>
       </c>
       <c r="E90" s="26"/>
@@ -6374,7 +6404,7 @@
       <c r="C91" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="D91" s="117" t="s">
+      <c r="D91" s="98" t="s">
         <v>418</v>
       </c>
       <c r="E91" s="26"/>
@@ -6406,13 +6436,13 @@
       <c r="C92" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="D92" s="119" t="s">
+      <c r="D92" s="100" t="s">
         <v>418</v>
       </c>
       <c r="E92" s="42"/>
       <c r="F92" s="45"/>
       <c r="G92" s="70"/>
-      <c r="H92" s="116"/>
+      <c r="H92" s="97"/>
       <c r="L92" s="38"/>
       <c r="M92" s="61">
         <v>93</v>
@@ -8336,7 +8366,7 @@
     <row r="193" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L193" s="38"/>
       <c r="M193" s="86">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="N193" s="49" t="s">
         <v>260</v>
@@ -8488,7 +8518,7 @@
     <row r="201" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L201" s="38"/>
       <c r="M201" s="91">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="N201" s="56" t="s">
         <v>260</v>
